--- a/QuantLibXL/Data2/XLS/EUR_ITALY.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_ITALY.xlsx
@@ -18,12 +18,8 @@
     <sheet name="BTP Infl" sheetId="6" r:id="rId9"/>
     <sheet name="BTP Infl Strip" sheetId="10" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="BondSettlementDate">BTP!$K$6</definedName>
+    <definedName name="BondSettlementDate">BTP!$J$6</definedName>
     <definedName name="BondType" localSheetId="2">BTP!$B$2</definedName>
     <definedName name="BondType" localSheetId="8">'BTP Infl'!$C$2</definedName>
     <definedName name="BondType" localSheetId="9">'BTP Infl Strip'!$C$2</definedName>
@@ -52,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="539">
   <si>
     <t>General Settings</t>
   </si>
@@ -1666,6 +1662,9 @@
   </si>
   <si>
     <t>BTP 2044-09-01 4.75%</t>
+  </si>
+  <si>
+    <t>=\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\XL-Libraries\FinDB.xla'!getlogicbookinstruments("btpnoil","alive")</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2058,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
@@ -2273,6 +2272,7 @@
     <xf numFmtId="171" fontId="2" fillId="5" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2371,40 +2371,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="BlankSheet"/>
-      <sheetName val="FinDB"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="getlogicbookinstruments"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlserializationpath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2698,7 +2664,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2716,17 +2682,17 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Oct 13 2014 15:51:57</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -2742,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="9">
-        <v>41926.741782407407</v>
+        <v>41928.712071759262</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -2775,7 +2741,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -2785,10 +2751,7 @@
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="126" t="str">
-        <f>[2]!qlserializationpath(Trigger)</f>
-        <v>C:\projects\quantlib\QuantLibXL\Data2\XML\</v>
-      </c>
+      <c r="D8" s="126"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2814,11 +2777,8 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" display="\\srv0001\risorse\WorkGroup\IMI_Workbooks\Environments\Production\R010202\framework\addin\FixedIncome.xla!qlserializationpath(Trigger)"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2995,10 +2955,10 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="N8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3148,9 +3108,9 @@
     </row>
     <row r="4" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="63"/>
-      <c r="B4" s="21">
+      <c r="B4" s="21" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(AC8:AD23,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>27</v>
+        <v>---</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>22</v>
@@ -3433,11 +3393,11 @@
       </c>
       <c r="AC8" s="70" t="str">
         <f>_xll.qlSchedule(C8&amp;"_Sch",D8,E8,F8,G8,H8,I8,J8,K8,L8,M8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003605380_Sch#0001</v>
+        <v>IT0003605380_Sch#0000</v>
       </c>
       <c r="AD8" s="52" t="str">
         <f>IF(AE8,_xll.qlCCTEU(C8,,E8,X8,W8,D8,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C8,AB8,N8,O8,P8,Q8,AC8,R8,S8,T8,U8,V8,W8,X8,Y8,Z8,AA8,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0003605380#0001</v>
+        <v>IT0003605380#0000</v>
       </c>
       <c r="AE8" s="52" t="b">
         <v>0</v>
@@ -3527,11 +3487,11 @@
       </c>
       <c r="AC9" s="70" t="str">
         <f>_xll.qlSchedule(C9&amp;"_Sch",D9,E9,F9,G9,H9,I9,J9,K9,L9,M9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003658009_Sch#0001</v>
+        <v>IT0003658009_Sch#0000</v>
       </c>
       <c r="AD9" s="52" t="str">
         <f>IF(AE9,_xll.qlCCTEU(C9,,E9,X9,W9,D9,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C9,AB9,N9,O9,P9,Q9,AC9,R9,S9,T9,U9,V9,W9,X9,Y9,Z9,AA9,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0003658009#0001</v>
+        <v>IT0003658009#0000</v>
       </c>
       <c r="AE9" s="52" t="b">
         <v>0</v>
@@ -3621,11 +3581,11 @@
       </c>
       <c r="AC10" s="70" t="str">
         <f>_xll.qlSchedule(C10&amp;"_Sch",D10,E10,F10,G10,H10,I10,J10,K10,L10,M10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003746366_Sch#0001</v>
+        <v>IT0003746366_Sch#0000</v>
       </c>
       <c r="AD10" s="52" t="str">
         <f>IF(AE10,_xll.qlCCTEU(C10,,E10,X10,W10,D10,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C10,AB10,N10,O10,P10,Q10,AC10,R10,S10,T10,U10,V10,W10,X10,Y10,Z10,AA10,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0003746366#0001</v>
+        <v>IT0003746366#0000</v>
       </c>
       <c r="AE10" s="52" t="b">
         <v>0</v>
@@ -3715,11 +3675,11 @@
       </c>
       <c r="AC11" s="56" t="str">
         <f>_xll.qlSchedule(C11&amp;"_Sch",D11,E11,F11,G11,H11,I11,J11,K11,L11,M11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003858856_Sch#0001</v>
+        <v>IT0003858856_Sch#0000</v>
       </c>
       <c r="AD11" s="31" t="str">
         <f>IF(AE11,_xll.qlCCTEU(C11,,E11,X11,W11,D11,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C11,AB11,N11,O11,P11,Q11,AC11,R11,S11,T11,U11,V11,W11,X11,Y11,Z11,AA11,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0003858856#0001</v>
+        <v>IT0003858856#0000</v>
       </c>
       <c r="AE11" s="31" t="b">
         <v>0</v>
@@ -3809,11 +3769,11 @@
       </c>
       <c r="AC12" s="56" t="str">
         <f>_xll.qlSchedule(C12&amp;"_Sch",D12,E12,F12,G12,H12,I12,J12,K12,L12,M12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003993158_Sch#0001</v>
+        <v>IT0003993158_Sch#0000</v>
       </c>
       <c r="AD12" s="31" t="str">
         <f>IF(AE12,_xll.qlCCTEU(C12,,E12,X12,W12,D12,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C12,AB12,N12,O12,P12,Q12,AC12,R12,S12,T12,U12,V12,W12,X12,Y12,Z12,AA12,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0003993158#0001</v>
+        <v>IT0003993158#0000</v>
       </c>
       <c r="AE12" s="31" t="b">
         <v>0</v>
@@ -3903,11 +3863,11 @@
       </c>
       <c r="AC13" s="56" t="str">
         <f>_xll.qlSchedule(C13&amp;"_Sch",D13,E13,F13,G13,H13,I13,J13,K13,L13,M13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004101447_Sch#0001</v>
+        <v>IT0004101447_Sch#0000</v>
       </c>
       <c r="AD13" s="31" t="str">
         <f>IF(AE13,_xll.qlCCTEU(C13,,E13,X13,W13,D13,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C13,AB13,N13,O13,P13,Q13,AC13,R13,S13,T13,U13,V13,W13,X13,Y13,Z13,AA13,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0004101447#0001</v>
+        <v>IT0004101447#0000</v>
       </c>
       <c r="AE13" s="31" t="b">
         <v>0</v>
@@ -3997,11 +3957,11 @@
       </c>
       <c r="AC14" s="56" t="str">
         <f>_xll.qlSchedule(C14&amp;"_Sch",D14,E14,F14,G14,H14,I14,J14,K14,L14,M14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004224041_Sch#0001</v>
+        <v>IT0004224041_Sch#0000</v>
       </c>
       <c r="AD14" s="31" t="str">
         <f>IF(AE14,_xll.qlCCTEU(C14,,E14,X14,W14,D14,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C14,AB14,N14,O14,P14,Q14,AC14,R14,S14,T14,U14,V14,W14,X14,Y14,Z14,AA14,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0004224041#0001</v>
+        <v>IT0004224041#0000</v>
       </c>
       <c r="AE14" s="31" t="b">
         <v>0</v>
@@ -4091,11 +4051,11 @@
       </c>
       <c r="AC15" s="56" t="str">
         <f>_xll.qlSchedule(C15&amp;"_Sch",D15,E15,F15,G15,H15,I15,J15,K15,L15,M15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004321813_Sch#0001</v>
+        <v>IT0004321813_Sch#0000</v>
       </c>
       <c r="AD15" s="31" t="str">
         <f>IF(AE15,_xll.qlCCTEU(C15,,E15,X15,W15,D15,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C15,AB15,N15,O15,P15,Q15,AC15,R15,S15,T15,U15,V15,W15,X15,Y15,Z15,AA15,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0004321813#0001</v>
+        <v>IT0004321813#0000</v>
       </c>
       <c r="AE15" s="31" t="b">
         <v>0</v>
@@ -4185,11 +4145,11 @@
       </c>
       <c r="AC16" s="56" t="str">
         <f>_xll.qlSchedule(C16&amp;"_Sch",D16,E16,F16,G16,H16,I16,J16,K16,L16,M16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004404965_Sch#0001</v>
+        <v>IT0004404965_Sch#0000</v>
       </c>
       <c r="AD16" s="31" t="str">
         <f>IF(AE16,_xll.qlCCTEU(C16,,E16,X16,W16,D16,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C16,AB16,N16,O16,P16,Q16,AC16,R16,S16,T16,U16,V16,W16,X16,Y16,Z16,AA16,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0004404965#0001</v>
+        <v>IT0004404965#0000</v>
       </c>
       <c r="AE16" s="31" t="b">
         <v>0</v>
@@ -4275,14 +4235,14 @@
       <c r="AA17" s="79" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB17" s="80" t="str">
+      <c r="AB17" s="80" t="e">
         <f>_xll.qlBondDescription(AD17)</f>
-        <v>CCTEU 2015-12-15 80bp</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AC17" s="81"/>
-      <c r="AD17" s="82" t="str">
+      <c r="AD17" s="82" t="e">
         <f>IF(AE17,_xll.qlCCTEU(C17,,E17,X17,W17,D17,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C17,AB17,N17,O17,P17,Q17,AC17,R17,S17,T17,U17,V17,W17,X17,Y17,Z17,AA17,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0004620305#0001</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE17" s="82" t="b">
         <v>1</v>
@@ -4372,11 +4332,11 @@
       </c>
       <c r="AC18" s="56" t="str">
         <f>_xll.qlSchedule(C18&amp;"_Sch",D18,E18,F18,G18,H18,I18,J18,K18,L18,M18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004518715_Sch#0001</v>
+        <v>IT0004518715_Sch#0000</v>
       </c>
       <c r="AD18" s="31" t="str">
         <f>IF(AE18,_xll.qlCCTEU(C18,,E18,X18,W18,D18,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C18,AB18,N18,O18,P18,Q18,AC18,R18,S18,T18,U18,V18,W18,X18,Y18,Z18,AA18,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0004518715#0001</v>
+        <v>IT0004518715#0000</v>
       </c>
       <c r="AE18" s="31" t="b">
         <v>0</v>
@@ -4466,11 +4426,11 @@
       </c>
       <c r="AC19" s="56" t="str">
         <f>_xll.qlSchedule(C19&amp;"_Sch",D19,E19,F19,G19,H19,I19,J19,K19,L19,M19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004584204_Sch#0001</v>
+        <v>IT0004584204_Sch#0000</v>
       </c>
       <c r="AD19" s="31" t="str">
         <f>IF(AE19,_xll.qlCCTEU(C19,,E19,X19,W19,D19,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C19,AB19,N19,O19,P19,Q19,AC19,R19,S19,T19,U19,V19,W19,X19,Y19,Z19,AA19,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0004584204#0001</v>
+        <v>IT0004584204#0000</v>
       </c>
       <c r="AE19" s="31" t="b">
         <v>0</v>
@@ -4558,14 +4518,14 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AB20" s="80" t="str">
+      <c r="AB20" s="80" t="e">
         <f>_xll.qlBondDescription(AD20)</f>
-        <v>CCTEU 2017-10-15 80bp</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AC20" s="81"/>
-      <c r="AD20" s="82" t="str">
+      <c r="AD20" s="82" t="e">
         <f>IF(AE20,_xll.qlCCTEU(C20,,E20,X20,W20,D20,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C20,AB20,N20,O20,P20,Q20,AC20,R20,S20,T20,U20,V20,W20,X20,Y20,Z20,AA20,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0004652175#0001</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE20" s="82" t="b">
         <v>1</v>
@@ -4653,14 +4613,14 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AB21" s="80" t="str">
+      <c r="AB21" s="80" t="e">
         <f>_xll.qlBondDescription(AD21)</f>
-        <v>CCTEU 2018-04-15 100bp</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AC21" s="81"/>
-      <c r="AD21" s="82" t="str">
+      <c r="AD21" s="82" t="e">
         <f>IF(AE21,_xll.qlCCTEU(C21,,E21,X21,W21,D21,,Permanent,Trigger,ObjectOverwrite),_xll.qlFloatingRateBond(C21,AB21,N21,O21,P21,Q21,AC21,R21,S21,T21,U21,V21,W21,X21,Y21,Z21,AA21,Permanent,Trigger,ObjectOverwrite))</f>
-        <v>IT0004716319#0001</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE21" s="82" t="b">
         <v>1</v>
@@ -4697,9 +4657,9 @@
       <c r="AA22" s="22"/>
       <c r="AB22" s="22"/>
       <c r="AC22" s="22"/>
-      <c r="AD22" s="57" t="str">
+      <c r="AD22" s="57" t="e">
         <f>_xll.ohGroup(AE22,_xll.ohFilter(AD8:AD21,AE8:AE21),Permanent,,ObjectOverwrite)</f>
-        <v>CCTEUs#0001</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE22" s="22" t="s">
         <v>419</v>
@@ -4736,9 +4696,9 @@
       <c r="AA23" s="45"/>
       <c r="AB23" s="45"/>
       <c r="AC23" s="45"/>
-      <c r="AD23" s="53" t="str">
+      <c r="AD23" s="53" t="e">
         <f>_xll.ohGroup(AE23,AD8:AD21,Permanent,,ObjectOverwrite)</f>
-        <v>CCTs#0001</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE23" s="45" t="s">
         <v>417</v>
@@ -4770,13 +4730,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T96"/>
+  <dimension ref="A1:S96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="7" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4788,20 +4748,20 @@
     <col min="5" max="5" width="8" style="28" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="11" style="28" customWidth="1" outlineLevel="1"/>
     <col min="7" max="8" width="17.28515625" style="28" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="10" width="22.42578125" style="28" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="20.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" style="28" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="28" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="28"/>
-    <col min="20" max="20" width="21.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="28"/>
+    <col min="9" max="9" width="22.42578125" style="28" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="20.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" style="28" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="28" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="28"/>
+    <col min="19" max="19" width="21.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -4816,10 +4776,9 @@
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17"/>
-    </row>
-    <row r="2" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="17"/>
+    </row>
+    <row r="2" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="63"/>
       <c r="B2" s="21" t="s">
         <v>55</v>
@@ -4838,10 +4797,9 @@
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="23"/>
-    </row>
-    <row r="3" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="23"/>
+    </row>
+    <row r="3" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="63"/>
       <c r="B3" s="21" t="str">
         <f>"EUR_"&amp;BondType&amp;".xml"</f>
@@ -4861,14 +4819,13 @@
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
-    </row>
-    <row r="4" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="23"/>
+    </row>
+    <row r="4" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="63"/>
-      <c r="B4" s="21">
-        <f>IF(Serialize,_xll.ohObjectSave(J8:K96,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>174</v>
+      <c r="B4" s="21" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(J8:J96,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>22</v>
@@ -4884,10 +4841,9 @@
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
-    </row>
-    <row r="5" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="63"/>
       <c r="B5" s="64" t="str">
         <f>_xll.ohRangeRetrieveError(B4)</f>
@@ -4905,10 +4861,9 @@
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
-    </row>
-    <row r="6" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="23"/>
+    </row>
+    <row r="6" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -4918,18 +4873,17 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="51">
-        <f>_xll.qlBondSettlementDate(K8,)</f>
-        <v>41929</v>
-      </c>
+      <c r="J6" s="51">
+        <f>_xll.qlBondSettlementDate(J8,)</f>
+        <v>41932</v>
+      </c>
+      <c r="K6" s="22"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="23"/>
-    </row>
-    <row r="7" spans="1:20" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="O6" s="23"/>
+    </row>
+    <row r="7" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="84" t="s">
         <v>26</v>
@@ -4955,26 +4909,25 @@
       <c r="I7" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="84"/>
+      <c r="J7" s="84" t="s">
+        <v>25</v>
+      </c>
       <c r="K7" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="84" t="s">
         <v>355</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="48" t="s">
+      <c r="L7" s="22"/>
+      <c r="M7" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="N7" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="P7" s="23"/>
-    </row>
-    <row r="8" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="23"/>
+    </row>
+    <row r="8" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="63"/>
       <c r="B8" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(K8)</f>
+        <f>_xll.ohRangeRetrieveError(J8)</f>
         <v/>
       </c>
       <c r="C8" s="86" t="s">
@@ -4998,38 +4951,34 @@
       <c r="I8" s="88" t="s">
         <v>452</v>
       </c>
-      <c r="J8" s="18" t="str">
-        <f>_xll.qlSchedule(C8&amp;"_sch",G8,D8,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0003799597_sch#0001</v>
-      </c>
-      <c r="K8" s="93" t="str">
+      <c r="J8" s="93" t="str">
         <f>_xll.qlBTP2(C8,I8,D8,E8,F8,G8,H8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003799597#0001</v>
-      </c>
-      <c r="L8" s="93" t="b">
+        <v>IT0003799597#0000</v>
+      </c>
+      <c r="K8" s="93" t="b">
         <v>0</v>
       </c>
-      <c r="M8" s="95" t="str">
-        <f>IF(AND(L8,ISNA(N8),ISNA(O8)),"Residual Missing","--")</f>
+      <c r="L8" s="95" t="str">
+        <f>IF(AND(K8,ISNA(M8),ISNA(N8)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
+      <c r="M8" s="49" t="e">
+        <f>LEFT(VLOOKUP($D8,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N8" s="49" t="e">
-        <f>LEFT(VLOOKUP($D8,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O8" s="49" t="e">
         <f>LEFT(VLOOKUP($D8,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="T8" s="18" t="s">
+      <c r="O8" s="23"/>
+      <c r="S8" s="18" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="63"/>
       <c r="B9" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(K9)</f>
+        <f>_xll.ohRangeRetrieveError(J9)</f>
         <v/>
       </c>
       <c r="C9" s="86" t="s">
@@ -5053,35 +5002,31 @@
       <c r="I9" s="88" t="s">
         <v>453</v>
       </c>
-      <c r="J9" s="18" t="str">
-        <f>_xll.qlSchedule(C9&amp;"_sch",G9,D9,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004196918_sch#0001</v>
-      </c>
-      <c r="K9" s="93" t="str">
+      <c r="J9" s="93" t="str">
         <f>_xll.qlBTP2(C9,I9,D9,E9,F9,G9,H9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004196918#0001</v>
-      </c>
-      <c r="L9" s="93" t="b">
+        <v>IT0004196918#0000</v>
+      </c>
+      <c r="K9" s="93" t="b">
         <v>0</v>
       </c>
-      <c r="M9" s="95" t="str">
-        <f t="shared" ref="M9:M75" si="0">IF(AND(L9,ISNA(N9),ISNA(O9)),"Residual Missing","--")</f>
+      <c r="L9" s="95" t="str">
+        <f t="shared" ref="L9:L75" si="0">IF(AND(K9,ISNA(M9),ISNA(N9)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
+      <c r="M9" s="49" t="e">
+        <f>LEFT(VLOOKUP($D9,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N9" s="49" t="e">
-        <f>LEFT(VLOOKUP($D9,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O9" s="49" t="e">
         <f>LEFT(VLOOKUP($D9,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P9" s="23"/>
-    </row>
-    <row r="10" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="23"/>
+    </row>
+    <row r="10" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="63"/>
       <c r="B10" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(K10)</f>
+        <f>_xll.ohRangeRetrieveError(J10)</f>
         <v/>
       </c>
       <c r="C10" s="86" t="s">
@@ -5105,35 +5050,31 @@
       <c r="I10" s="88" t="s">
         <v>454</v>
       </c>
-      <c r="J10" s="18" t="str">
-        <f>_xll.qlSchedule(C10&amp;"_sch",G10,D10,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0003872923_sch#0001</v>
-      </c>
-      <c r="K10" s="93" t="str">
+      <c r="J10" s="93" t="str">
         <f>_xll.qlBTP2(C10,I10,D10,E10,F10,G10,H10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003872923#0001</v>
-      </c>
-      <c r="L10" s="93" t="b">
+        <v>IT0003872923#0000</v>
+      </c>
+      <c r="K10" s="93" t="b">
         <v>0</v>
       </c>
-      <c r="M10" s="95" t="str">
+      <c r="L10" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M10" s="49" t="e">
+        <f>LEFT(VLOOKUP($D10,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N10" s="49" t="e">
-        <f>LEFT(VLOOKUP($D10,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O10" s="49" t="e">
         <f>LEFT(VLOOKUP($D10,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P10" s="23"/>
-    </row>
-    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="23"/>
+    </row>
+    <row r="11" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="63"/>
       <c r="B11" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(K11)</f>
+        <f>_xll.ohRangeRetrieveError(J11)</f>
         <v/>
       </c>
       <c r="C11" s="86" t="s">
@@ -5157,35 +5098,31 @@
       <c r="I11" s="88" t="s">
         <v>455</v>
       </c>
-      <c r="J11" s="18" t="str">
-        <f>_xll.qlSchedule(C11&amp;"_sch",G11,D11,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004254352_sch#0001</v>
-      </c>
-      <c r="K11" s="93" t="str">
+      <c r="J11" s="93" t="str">
         <f>_xll.qlBTP2(C11,I11,D11,E11,F11,G11,H11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004254352#0001</v>
-      </c>
-      <c r="L11" s="93" t="b">
+        <v>IT0004254352#0000</v>
+      </c>
+      <c r="K11" s="93" t="b">
         <v>0</v>
       </c>
-      <c r="M11" s="95" t="str">
+      <c r="L11" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M11" s="49" t="e">
+        <f>LEFT(VLOOKUP($D11,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N11" s="49" t="e">
-        <f>LEFT(VLOOKUP($D11,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O11" s="49" t="e">
         <f>LEFT(VLOOKUP($D11,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P11" s="23"/>
-    </row>
-    <row r="12" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="23"/>
+    </row>
+    <row r="12" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="63"/>
       <c r="B12" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(K12)</f>
+        <f>_xll.ohRangeRetrieveError(J12)</f>
         <v/>
       </c>
       <c r="C12" s="86" t="s">
@@ -5209,38 +5146,34 @@
       <c r="I12" s="88" t="s">
         <v>456</v>
       </c>
-      <c r="J12" s="18" t="str">
-        <f>_xll.qlSchedule(C12&amp;"_sch",G12,D12,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0001448619_sch#0001</v>
-      </c>
-      <c r="K12" s="93" t="str">
+      <c r="J12" s="93" t="str">
         <f>_xll.qlBTP2(C12,I12,D12,E12,F12,G12,H12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001448619#0001</v>
-      </c>
-      <c r="L12" s="93" t="b">
+        <v>IT0001448619#0000</v>
+      </c>
+      <c r="K12" s="93" t="b">
         <v>1</v>
       </c>
-      <c r="M12" s="95" t="str">
+      <c r="L12" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="N12" s="49" t="str">
+      <c r="M12" s="49" t="str">
         <f>LEFT(VLOOKUP($D12,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>IT0001461844</v>
       </c>
-      <c r="O12" s="49" t="e">
+      <c r="N12" s="49" t="e">
         <f>LEFT(VLOOKUP($D12,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P12" s="23"/>
-      <c r="T12" s="18" t="s">
+      <c r="O12" s="23"/>
+      <c r="S12" s="18" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="63"/>
       <c r="B13" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(K13)</f>
+        <f>_xll.ohRangeRetrieveError(J13)</f>
         <v/>
       </c>
       <c r="C13" s="86" t="s">
@@ -5264,35 +5197,31 @@
       <c r="I13" s="88" t="s">
         <v>457</v>
       </c>
-      <c r="J13" s="18" t="str">
-        <f>_xll.qlSchedule(C13&amp;"_sch",G13,D13,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004332521_sch#0001</v>
-      </c>
-      <c r="K13" s="93" t="str">
+      <c r="J13" s="93" t="str">
         <f>_xll.qlBTP2(C13,I13,D13,E13,F13,G13,H13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004332521#0001</v>
-      </c>
-      <c r="L13" s="93" t="b">
+        <v>IT0004332521#0000</v>
+      </c>
+      <c r="K13" s="93" t="b">
         <v>0</v>
       </c>
-      <c r="M13" s="95" t="str">
+      <c r="L13" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M13" s="49" t="e">
+        <f>LEFT(VLOOKUP($D13,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N13" s="49" t="e">
-        <f>LEFT(VLOOKUP($D13,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O13" s="49" t="e">
         <f>LEFT(VLOOKUP($D13,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P13" s="23"/>
-    </row>
-    <row r="14" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="23"/>
+    </row>
+    <row r="14" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="63"/>
       <c r="B14" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(K14)</f>
+        <f>_xll.ohRangeRetrieveError(J14)</f>
         <v/>
       </c>
       <c r="C14" s="86" t="s">
@@ -5316,35 +5245,31 @@
       <c r="I14" s="88" t="s">
         <v>458</v>
       </c>
-      <c r="J14" s="18" t="str">
-        <f>_xll.qlSchedule(C14&amp;"_sch",G14,D14,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004026297_sch#0001</v>
-      </c>
-      <c r="K14" s="93" t="str">
+      <c r="J14" s="93" t="str">
         <f>_xll.qlBTP2(C14,I14,D14,E14,F14,G14,H14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004026297#0001</v>
-      </c>
-      <c r="L14" s="93" t="b">
+        <v>IT0004026297#0000</v>
+      </c>
+      <c r="K14" s="93" t="b">
         <v>0</v>
       </c>
-      <c r="M14" s="95" t="str">
+      <c r="L14" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M14" s="49" t="e">
+        <f>LEFT(VLOOKUP($D14,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N14" s="49" t="e">
-        <f>LEFT(VLOOKUP($D14,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O14" s="49" t="e">
         <f>LEFT(VLOOKUP($D14,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P14" s="23"/>
-    </row>
-    <row r="15" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="23"/>
+    </row>
+    <row r="15" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="63"/>
       <c r="B15" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(K15)</f>
+        <f>_xll.ohRangeRetrieveError(J15)</f>
         <v/>
       </c>
       <c r="C15" s="86" t="s">
@@ -5368,35 +5293,31 @@
       <c r="I15" s="88" t="s">
         <v>459</v>
       </c>
-      <c r="J15" s="18" t="str">
-        <f>_xll.qlSchedule(C15&amp;"_sch",G15,D15,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0003080402_sch#0001</v>
-      </c>
-      <c r="K15" s="93" t="str">
+      <c r="J15" s="93" t="str">
         <f>_xll.qlBTP2(C15,I15,D15,E15,F15,G15,H15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003080402#0001</v>
-      </c>
-      <c r="L15" s="93" t="b">
+        <v>IT0003080402#0000</v>
+      </c>
+      <c r="K15" s="93" t="b">
         <v>1</v>
       </c>
-      <c r="M15" s="95" t="str">
+      <c r="L15" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="N15" s="49" t="e">
+      <c r="M15" s="49" t="e">
         <f>LEFT(VLOOKUP($D15,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O15" s="49" t="str">
+      <c r="N15" s="49" t="str">
         <f>LEFT(VLOOKUP($D15,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0003106389</v>
       </c>
-      <c r="P15" s="23"/>
-    </row>
-    <row r="16" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="23"/>
+    </row>
+    <row r="16" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="63"/>
       <c r="B16" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(K16)</f>
+        <f>_xll.ohRangeRetrieveError(J16)</f>
         <v/>
       </c>
       <c r="C16" s="86" t="s">
@@ -5420,35 +5341,31 @@
       <c r="I16" s="88" t="s">
         <v>460</v>
       </c>
-      <c r="J16" s="18" t="str">
-        <f>_xll.qlSchedule(C16&amp;"_sch",G16,D16,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004404973_sch#0001</v>
-      </c>
-      <c r="K16" s="93" t="str">
+      <c r="J16" s="93" t="str">
         <f>_xll.qlBTP2(C16,I16,D16,E16,F16,G16,H16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004404973#0001</v>
-      </c>
-      <c r="L16" s="93" t="b">
+        <v>IT0004404973#0000</v>
+      </c>
+      <c r="K16" s="93" t="b">
         <v>0</v>
       </c>
-      <c r="M16" s="95" t="str">
+      <c r="L16" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M16" s="49" t="e">
+        <f>LEFT(VLOOKUP($D16,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N16" s="49" t="e">
-        <f>LEFT(VLOOKUP($D16,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O16" s="49" t="e">
         <f>LEFT(VLOOKUP($D16,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P16" s="27"/>
-    </row>
-    <row r="17" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="27"/>
+    </row>
+    <row r="17" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="63"/>
       <c r="B17" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(K17)</f>
+        <f>_xll.ohRangeRetrieveError(J17)</f>
         <v/>
       </c>
       <c r="C17" s="86" t="s">
@@ -5472,35 +5389,31 @@
       <c r="I17" s="88" t="s">
         <v>461</v>
       </c>
-      <c r="J17" s="18" t="str">
-        <f>_xll.qlSchedule(C17&amp;"_sch",G17,D17,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004112816_sch#0001</v>
-      </c>
-      <c r="K17" s="93" t="str">
+      <c r="J17" s="93" t="str">
         <f>_xll.qlBTP2(C17,I17,D17,E17,F17,G17,H17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004112816#0001</v>
-      </c>
-      <c r="L17" s="93" t="b">
+        <v>IT0004112816#0000</v>
+      </c>
+      <c r="K17" s="93" t="b">
         <v>0</v>
       </c>
-      <c r="M17" s="95" t="str">
+      <c r="L17" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M17" s="49" t="e">
+        <f>LEFT(VLOOKUP($D17,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N17" s="49" t="e">
-        <f>LEFT(VLOOKUP($D17,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O17" s="49" t="e">
         <f>LEFT(VLOOKUP($D17,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P17" s="27"/>
-    </row>
-    <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="27"/>
+    </row>
+    <row r="18" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="63"/>
       <c r="B18" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(K18)</f>
+        <f>_xll.ohRangeRetrieveError(J18)</f>
         <v/>
       </c>
       <c r="C18" s="86" t="s">
@@ -5524,35 +5437,31 @@
       <c r="I18" s="88" t="s">
         <v>462</v>
       </c>
-      <c r="J18" s="18" t="str">
-        <f>_xll.qlSchedule(C18&amp;"_sch",G18,D18,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0003190912_sch#0001</v>
-      </c>
-      <c r="K18" s="93" t="str">
+      <c r="J18" s="93" t="str">
         <f>_xll.qlBTP2(C18,I18,D18,E18,F18,G18,H18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003190912#0001</v>
-      </c>
-      <c r="L18" s="93" t="b">
+        <v>IT0003190912#0000</v>
+      </c>
+      <c r="K18" s="93" t="b">
         <v>1</v>
       </c>
-      <c r="M18" s="95" t="str">
+      <c r="L18" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="N18" s="49" t="e">
+      <c r="M18" s="49" t="e">
         <f>LEFT(VLOOKUP($D18,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O18" s="49" t="str">
+      <c r="N18" s="49" t="str">
         <f>LEFT(VLOOKUP($D18,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0003204903</v>
       </c>
-      <c r="P18" s="27"/>
-    </row>
-    <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="27"/>
+    </row>
+    <row r="19" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="63"/>
       <c r="B19" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(K19)</f>
+        <f>_xll.ohRangeRetrieveError(J19)</f>
         <v/>
       </c>
       <c r="C19" s="86" t="s">
@@ -5576,36 +5485,32 @@
       <c r="I19" s="88" t="s">
         <v>463</v>
       </c>
-      <c r="J19" s="18" t="str">
-        <f>_xll.qlSchedule(C19&amp;"_sch",G19,D19,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004467483_sch#0001</v>
-      </c>
-      <c r="K19" s="93" t="str">
+      <c r="J19" s="93" t="str">
         <f>_xll.qlBTP2(C19,I19,D19,E19,F19,G19,H19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004467483#0001</v>
-      </c>
-      <c r="L19" s="93" t="b">
-        <f t="shared" ref="L19:L89" si="1">NOT(ISNA(VLOOKUP(LEFT($K19,12),LatestStrippable,1,FALSE)))</f>
+        <v>IT0004467483#0000</v>
+      </c>
+      <c r="K19" s="93" t="b">
+        <f t="shared" ref="K19:K89" si="1">NOT(ISNA(VLOOKUP(LEFT($J19,12),LatestStrippable,1,FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="95" t="str">
+      <c r="L19" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M19" s="103" t="e">
+        <f>LEFT(VLOOKUP($D19,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N19" s="103" t="e">
-        <f>LEFT(VLOOKUP($D19,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O19" s="103" t="e">
         <f>LEFT(VLOOKUP($D19,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P19" s="27"/>
-    </row>
-    <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="27"/>
+    </row>
+    <row r="20" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="63"/>
       <c r="B20" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(K20)</f>
+        <f>_xll.ohRangeRetrieveError(J20)</f>
         <v/>
       </c>
       <c r="C20" s="86" t="s">
@@ -5629,36 +5534,32 @@
       <c r="I20" s="88" t="s">
         <v>464</v>
       </c>
-      <c r="J20" s="18" t="str">
-        <f>_xll.qlSchedule(C20&amp;"_sch",G20,D20,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004220627_sch#0001</v>
-      </c>
-      <c r="K20" s="93" t="str">
+      <c r="J20" s="93" t="str">
         <f>_xll.qlBTP2(C20,I20,D20,E20,F20,G20,H20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004220627#0001</v>
-      </c>
-      <c r="L20" s="93" t="b">
+        <v>IT0004220627#0000</v>
+      </c>
+      <c r="K20" s="93" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="95" t="str">
+      <c r="L20" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M20" s="103" t="e">
+        <f>LEFT(VLOOKUP($D20,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N20" s="103" t="e">
-        <f>LEFT(VLOOKUP($D20,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O20" s="103" t="e">
         <f>LEFT(VLOOKUP($D20,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P20" s="27"/>
-    </row>
-    <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="27"/>
+    </row>
+    <row r="21" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="63"/>
       <c r="B21" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(K21)</f>
+        <f>_xll.ohRangeRetrieveError(J21)</f>
         <v/>
       </c>
       <c r="C21" s="86" t="s">
@@ -5682,36 +5583,32 @@
       <c r="I21" s="88" t="s">
         <v>465</v>
       </c>
-      <c r="J21" s="18" t="str">
-        <f>_xll.qlSchedule(C21&amp;"_sch",G21,D21,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004508971_sch#0001</v>
-      </c>
-      <c r="K21" s="93" t="str">
+      <c r="J21" s="93" t="str">
         <f>_xll.qlBTP2(C21,I21,D21,E21,F21,G21,H21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004508971#0001</v>
-      </c>
-      <c r="L21" s="93" t="b">
+        <v>IT0004508971#0000</v>
+      </c>
+      <c r="K21" s="93" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M21" s="95" t="str">
+      <c r="L21" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M21" s="49" t="e">
+        <f>LEFT(VLOOKUP($D21,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N21" s="49" t="e">
-        <f>LEFT(VLOOKUP($D21,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O21" s="49" t="e">
         <f>LEFT(VLOOKUP($D21,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P21" s="27"/>
-    </row>
-    <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="27"/>
+    </row>
+    <row r="22" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="63"/>
       <c r="B22" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(K22)</f>
+        <f>_xll.ohRangeRetrieveError(J22)</f>
         <v/>
       </c>
       <c r="C22" s="86" t="s">
@@ -5735,36 +5632,32 @@
       <c r="I22" s="88" t="s">
         <v>466</v>
       </c>
-      <c r="J22" s="18" t="str">
-        <f>_xll.qlSchedule(C22&amp;"_sch",G22,D22,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004284334_sch#0001</v>
-      </c>
-      <c r="K22" s="93" t="str">
+      <c r="J22" s="93" t="str">
         <f>_xll.qlBTP2(C22,I22,D22,E22,F22,G22,H22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004284334#0001</v>
-      </c>
-      <c r="L22" s="93" t="b">
+        <v>IT0004284334#0000</v>
+      </c>
+      <c r="K22" s="93" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M22" s="95" t="str">
+      <c r="L22" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M22" s="49" t="e">
+        <f>LEFT(VLOOKUP($D22,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N22" s="49" t="e">
-        <f>LEFT(VLOOKUP($D22,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O22" s="49" t="e">
         <f>LEFT(VLOOKUP($D22,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P22" s="27"/>
-    </row>
-    <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="27"/>
+    </row>
+    <row r="23" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="63"/>
       <c r="B23" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(K23)</f>
+        <f>_xll.ohRangeRetrieveError(J23)</f>
         <v/>
       </c>
       <c r="C23" s="86" t="s">
@@ -5788,36 +5681,32 @@
       <c r="I23" s="88" t="s">
         <v>467</v>
       </c>
-      <c r="J23" s="18" t="str">
-        <f>_xll.qlSchedule(C23&amp;"_sch",G23,D23,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004564636_sch#0001</v>
-      </c>
-      <c r="K23" s="93" t="str">
+      <c r="J23" s="93" t="str">
         <f>_xll.qlBTP2(C23,I23,D23,E23,F23,G23,H23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004564636#0001</v>
-      </c>
-      <c r="L23" s="93" t="b">
+        <v>IT0004564636#0000</v>
+      </c>
+      <c r="K23" s="93" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="95" t="str">
+      <c r="L23" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M23" s="49" t="e">
+        <f>LEFT(VLOOKUP($D23,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N23" s="49" t="e">
-        <f>LEFT(VLOOKUP($D23,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O23" s="49" t="e">
         <f>LEFT(VLOOKUP($D23,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P23" s="27"/>
-    </row>
-    <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="27"/>
+    </row>
+    <row r="24" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="63"/>
       <c r="B24" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(K24)</f>
+        <f>_xll.ohRangeRetrieveError(J24)</f>
         <v/>
       </c>
       <c r="C24" s="86" t="s">
@@ -5841,36 +5730,32 @@
       <c r="I24" s="88" t="s">
         <v>468</v>
       </c>
-      <c r="J24" s="18" t="str">
-        <f>_xll.qlSchedule(C24&amp;"_sch",G24,D24,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0003357982_sch#0001</v>
-      </c>
-      <c r="K24" s="93" t="str">
+      <c r="J24" s="93" t="str">
         <f>_xll.qlBTP2(C24,I24,D24,E24,F24,G24,H24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003357982#0001</v>
-      </c>
-      <c r="L24" s="93" t="b">
+        <v>IT0003357982#0000</v>
+      </c>
+      <c r="K24" s="93" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M24" s="95" t="str">
+      <c r="L24" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="N24" s="49" t="e">
+      <c r="M24" s="49" t="e">
         <f>LEFT(VLOOKUP($D24,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O24" s="49" t="str">
+      <c r="N24" s="49" t="str">
         <f>LEFT(VLOOKUP($D24,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0003398333</v>
       </c>
-      <c r="P24" s="27"/>
-    </row>
-    <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="27"/>
+    </row>
+    <row r="25" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="63"/>
       <c r="B25" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(K25)</f>
+        <f>_xll.ohRangeRetrieveError(J25)</f>
         <v/>
       </c>
       <c r="C25" s="86" t="s">
@@ -5894,36 +5779,32 @@
       <c r="I25" s="88" t="s">
         <v>469</v>
       </c>
-      <c r="J25" s="18" t="str">
-        <f>_xll.qlSchedule(C25&amp;"_sch",G25,D25,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004365554_sch#0001</v>
-      </c>
-      <c r="K25" s="93" t="str">
+      <c r="J25" s="93" t="str">
         <f>_xll.qlBTP2(C25,I25,D25,E25,F25,G25,H25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004365554#0001</v>
-      </c>
-      <c r="L25" s="93" t="b">
+        <v>IT0004365554#0000</v>
+      </c>
+      <c r="K25" s="93" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M25" s="95" t="str">
+      <c r="L25" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M25" s="49" t="e">
+        <f>LEFT(VLOOKUP($D25,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N25" s="49" t="e">
-        <f>LEFT(VLOOKUP($D25,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O25" s="49" t="e">
         <f>LEFT(VLOOKUP($D25,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P25" s="27"/>
-    </row>
-    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="27"/>
+    </row>
+    <row r="26" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="63"/>
       <c r="B26" s="119" t="str">
-        <f>_xll.ohRangeRetrieveError(K26)</f>
+        <f>_xll.ohRangeRetrieveError(J26)</f>
         <v/>
       </c>
       <c r="C26" s="120" t="s">
@@ -5947,36 +5828,32 @@
       <c r="I26" s="124" t="s">
         <v>470</v>
       </c>
-      <c r="J26" s="18" t="str">
-        <f>_xll.qlSchedule(C26&amp;"_sch",G26,D26,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004612179_sch#0001</v>
-      </c>
-      <c r="K26" s="93" t="str">
+      <c r="J26" s="93" t="str">
         <f>_xll.qlBTP2(C26,I26,D26,E26,F26,G26,H26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004612179#0001</v>
-      </c>
-      <c r="L26" s="125" t="b">
+        <v>IT0004612179#0000</v>
+      </c>
+      <c r="K26" s="125" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="95" t="str">
+      <c r="L26" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M26" s="49" t="e">
+        <f>LEFT(VLOOKUP($D26,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N26" s="49" t="e">
-        <f>LEFT(VLOOKUP($D26,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O26" s="49" t="e">
         <f>LEFT(VLOOKUP($D26,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P26" s="27"/>
-    </row>
-    <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="27"/>
+    </row>
+    <row r="27" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="63"/>
       <c r="B27" s="119" t="str">
-        <f>_xll.ohRangeRetrieveError(K27)</f>
+        <f>_xll.ohRangeRetrieveError(J27)</f>
         <v/>
       </c>
       <c r="C27" s="120" t="s">
@@ -6000,36 +5877,32 @@
       <c r="I27" s="124" t="s">
         <v>471</v>
       </c>
-      <c r="J27" s="18" t="str">
-        <f>_xll.qlSchedule(C27&amp;"_sch",G27,D27,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0003472336_sch#0001</v>
-      </c>
-      <c r="K27" s="93" t="str">
+      <c r="J27" s="93" t="str">
         <f>_xll.qlBTP2(C27,I27,D27,E27,F27,G27,H27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003472336#0001</v>
-      </c>
-      <c r="L27" s="125" t="b">
+        <v>IT0003472336#0000</v>
+      </c>
+      <c r="K27" s="125" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M27" s="95" t="str">
+      <c r="L27" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="N27" s="49" t="e">
+      <c r="M27" s="49" t="e">
         <f>LEFT(VLOOKUP($D27,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O27" s="49" t="str">
+      <c r="N27" s="49" t="str">
         <f>LEFT(VLOOKUP($D27,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0003474951</v>
       </c>
-      <c r="P27" s="27"/>
-    </row>
-    <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="27"/>
+    </row>
+    <row r="28" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="63"/>
       <c r="B28" s="119" t="str">
-        <f>_xll.ohRangeRetrieveError(K28)</f>
+        <f>_xll.ohRangeRetrieveError(J28)</f>
         <v/>
       </c>
       <c r="C28" s="120" t="s">
@@ -6053,36 +5926,32 @@
       <c r="I28" s="124" t="s">
         <v>472</v>
       </c>
-      <c r="J28" s="18" t="str">
-        <f>_xll.qlSchedule(C28&amp;"_sch",G28,D28,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004653108_sch#0001</v>
-      </c>
-      <c r="K28" s="93" t="str">
+      <c r="J28" s="93" t="str">
         <f>_xll.qlBTP2(C28,I28,D28,E28,F28,G28,H28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004653108#0001</v>
-      </c>
-      <c r="L28" s="125" t="b">
+        <v>IT0004653108#0000</v>
+      </c>
+      <c r="K28" s="125" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M28" s="95" t="str">
+      <c r="L28" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M28" s="49" t="e">
+        <f>LEFT(VLOOKUP($D28,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N28" s="49" t="e">
-        <f>LEFT(VLOOKUP($D28,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O28" s="49" t="e">
         <f>LEFT(VLOOKUP($D28,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P28" s="27"/>
-    </row>
-    <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="27"/>
+    </row>
+    <row r="29" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="63"/>
       <c r="B29" s="119" t="str">
-        <f>_xll.ohRangeRetrieveError(K29)</f>
+        <f>_xll.ohRangeRetrieveError(J29)</f>
         <v/>
       </c>
       <c r="C29" s="120" t="s">
@@ -6106,36 +5975,32 @@
       <c r="I29" s="124" t="s">
         <v>473</v>
       </c>
-      <c r="J29" s="18" t="str">
-        <f>_xll.qlSchedule(C29&amp;"_sch",G29,D29,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004448863_sch#0001</v>
-      </c>
-      <c r="K29" s="93" t="str">
+      <c r="J29" s="93" t="str">
         <f>_xll.qlBTP2(C29,I29,D29,E29,F29,G29,H29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004448863#0001</v>
-      </c>
-      <c r="L29" s="125" t="b">
+        <v>IT0004448863#0000</v>
+      </c>
+      <c r="K29" s="125" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M29" s="95" t="str">
+      <c r="L29" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M29" s="49" t="e">
+        <f>LEFT(VLOOKUP($D29,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N29" s="49" t="e">
-        <f>LEFT(VLOOKUP($D29,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O29" s="49" t="e">
         <f>LEFT(VLOOKUP($D29,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P29" s="27"/>
-    </row>
-    <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="27"/>
+    </row>
+    <row r="30" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="63"/>
       <c r="B30" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K30)</f>
+        <f>_xll.ohRangeRetrieveError(J30)</f>
         <v/>
       </c>
       <c r="C30" s="40" t="s">
@@ -6159,36 +6024,32 @@
       <c r="I30" s="83" t="s">
         <v>474</v>
       </c>
-      <c r="J30" s="18" t="str">
-        <f>_xll.qlSchedule(C30&amp;"_sch",G30,D30,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004707995_sch#0001</v>
-      </c>
-      <c r="K30" s="93" t="str">
+      <c r="J30" s="93" t="str">
         <f>_xll.qlBTP2(C30,I30,D30,E30,F30,G30,H30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004707995#0001</v>
-      </c>
-      <c r="L30" s="94" t="b">
+        <v>IT0004707995#0000</v>
+      </c>
+      <c r="K30" s="94" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M30" s="95" t="str">
+      <c r="L30" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M30" s="49" t="e">
+        <f>LEFT(VLOOKUP($D30,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N30" s="49" t="e">
-        <f>LEFT(VLOOKUP($D30,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O30" s="49" t="e">
         <f>LEFT(VLOOKUP($D30,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P30" s="27"/>
-    </row>
-    <row r="31" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O30" s="27"/>
+    </row>
+    <row r="31" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="63"/>
       <c r="B31" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K31)</f>
+        <f>_xll.ohRangeRetrieveError(J31)</f>
         <v/>
       </c>
       <c r="C31" s="40" t="s">
@@ -6212,36 +6073,32 @@
       <c r="I31" s="83" t="s">
         <v>475</v>
       </c>
-      <c r="J31" s="18" t="str">
-        <f>_xll.qlSchedule(C31&amp;"_sch",G31,D31,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004505076_sch#0001</v>
-      </c>
-      <c r="K31" s="93" t="str">
+      <c r="J31" s="93" t="str">
         <f>_xll.qlBTP2(C31,I31,D31,E31,F31,G31,H31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004505076#0001</v>
-      </c>
-      <c r="L31" s="94" t="b">
+        <v>IT0004505076#0000</v>
+      </c>
+      <c r="K31" s="94" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M31" s="95" t="str">
+      <c r="L31" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M31" s="49" t="e">
+        <f>LEFT(VLOOKUP($D31,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N31" s="49" t="e">
-        <f>LEFT(VLOOKUP($D31,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O31" s="49" t="e">
         <f>LEFT(VLOOKUP($D31,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P31" s="27"/>
-    </row>
-    <row r="32" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="27"/>
+    </row>
+    <row r="32" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="63"/>
       <c r="B32" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K32)</f>
+        <f>_xll.ohRangeRetrieveError(J32)</f>
         <v/>
       </c>
       <c r="C32" s="40" t="s">
@@ -6265,36 +6122,32 @@
       <c r="I32" s="83" t="s">
         <v>476</v>
       </c>
-      <c r="J32" s="18" t="str">
-        <f>_xll.qlSchedule(C32&amp;"_sch",G32,D32,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004750409_sch#0001</v>
-      </c>
-      <c r="K32" s="93" t="str">
+      <c r="J32" s="93" t="str">
         <f>_xll.qlBTP2(C32,I32,D32,E32,F32,G32,H32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004750409#0001</v>
-      </c>
-      <c r="L32" s="94" t="b">
+        <v>IT0004750409#0000</v>
+      </c>
+      <c r="K32" s="94" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M32" s="95" t="str">
+      <c r="L32" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M32" s="49" t="e">
+        <f>LEFT(VLOOKUP($D32,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N32" s="49" t="e">
-        <f>LEFT(VLOOKUP($D32,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O32" s="49" t="e">
         <f>LEFT(VLOOKUP($D32,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P32" s="27"/>
-    </row>
-    <row r="33" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="27"/>
+    </row>
+    <row r="33" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="63"/>
       <c r="B33" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K33)</f>
+        <f>_xll.ohRangeRetrieveError(J33)</f>
         <v/>
       </c>
       <c r="C33" s="40" t="s">
@@ -6318,36 +6171,32 @@
       <c r="I33" s="83" t="s">
         <v>477</v>
       </c>
-      <c r="J33" s="18" t="str">
-        <f>_xll.qlSchedule(C33&amp;"_sch",G33,D33,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0003618383_sch#0001</v>
-      </c>
-      <c r="K33" s="93" t="str">
+      <c r="J33" s="93" t="str">
         <f>_xll.qlBTP2(C33,I33,D33,E33,F33,G33,H33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003618383#0001</v>
-      </c>
-      <c r="L33" s="94" t="b">
+        <v>IT0003618383#0000</v>
+      </c>
+      <c r="K33" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M33" s="95" t="str">
+      <c r="L33" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="N33" s="49" t="e">
+      <c r="M33" s="49" t="e">
         <f>LEFT(VLOOKUP($D33,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O33" s="49" t="str">
+      <c r="N33" s="49" t="str">
         <f>LEFT(VLOOKUP($D33,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0003631238</v>
       </c>
-      <c r="P33" s="27"/>
-    </row>
-    <row r="34" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="27"/>
+    </row>
+    <row r="34" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="63"/>
       <c r="B34" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K34)</f>
+        <f>_xll.ohRangeRetrieveError(J34)</f>
         <v/>
       </c>
       <c r="C34" s="40" t="s">
@@ -6371,36 +6220,32 @@
       <c r="I34" s="83" t="s">
         <v>478</v>
       </c>
-      <c r="J34" s="18" t="str">
-        <f>_xll.qlSchedule(C34&amp;"_sch",G34,D34,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004780380_sch#0001</v>
-      </c>
-      <c r="K34" s="93" t="str">
+      <c r="J34" s="93" t="str">
         <f>_xll.qlBTP2(C34,I34,D34,E34,F34,G34,H34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004780380#0001</v>
-      </c>
-      <c r="L34" s="94" t="b">
+        <v>IT0004780380#0000</v>
+      </c>
+      <c r="K34" s="94" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M34" s="95" t="str">
+      <c r="L34" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M34" s="49" t="e">
+        <f>LEFT(VLOOKUP($D34,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N34" s="49" t="e">
-        <f>LEFT(VLOOKUP($D34,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O34" s="49" t="e">
         <f>LEFT(VLOOKUP($D34,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P34" s="27"/>
-    </row>
-    <row r="35" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="27"/>
+    </row>
+    <row r="35" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="63"/>
       <c r="B35" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K35)</f>
+        <f>_xll.ohRangeRetrieveError(J35)</f>
         <v/>
       </c>
       <c r="C35" s="40" t="s">
@@ -6424,36 +6269,32 @@
       <c r="I35" s="83" t="s">
         <v>479</v>
       </c>
-      <c r="J35" s="18" t="str">
-        <f>_xll.qlSchedule(C35&amp;"_sch",G35,D35,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0003719918_sch#0001</v>
-      </c>
-      <c r="K35" s="93" t="str">
+      <c r="J35" s="93" t="str">
         <f>_xll.qlBTP2(C35,I35,D35,E35,F35,G35,H35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003719918#0001</v>
-      </c>
-      <c r="L35" s="94" t="b">
+        <v>IT0003719918#0000</v>
+      </c>
+      <c r="K35" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M35" s="95" t="str">
+      <c r="L35" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="N35" s="49" t="e">
+      <c r="M35" s="49" t="e">
         <f>LEFT(VLOOKUP($D35,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O35" s="49" t="str">
+      <c r="N35" s="49" t="str">
         <f>LEFT(VLOOKUP($D35,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0003725261</v>
       </c>
-      <c r="P35" s="27"/>
-    </row>
-    <row r="36" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="27"/>
+    </row>
+    <row r="36" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="63"/>
       <c r="B36" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K36)</f>
+        <f>_xll.ohRangeRetrieveError(J36)</f>
         <v/>
       </c>
       <c r="C36" s="40" t="s">
@@ -6477,36 +6318,32 @@
       <c r="I36" s="83" t="s">
         <v>480</v>
       </c>
-      <c r="J36" s="18" t="str">
-        <f>_xll.qlSchedule(C36&amp;"_sch",G36,D36,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004805070_sch#0001</v>
-      </c>
-      <c r="K36" s="93" t="str">
+      <c r="J36" s="93" t="str">
         <f>_xll.qlBTP2(C36,I36,D36,E36,F36,G36,H36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004805070#0001</v>
-      </c>
-      <c r="L36" s="94" t="b">
+        <v>IT0004805070#0000</v>
+      </c>
+      <c r="K36" s="94" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M36" s="95" t="str">
+      <c r="L36" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M36" s="49" t="e">
+        <f>LEFT(VLOOKUP($D36,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N36" s="49" t="e">
-        <f>LEFT(VLOOKUP($D36,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O36" s="49" t="e">
         <f>LEFT(VLOOKUP($D36,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P36" s="27"/>
-    </row>
-    <row r="37" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="27"/>
+    </row>
+    <row r="37" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="63"/>
       <c r="B37" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K37)</f>
+        <f>_xll.ohRangeRetrieveError(J37)</f>
         <v/>
       </c>
       <c r="C37" s="40" t="s">
@@ -6530,36 +6367,32 @@
       <c r="I37" s="83" t="s">
         <v>481</v>
       </c>
-      <c r="J37" s="18" t="str">
-        <f>_xll.qlSchedule(C37&amp;"_sch",G37,D37,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004568272_sch#0001</v>
-      </c>
-      <c r="K37" s="93" t="str">
+      <c r="J37" s="93" t="str">
         <f>_xll.qlBTP2(C37,I37,D37,E37,F37,G37,H37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004568272#0001</v>
-      </c>
-      <c r="L37" s="94" t="b">
+        <v>IT0004568272#0000</v>
+      </c>
+      <c r="K37" s="94" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="95" t="str">
+      <c r="L37" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M37" s="49" t="e">
+        <f>LEFT(VLOOKUP($D37,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N37" s="49" t="e">
-        <f>LEFT(VLOOKUP($D37,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O37" s="49" t="e">
         <f>LEFT(VLOOKUP($D37,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P37" s="27"/>
-    </row>
-    <row r="38" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="27"/>
+    </row>
+    <row r="38" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="63"/>
       <c r="B38" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K38)</f>
+        <f>_xll.ohRangeRetrieveError(J38)</f>
         <v/>
       </c>
       <c r="C38" s="40" t="s">
@@ -6583,36 +6416,32 @@
       <c r="I38" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J38" s="18" t="str">
-        <f>_xll.qlSchedule(C38&amp;"_sch",G38,D38,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004615917_sch#0001</v>
-      </c>
-      <c r="K38" s="93" t="str">
+      <c r="J38" s="93" t="str">
         <f>_xll.qlBTP2(C38,I38,D38,E38,F38,G38,H38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004615917#0001</v>
-      </c>
-      <c r="L38" s="94" t="b">
+        <v>IT0004615917#0000</v>
+      </c>
+      <c r="K38" s="94" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M38" s="95" t="str">
+      <c r="L38" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M38" s="49" t="e">
+        <f>LEFT(VLOOKUP($D38,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N38" s="49" t="e">
-        <f>LEFT(VLOOKUP($D38,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O38" s="49" t="e">
         <f>LEFT(VLOOKUP($D38,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P38" s="27"/>
-    </row>
-    <row r="39" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="27"/>
+    </row>
+    <row r="39" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="63"/>
       <c r="B39" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K39)</f>
+        <f>_xll.ohRangeRetrieveError(J39)</f>
         <v/>
       </c>
       <c r="C39" s="40" t="s">
@@ -6636,36 +6465,32 @@
       <c r="I39" s="83" t="s">
         <v>483</v>
       </c>
-      <c r="J39" s="18" t="str">
-        <f>_xll.qlSchedule(C39&amp;"_sch",G39,D39,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004840788_sch#0001</v>
-      </c>
-      <c r="K39" s="93" t="str">
+      <c r="J39" s="93" t="str">
         <f>_xll.qlBTP2(C39,I39,D39,E39,F39,G39,H39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004840788#0001</v>
-      </c>
-      <c r="L39" s="94" t="b">
+        <v>IT0004840788#0000</v>
+      </c>
+      <c r="K39" s="94" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M39" s="95" t="str">
+      <c r="L39" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M39" s="49" t="e">
+        <f>LEFT(VLOOKUP($D39,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N39" s="49" t="e">
-        <f>LEFT(VLOOKUP($D39,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O39" s="49" t="e">
         <f>LEFT(VLOOKUP($D39,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P39" s="27"/>
-    </row>
-    <row r="40" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="27"/>
+    </row>
+    <row r="40" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="63"/>
       <c r="B40" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K40)</f>
+        <f>_xll.ohRangeRetrieveError(J40)</f>
         <v/>
       </c>
       <c r="C40" s="40" t="s">
@@ -6689,36 +6514,32 @@
       <c r="I40" s="83" t="s">
         <v>484</v>
       </c>
-      <c r="J40" s="18" t="str">
-        <f>_xll.qlSchedule(C40&amp;"_sch",G40,D40,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0003844534_sch#0001</v>
-      </c>
-      <c r="K40" s="93" t="str">
+      <c r="J40" s="93" t="str">
         <f>_xll.qlBTP2(C40,I40,D40,E40,F40,G40,H40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003844534#0001</v>
-      </c>
-      <c r="L40" s="94" t="b">
+        <v>IT0003844534#0000</v>
+      </c>
+      <c r="K40" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M40" s="95" t="str">
+      <c r="L40" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="N40" s="49" t="e">
+      <c r="M40" s="49" t="e">
         <f>LEFT(VLOOKUP($D40,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O40" s="49" t="str">
+      <c r="N40" s="49" t="str">
         <f>LEFT(VLOOKUP($D40,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0003850374</v>
       </c>
-      <c r="P40" s="27"/>
-    </row>
-    <row r="41" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="27"/>
+    </row>
+    <row r="41" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="63"/>
       <c r="B41" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K41)</f>
+        <f>_xll.ohRangeRetrieveError(J41)</f>
         <v/>
       </c>
       <c r="C41" s="40" t="s">
@@ -6742,35 +6563,31 @@
       <c r="I41" s="83" t="s">
         <v>485</v>
       </c>
-      <c r="J41" s="18" t="str">
-        <f>_xll.qlSchedule(C41&amp;"_sch",G41,D41,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004656275_sch#0001</v>
-      </c>
-      <c r="K41" s="93" t="str">
+      <c r="J41" s="93" t="str">
         <f>_xll.qlBTP2(C41,I41,D41,E41,F41,G41,H41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004656275#0001</v>
-      </c>
-      <c r="L41" s="94" t="b">
+        <v>IT0004656275#0000</v>
+      </c>
+      <c r="K41" s="94" t="b">
         <v>1</v>
       </c>
-      <c r="M41" s="95" t="str">
+      <c r="L41" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M41" s="49" t="e">
+        <f>LEFT(VLOOKUP($D41,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N41" s="49" t="e">
-        <f>LEFT(VLOOKUP($D41,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O41" s="49" t="e">
         <f>LEFT(VLOOKUP($D41,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P41" s="27"/>
-    </row>
-    <row r="42" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="27"/>
+    </row>
+    <row r="42" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="63"/>
       <c r="B42" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K42)</f>
+        <f>_xll.ohRangeRetrieveError(J42)</f>
         <v/>
       </c>
       <c r="C42" s="40" t="s">
@@ -6794,36 +6611,32 @@
       <c r="I42" s="83" t="s">
         <v>486</v>
       </c>
-      <c r="J42" s="18" t="str">
-        <f>_xll.qlSchedule(C42&amp;"_sch",G42,D42,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004880990_sch#0001</v>
-      </c>
-      <c r="K42" s="93" t="str">
+      <c r="J42" s="93" t="str">
         <f>_xll.qlBTP2(C42,I42,D42,E42,F42,G42,H42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004880990#0001</v>
-      </c>
-      <c r="L42" s="94" t="b">
+        <v>IT0004880990#0000</v>
+      </c>
+      <c r="K42" s="94" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M42" s="95" t="str">
+      <c r="L42" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M42" s="49" t="e">
+        <f>LEFT(VLOOKUP($D42,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N42" s="49" t="e">
-        <f>LEFT(VLOOKUP($D42,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O42" s="49" t="e">
         <f>LEFT(VLOOKUP($D42,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P42" s="27"/>
-    </row>
-    <row r="43" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O42" s="27"/>
+    </row>
+    <row r="43" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="63"/>
       <c r="B43" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K43)</f>
+        <f>_xll.ohRangeRetrieveError(J43)</f>
         <v/>
       </c>
       <c r="C43" s="40" t="s">
@@ -6847,35 +6660,31 @@
       <c r="I43" s="83" t="s">
         <v>487</v>
       </c>
-      <c r="J43" s="18" t="str">
-        <f>_xll.qlSchedule(C43&amp;"_sch",G43,D43,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004712748_sch#0001</v>
-      </c>
-      <c r="K43" s="93" t="str">
+      <c r="J43" s="93" t="str">
         <f>_xll.qlBTP2(C43,I43,D43,E43,F43,G43,H43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004712748#0001</v>
-      </c>
-      <c r="L43" s="94" t="b">
+        <v>IT0004712748#0000</v>
+      </c>
+      <c r="K43" s="94" t="b">
         <v>1</v>
       </c>
-      <c r="M43" s="95" t="str">
+      <c r="L43" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M43" s="49" t="e">
+        <f>LEFT(VLOOKUP($D43,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N43" s="49" t="e">
-        <f>LEFT(VLOOKUP($D43,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O43" s="49" t="e">
         <f>LEFT(VLOOKUP($D43,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P43" s="27"/>
-    </row>
-    <row r="44" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O43" s="27"/>
+    </row>
+    <row r="44" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="63"/>
       <c r="B44" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K44)</f>
+        <f>_xll.ohRangeRetrieveError(J44)</f>
         <v/>
       </c>
       <c r="C44" s="40" t="s">
@@ -6899,36 +6708,32 @@
       <c r="I44" s="83" t="s">
         <v>488</v>
       </c>
-      <c r="J44" s="18" t="str">
-        <f>_xll.qlSchedule(C44&amp;"_sch",G44,D44,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004917792_sch#0001</v>
-      </c>
-      <c r="K44" s="93" t="str">
+      <c r="J44" s="93" t="str">
         <f>_xll.qlBTP2(C44,I44,D44,E44,F44,G44,H44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004917792#0001</v>
-      </c>
-      <c r="L44" s="94" t="b">
+        <v>IT0004917792#0000</v>
+      </c>
+      <c r="K44" s="94" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M44" s="95" t="str">
+      <c r="L44" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
+      <c r="M44" s="49" t="e">
+        <f>LEFT(VLOOKUP($D44,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N44" s="49" t="e">
-        <f>LEFT(VLOOKUP($D44,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O44" s="49" t="e">
         <f>LEFT(VLOOKUP($D44,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P44" s="27"/>
-    </row>
-    <row r="45" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="27"/>
+    </row>
+    <row r="45" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="63"/>
       <c r="B45" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K45)</f>
+        <f>_xll.ohRangeRetrieveError(J45)</f>
         <v/>
       </c>
       <c r="C45" s="40" t="s">
@@ -6952,36 +6757,32 @@
       <c r="I45" s="83" t="s">
         <v>489</v>
       </c>
-      <c r="J45" s="18" t="str">
-        <f>_xll.qlSchedule(C45&amp;"_sch",G45,D45,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004019581_sch#0001</v>
-      </c>
-      <c r="K45" s="93" t="str">
+      <c r="J45" s="93" t="str">
         <f>_xll.qlBTP2(C45,I45,D45,E45,F45,G45,H45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004019581#0001</v>
-      </c>
-      <c r="L45" s="94" t="b">
+        <v>IT0004019581#0000</v>
+      </c>
+      <c r="K45" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M45" s="95" t="str">
+      <c r="L45" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="N45" s="49" t="e">
+      <c r="M45" s="49" t="e">
         <f>LEFT(VLOOKUP($D45,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O45" s="49" t="str">
+      <c r="N45" s="49" t="str">
         <f>LEFT(VLOOKUP($D45,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0004038318</v>
       </c>
-      <c r="P45" s="27"/>
-    </row>
-    <row r="46" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="27"/>
+    </row>
+    <row r="46" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="63"/>
       <c r="B46" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K46)</f>
+        <f>_xll.ohRangeRetrieveError(J46)</f>
         <v/>
       </c>
       <c r="C46" s="40" t="s">
@@ -7005,32 +6806,28 @@
       <c r="I46" s="83" t="s">
         <v>490</v>
       </c>
-      <c r="J46" s="18" t="str">
-        <f>_xll.qlSchedule(C46&amp;"_sch",G46,D46,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004761950_sch#0001</v>
-      </c>
-      <c r="K46" s="93" t="str">
+      <c r="J46" s="93" t="str">
         <f>_xll.qlBTP2(C46,I46,D46,E46,F46,G46,H46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004761950#0001</v>
-      </c>
-      <c r="L46" s="94" t="b">
+        <v>IT0004761950#0000</v>
+      </c>
+      <c r="K46" s="94" t="b">
         <v>1</v>
       </c>
-      <c r="M46" s="95" t="str">
+      <c r="L46" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M46" s="49" t="e">
+        <f>LEFT(VLOOKUP($D46,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N46" s="49" t="e">
-        <f>LEFT(VLOOKUP($D46,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O46" s="49" t="e">
         <f>LEFT(VLOOKUP($D46,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P46" s="27"/>
-    </row>
-    <row r="47" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O46" s="27"/>
+    </row>
+    <row r="47" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="63"/>
       <c r="B47" s="89"/>
       <c r="C47" s="40" t="s">
@@ -7054,33 +6851,29 @@
       <c r="I47" s="83" t="s">
         <v>491</v>
       </c>
-      <c r="J47" s="18" t="str">
-        <f>_xll.qlSchedule(C47&amp;"_sch",G47,D47,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004960826_sch#0001</v>
-      </c>
-      <c r="K47" s="93" t="str">
+      <c r="J47" s="93" t="str">
         <f>_xll.qlBTP2(C47,I47,D47,E47,F47,G47,H47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004960826#0001</v>
-      </c>
-      <c r="L47" s="94" t="b">
+        <v>IT0004960826#0000</v>
+      </c>
+      <c r="K47" s="94" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M47" s="95" t="str">
-        <f>IF(AND(L47,ISNA(N47),ISNA(O47)),"Residual Missing","--")</f>
+      <c r="L47" s="95" t="str">
+        <f>IF(AND(K47,ISNA(M47),ISNA(N47)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
+      <c r="M47" s="49" t="e">
+        <f>LEFT(VLOOKUP($D47,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N47" s="49" t="e">
-        <f>LEFT(VLOOKUP($D47,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O47" s="49" t="e">
         <f>LEFT(VLOOKUP($D47,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P47" s="27"/>
-    </row>
-    <row r="48" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O47" s="27"/>
+    </row>
+    <row r="48" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="63"/>
       <c r="B48" s="89"/>
       <c r="C48" s="40" t="s">
@@ -7104,36 +6897,32 @@
       <c r="I48" s="83" t="s">
         <v>492</v>
       </c>
-      <c r="J48" s="18" t="str">
-        <f>_xll.qlSchedule(C48&amp;"_sch",G48,D48,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004987191_sch#0001</v>
-      </c>
-      <c r="K48" s="93" t="str">
+      <c r="J48" s="93" t="str">
         <f>_xll.qlBTP2(C48,I48,D48,E48,F48,G48,H48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004987191#0001</v>
-      </c>
-      <c r="L48" s="94" t="b">
+        <v>IT0004987191#0000</v>
+      </c>
+      <c r="K48" s="94" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M48" s="95" t="str">
-        <f>IF(AND(L48,ISNA(N48),ISNA(O48)),"Residual Missing","--")</f>
+      <c r="L48" s="95" t="str">
+        <f>IF(AND(K48,ISNA(M48),ISNA(N48)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
+      <c r="M48" s="49" t="e">
+        <f>LEFT(VLOOKUP($D48,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N48" s="49" t="e">
-        <f>LEFT(VLOOKUP($D48,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O48" s="49" t="e">
         <f>LEFT(VLOOKUP($D48,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P48" s="27"/>
-    </row>
-    <row r="49" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O48" s="27"/>
+    </row>
+    <row r="49" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="63"/>
       <c r="B49" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K49)</f>
+        <f>_xll.ohRangeRetrieveError(J49)</f>
         <v/>
       </c>
       <c r="C49" s="40" t="s">
@@ -7157,36 +6946,32 @@
       <c r="I49" s="83" t="s">
         <v>493</v>
       </c>
-      <c r="J49" s="18" t="str">
-        <f>_xll.qlSchedule(C49&amp;"_sch",G49,D49,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004164775_sch#0001</v>
-      </c>
-      <c r="K49" s="93" t="str">
+      <c r="J49" s="93" t="str">
         <f>_xll.qlBTP2(C49,I49,D49,E49,F49,G49,H49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004164775#0001</v>
-      </c>
-      <c r="L49" s="94" t="b">
+        <v>IT0004164775#0000</v>
+      </c>
+      <c r="K49" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M49" s="95" t="str">
+      <c r="L49" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="N49" s="49" t="e">
+      <c r="M49" s="49" t="e">
         <f>LEFT(VLOOKUP($D49,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O49" s="49" t="str">
+      <c r="N49" s="49" t="str">
         <f>LEFT(VLOOKUP($D49,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0004276322</v>
       </c>
-      <c r="P49" s="27"/>
-    </row>
-    <row r="50" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O49" s="27"/>
+    </row>
+    <row r="50" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="63"/>
       <c r="B50" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K50)</f>
+        <f>_xll.ohRangeRetrieveError(J50)</f>
         <v/>
       </c>
       <c r="C50" s="40" t="s">
@@ -7210,35 +6995,31 @@
       <c r="I50" s="83" t="s">
         <v>494</v>
       </c>
-      <c r="J50" s="18" t="str">
-        <f>_xll.qlSchedule(C50&amp;"_sch",G50,D50,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004793474_sch#0001</v>
-      </c>
-      <c r="K50" s="93" t="str">
+      <c r="J50" s="93" t="str">
         <f>_xll.qlBTP2(C50,I50,D50,E50,F50,G50,H50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004793474#0001</v>
-      </c>
-      <c r="L50" s="94" t="b">
+        <v>IT0004793474#0000</v>
+      </c>
+      <c r="K50" s="94" t="b">
         <v>1</v>
       </c>
-      <c r="M50" s="95" t="str">
+      <c r="L50" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M50" s="49" t="e">
+        <f>LEFT(VLOOKUP($D50,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N50" s="49" t="e">
-        <f>LEFT(VLOOKUP($D50,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O50" s="49" t="e">
         <f>LEFT(VLOOKUP($D50,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P50" s="27"/>
-    </row>
-    <row r="51" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O50" s="27"/>
+    </row>
+    <row r="51" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="63"/>
       <c r="B51" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K51)</f>
+        <f>_xll.ohRangeRetrieveError(J51)</f>
         <v/>
       </c>
       <c r="C51" s="40" t="s">
@@ -7262,35 +7043,31 @@
       <c r="I51" s="83" t="s">
         <v>495</v>
       </c>
-      <c r="J51" s="18" t="str">
-        <f>_xll.qlSchedule(C51&amp;"_sch",G51,D51,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004820426_sch#0001</v>
-      </c>
-      <c r="K51" s="93" t="str">
+      <c r="J51" s="93" t="str">
         <f>_xll.qlBTP2(C51,I51,D51,E51,F51,G51,H51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004820426#0001</v>
-      </c>
-      <c r="L51" s="94" t="b">
+        <v>IT0004820426#0000</v>
+      </c>
+      <c r="K51" s="94" t="b">
         <v>1</v>
       </c>
-      <c r="M51" s="95" t="str">
+      <c r="L51" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M51" s="49" t="e">
+        <f>LEFT(VLOOKUP($D51,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N51" s="49" t="e">
-        <f>LEFT(VLOOKUP($D51,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O51" s="49" t="e">
         <f>LEFT(VLOOKUP($D51,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P51" s="27"/>
-    </row>
-    <row r="52" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O51" s="27"/>
+    </row>
+    <row r="52" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="63"/>
       <c r="B52" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K52)</f>
+        <f>_xll.ohRangeRetrieveError(J52)</f>
         <v/>
       </c>
       <c r="C52" s="40" t="s">
@@ -7314,36 +7091,32 @@
       <c r="I52" s="83" t="s">
         <v>496</v>
       </c>
-      <c r="J52" s="18" t="str">
-        <f>_xll.qlSchedule(C52&amp;"_sch",G52,D52,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0003242747_sch#0001</v>
-      </c>
-      <c r="K52" s="93" t="str">
+      <c r="J52" s="93" t="str">
         <f>_xll.qlBTP2(C52,I52,D52,E52,F52,G52,H52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003242747#0001</v>
-      </c>
-      <c r="L52" s="94" t="b">
+        <v>IT0003242747#0000</v>
+      </c>
+      <c r="K52" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M52" s="95" t="str">
+      <c r="L52" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="N52" s="49" t="e">
+      <c r="M52" s="49" t="e">
         <f>LEFT(VLOOKUP($D52,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O52" s="49" t="str">
+      <c r="N52" s="49" t="str">
         <f>LEFT(VLOOKUP($D52,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0003246250</v>
       </c>
-      <c r="P52" s="27"/>
-    </row>
-    <row r="53" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O52" s="27"/>
+    </row>
+    <row r="53" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="63"/>
       <c r="B53" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K53)</f>
+        <f>_xll.ohRangeRetrieveError(J53)</f>
         <v/>
       </c>
       <c r="C53" s="40" t="s">
@@ -7367,35 +7140,31 @@
       <c r="I53" s="83" t="s">
         <v>497</v>
       </c>
-      <c r="J53" s="18" t="str">
-        <f>_xll.qlSchedule(C53&amp;"_sch",G53,D53,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004867070_sch#0001</v>
-      </c>
-      <c r="K53" s="93" t="str">
+      <c r="J53" s="93" t="str">
         <f>_xll.qlBTP2(C53,I53,D53,E53,F53,G53,H53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004867070#0001</v>
-      </c>
-      <c r="L53" s="94" t="b">
+        <v>IT0004867070#0000</v>
+      </c>
+      <c r="K53" s="94" t="b">
         <v>1</v>
       </c>
-      <c r="M53" s="95" t="str">
+      <c r="L53" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M53" s="49" t="e">
+        <f>LEFT(VLOOKUP($D53,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N53" s="49" t="e">
-        <f>LEFT(VLOOKUP($D53,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O53" s="49" t="e">
         <f>LEFT(VLOOKUP($D53,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P53" s="27"/>
-    </row>
-    <row r="54" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O53" s="27"/>
+    </row>
+    <row r="54" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="63"/>
       <c r="B54" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K54)</f>
+        <f>_xll.ohRangeRetrieveError(J54)</f>
         <v/>
       </c>
       <c r="C54" s="40" t="s">
@@ -7419,36 +7188,32 @@
       <c r="I54" s="83" t="s">
         <v>498</v>
       </c>
-      <c r="J54" s="18" t="str">
-        <f>_xll.qlSchedule(C54&amp;"_sch",G54,D54,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004273493_sch#0001</v>
-      </c>
-      <c r="K54" s="93" t="str">
+      <c r="J54" s="93" t="str">
         <f>_xll.qlBTP2(C54,I54,D54,E54,F54,G54,H54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004273493#0001</v>
-      </c>
-      <c r="L54" s="94" t="b">
+        <v>IT0004273493#0000</v>
+      </c>
+      <c r="K54" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M54" s="95" t="str">
+      <c r="L54" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="N54" s="49" t="e">
+      <c r="M54" s="49" t="e">
         <f>LEFT(VLOOKUP($D54,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O54" s="49" t="str">
+      <c r="N54" s="49" t="str">
         <f>LEFT(VLOOKUP($D54,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0004275811</v>
       </c>
-      <c r="P54" s="27"/>
-    </row>
-    <row r="55" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O54" s="27"/>
+    </row>
+    <row r="55" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="63"/>
       <c r="B55" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K55)</f>
+        <f>_xll.ohRangeRetrieveError(J55)</f>
         <v/>
       </c>
       <c r="C55" s="40" t="s">
@@ -7472,35 +7237,31 @@
       <c r="I55" s="83" t="s">
         <v>499</v>
       </c>
-      <c r="J55" s="18" t="str">
-        <f>_xll.qlSchedule(C55&amp;"_sch",G55,D55,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004907843_sch#0001</v>
-      </c>
-      <c r="K55" s="93" t="str">
+      <c r="J55" s="93" t="str">
         <f>_xll.qlBTP2(C55,I55,D55,E55,F55,G55,H55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004907843#0001</v>
-      </c>
-      <c r="L55" s="94" t="b">
+        <v>IT0004907843#0000</v>
+      </c>
+      <c r="K55" s="94" t="b">
         <v>1</v>
       </c>
-      <c r="M55" s="95" t="str">
+      <c r="L55" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M55" s="49" t="e">
+        <f>LEFT(VLOOKUP($D55,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N55" s="49" t="e">
-        <f>LEFT(VLOOKUP($D55,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O55" s="49" t="e">
         <f>LEFT(VLOOKUP($D55,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P55" s="27"/>
-    </row>
-    <row r="56" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O55" s="27"/>
+    </row>
+    <row r="56" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="63"/>
       <c r="B56" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K56)</f>
+        <f>_xll.ohRangeRetrieveError(J56)</f>
         <v/>
       </c>
       <c r="C56" s="40" t="s">
@@ -7524,33 +7285,29 @@
       <c r="I56" s="83" t="s">
         <v>500</v>
       </c>
-      <c r="J56" s="18" t="str">
-        <f>_xll.qlSchedule(C56&amp;"_sch",G56,D56,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004361041_sch#0001</v>
-      </c>
-      <c r="K56" s="93" t="str">
+      <c r="J56" s="93" t="str">
         <f>_xll.qlBTP2(C56,I56,D56,E56,F56,G56,H56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004361041#0001</v>
-      </c>
-      <c r="L56" s="94" t="b">
+        <v>IT0004361041#0000</v>
+      </c>
+      <c r="K56" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M56" s="95" t="str">
+      <c r="L56" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="N56" s="49" t="e">
+      <c r="M56" s="49" t="e">
         <f>LEFT(VLOOKUP($D56,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O56" s="49" t="str">
+      <c r="N56" s="49" t="str">
         <f>LEFT(VLOOKUP($D56,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0004363450</v>
       </c>
-      <c r="P56" s="27"/>
-    </row>
-    <row r="57" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O56" s="27"/>
+    </row>
+    <row r="57" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="63"/>
       <c r="B57" s="89"/>
       <c r="C57" s="40" t="s">
@@ -7574,35 +7331,31 @@
       <c r="I57" s="83" t="s">
         <v>501</v>
       </c>
-      <c r="J57" s="18" t="str">
-        <f>_xll.qlSchedule(C57&amp;"_sch",G57,D57,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004957574_sch#0001</v>
-      </c>
-      <c r="K57" s="93" t="str">
+      <c r="J57" s="93" t="str">
         <f>_xll.qlBTP2(C57,I57,D57,E57,F57,G57,H57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004957574#0001</v>
-      </c>
-      <c r="L57" s="94" t="b">
+        <v>IT0004957574#0000</v>
+      </c>
+      <c r="K57" s="94" t="b">
         <v>1</v>
       </c>
-      <c r="M57" s="95" t="str">
-        <f>IF(AND(L57,ISNA(N57),ISNA(O57)),"Residual Missing","--")</f>
+      <c r="L57" s="95" t="str">
+        <f>IF(AND(K57,ISNA(M57),ISNA(N57)),"Residual Missing","--")</f>
         <v>Residual Missing</v>
       </c>
+      <c r="M57" s="49" t="e">
+        <f>LEFT(VLOOKUP($D57,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N57" s="49" t="e">
-        <f>LEFT(VLOOKUP($D57,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O57" s="49" t="e">
         <f>LEFT(VLOOKUP($D57,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P57" s="27"/>
-    </row>
-    <row r="58" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O57" s="27"/>
+    </row>
+    <row r="58" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="63"/>
       <c r="B58" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K58)</f>
+        <f>_xll.ohRangeRetrieveError(J58)</f>
         <v/>
       </c>
       <c r="C58" s="40" t="s">
@@ -7626,36 +7379,32 @@
       <c r="I58" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="J58" s="18" t="str">
-        <f>_xll.qlSchedule(C58&amp;"_sch",G58,D58,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0003493258_sch#0001</v>
-      </c>
-      <c r="K58" s="93" t="str">
+      <c r="J58" s="93" t="str">
         <f>_xll.qlBTP2(C58,I58,D58,E58,F58,G58,H58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003493258#0001</v>
-      </c>
-      <c r="L58" s="94" t="b">
+        <v>IT0003493258#0000</v>
+      </c>
+      <c r="K58" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M58" s="95" t="str">
+      <c r="L58" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="N58" s="49" t="e">
+      <c r="M58" s="49" t="e">
         <f>LEFT(VLOOKUP($D58,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O58" s="49" t="str">
+      <c r="N58" s="49" t="str">
         <f>LEFT(VLOOKUP($D58,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0003513105</v>
       </c>
-      <c r="P58" s="27"/>
-    </row>
-    <row r="59" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O58" s="27"/>
+    </row>
+    <row r="59" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="63"/>
       <c r="B59" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K59)</f>
+        <f>_xll.ohRangeRetrieveError(J59)</f>
         <v/>
       </c>
       <c r="C59" s="40" t="s">
@@ -7679,33 +7428,29 @@
       <c r="I59" s="83" t="s">
         <v>503</v>
       </c>
-      <c r="J59" s="18" t="str">
-        <f>_xll.qlSchedule(C59&amp;"_sch",G59,D59,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004423957_sch#0001</v>
-      </c>
-      <c r="K59" s="93" t="str">
+      <c r="J59" s="93" t="str">
         <f>_xll.qlBTP2(C59,I59,D59,E59,F59,G59,H59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004423957#0001</v>
-      </c>
-      <c r="L59" s="94" t="b">
+        <v>IT0004423957#0000</v>
+      </c>
+      <c r="K59" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M59" s="95" t="str">
+      <c r="L59" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M59" s="49" t="e">
+        <f>LEFT(VLOOKUP($D59,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N59" s="49" t="e">
-        <f>LEFT(VLOOKUP($D59,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O59" s="49" t="e">
         <f>LEFT(VLOOKUP($D59,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P59" s="27"/>
-    </row>
-    <row r="60" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O59" s="27"/>
+    </row>
+    <row r="60" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="63"/>
       <c r="B60" s="89"/>
       <c r="C60" s="40" t="s">
@@ -7729,33 +7474,29 @@
       <c r="I60" s="83" t="s">
         <v>504</v>
       </c>
-      <c r="J60" s="18" t="str">
-        <f>_xll.qlSchedule(C60&amp;"_sch",G60,D60,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004992308_sch#0001</v>
-      </c>
-      <c r="K60" s="93" t="str">
+      <c r="J60" s="93" t="str">
         <f>_xll.qlBTP2(C60,I60,D60,E60,F60,G60,H60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004992308#0001</v>
-      </c>
-      <c r="L60" s="94" t="b">
+        <v>IT0004992308#0000</v>
+      </c>
+      <c r="K60" s="94" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M60" s="95" t="str">
-        <f>IF(AND(L60,ISNA(N60),ISNA(O60)),"Residual Missing","--")</f>
+      <c r="L60" s="95" t="str">
+        <f>IF(AND(K60,ISNA(M60),ISNA(N60)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
+      <c r="M60" s="49" t="e">
+        <f>LEFT(VLOOKUP($D60,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N60" s="49" t="e">
-        <f>LEFT(VLOOKUP($D60,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O60" s="49" t="e">
         <f>LEFT(VLOOKUP($D60,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P60" s="27"/>
-    </row>
-    <row r="61" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O60" s="27"/>
+    </row>
+    <row r="61" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="63"/>
       <c r="B61" s="89"/>
       <c r="C61" s="40" t="s">
@@ -7779,35 +7520,31 @@
       <c r="I61" s="83" t="s">
         <v>505</v>
       </c>
-      <c r="J61" s="18" t="str">
-        <f>_xll.qlSchedule(C61&amp;"_sch",G61,D61,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0005030504_sch#0001</v>
-      </c>
-      <c r="K61" s="93" t="str">
+      <c r="J61" s="93" t="str">
         <f>_xll.qlBTP2(C61,I61,D61,E61,F61,G61,H61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005030504#0001</v>
-      </c>
-      <c r="L61" s="94" t="b">
+        <v>IT0005030504#0000</v>
+      </c>
+      <c r="K61" s="94" t="b">
         <v>0</v>
       </c>
-      <c r="M61" s="95" t="str">
-        <f>IF(AND(L61,ISNA(N61),ISNA(O61)),"Residual Missing","--")</f>
+      <c r="L61" s="95" t="str">
+        <f>IF(AND(K61,ISNA(M61),ISNA(N61)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
+      <c r="M61" s="49" t="e">
+        <f>LEFT(VLOOKUP($D61,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N61" s="49" t="e">
-        <f>LEFT(VLOOKUP($D61,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O61" s="49" t="e">
         <f>LEFT(VLOOKUP($D61,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P61" s="27"/>
-    </row>
-    <row r="62" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O61" s="27"/>
+    </row>
+    <row r="62" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="63"/>
       <c r="B62" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K62)</f>
+        <f>_xll.ohRangeRetrieveError(J62)</f>
         <v/>
       </c>
       <c r="C62" s="40" t="s">
@@ -7831,36 +7568,32 @@
       <c r="I62" s="83" t="s">
         <v>506</v>
       </c>
-      <c r="J62" s="18" t="str">
-        <f>_xll.qlSchedule(C62&amp;"_sch",G62,D62,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004489610_sch#0001</v>
-      </c>
-      <c r="K62" s="93" t="str">
+      <c r="J62" s="93" t="str">
         <f>_xll.qlBTP2(C62,I62,D62,E62,F62,G62,H62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004489610#0001</v>
-      </c>
-      <c r="L62" s="94" t="b">
+        <v>IT0004489610#0000</v>
+      </c>
+      <c r="K62" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M62" s="95" t="str">
+      <c r="L62" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M62" s="49" t="e">
+        <f>LEFT(VLOOKUP($D62,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N62" s="49" t="e">
-        <f>LEFT(VLOOKUP($D62,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O62" s="49" t="e">
         <f>LEFT(VLOOKUP($D62,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P62" s="27"/>
-    </row>
-    <row r="63" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O62" s="27"/>
+    </row>
+    <row r="63" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="63"/>
       <c r="B63" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K63)</f>
+        <f>_xll.ohRangeRetrieveError(J63)</f>
         <v/>
       </c>
       <c r="C63" s="40" t="s">
@@ -7884,36 +7617,32 @@
       <c r="I63" s="83" t="s">
         <v>507</v>
       </c>
-      <c r="J63" s="18" t="str">
-        <f>_xll.qlSchedule(C63&amp;"_sch",G63,D63,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0003644769_sch#0001</v>
-      </c>
-      <c r="K63" s="93" t="str">
+      <c r="J63" s="93" t="str">
         <f>_xll.qlBTP2(C63,I63,D63,E63,F63,G63,H63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003644769#0001</v>
-      </c>
-      <c r="L63" s="94" t="b">
+        <v>IT0003644769#0000</v>
+      </c>
+      <c r="K63" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M63" s="95" t="str">
+      <c r="L63" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="N63" s="49" t="e">
+      <c r="M63" s="49" t="e">
         <f>LEFT(VLOOKUP($D63,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O63" s="49" t="str">
+      <c r="N63" s="49" t="str">
         <f>LEFT(VLOOKUP($D63,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0003649172</v>
       </c>
-      <c r="P63" s="27"/>
-    </row>
-    <row r="64" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O63" s="27"/>
+    </row>
+    <row r="64" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="63"/>
       <c r="B64" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K64)</f>
+        <f>_xll.ohRangeRetrieveError(J64)</f>
         <v/>
       </c>
       <c r="C64" s="40" t="s">
@@ -7937,36 +7666,32 @@
       <c r="I64" s="83" t="s">
         <v>508</v>
       </c>
-      <c r="J64" s="18" t="str">
-        <f>_xll.qlSchedule(C64&amp;"_sch",G64,D64,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004536949_sch#0001</v>
-      </c>
-      <c r="K64" s="93" t="str">
+      <c r="J64" s="93" t="str">
         <f>_xll.qlBTP2(C64,I64,D64,E64,F64,G64,H64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004536949#0001</v>
-      </c>
-      <c r="L64" s="94" t="b">
+        <v>IT0004536949#0000</v>
+      </c>
+      <c r="K64" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M64" s="95" t="str">
+      <c r="L64" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M64" s="49" t="e">
+        <f>LEFT(VLOOKUP($D64,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N64" s="49" t="e">
-        <f>LEFT(VLOOKUP($D64,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O64" s="49" t="e">
         <f>LEFT(VLOOKUP($D64,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P64" s="27"/>
-    </row>
-    <row r="65" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O64" s="27"/>
+    </row>
+    <row r="65" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="63"/>
       <c r="B65" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K65)</f>
+        <f>_xll.ohRangeRetrieveError(J65)</f>
         <v/>
       </c>
       <c r="C65" s="40" t="s">
@@ -7990,35 +7715,31 @@
       <c r="I65" s="83" t="s">
         <v>509</v>
       </c>
-      <c r="J65" s="18" t="str">
-        <f>_xll.qlSchedule(C65&amp;"_sch",G65,D65,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004594930_sch#0001</v>
-      </c>
-      <c r="K65" s="93" t="str">
+      <c r="J65" s="93" t="str">
         <f>_xll.qlBTP2(C65,I65,D65,E65,F65,G65,H65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004594930#0001</v>
-      </c>
-      <c r="L65" s="94" t="b">
+        <v>IT0004594930#0000</v>
+      </c>
+      <c r="K65" s="94" t="b">
         <v>1</v>
       </c>
-      <c r="M65" s="95" t="str">
+      <c r="L65" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M65" s="49" t="e">
+        <f>LEFT(VLOOKUP($D65,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N65" s="49" t="e">
-        <f>LEFT(VLOOKUP($D65,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O65" s="49" t="e">
         <f>LEFT(VLOOKUP($D65,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P65" s="27"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O65" s="27"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="63"/>
       <c r="B66" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K66)</f>
+        <f>_xll.ohRangeRetrieveError(J66)</f>
         <v/>
       </c>
       <c r="C66" s="40" t="s">
@@ -8042,34 +7763,30 @@
       <c r="I66" s="83" t="s">
         <v>510</v>
       </c>
-      <c r="J66" s="18" t="str">
-        <f>_xll.qlSchedule(C66&amp;"_sch",G66,D66,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004634132_sch#0001</v>
-      </c>
-      <c r="K66" s="93" t="str">
+      <c r="J66" s="93" t="str">
         <f>_xll.qlBTP2(C66,I66,D66,E66,F66,G66,H66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004634132#0001</v>
-      </c>
-      <c r="L66" s="94" t="b">
+        <v>IT0004634132#0000</v>
+      </c>
+      <c r="K66" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M66" s="95" t="str">
+      <c r="L66" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M66" s="49" t="e">
+        <f>LEFT(VLOOKUP($D66,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N66" s="49" t="e">
-        <f>LEFT(VLOOKUP($D66,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O66" s="49" t="e">
         <f>LEFT(VLOOKUP($D66,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P66" s="27"/>
-      <c r="Q66" s="18"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O66" s="27"/>
+      <c r="P66" s="18"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="63"/>
       <c r="B67" s="89"/>
       <c r="C67" s="40" t="s">
@@ -8093,36 +7810,32 @@
       <c r="I67" s="83" t="s">
         <v>511</v>
       </c>
-      <c r="J67" s="18" t="str">
-        <f>_xll.qlSchedule(C67&amp;"_sch",G67,D67,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004966401_sch#0001</v>
-      </c>
-      <c r="K67" s="93" t="str">
+      <c r="J67" s="93" t="str">
         <f>_xll.qlBTP2(C67,I67,D67,E67,F67,G67,H67,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004966401#0001</v>
-      </c>
-      <c r="L67" s="94" t="b">
+        <v>IT0004966401#0000</v>
+      </c>
+      <c r="K67" s="94" t="b">
         <v>1</v>
       </c>
-      <c r="M67" s="95" t="str">
-        <f>IF(AND(L67,ISNA(N67),ISNA(O67)),"Residual Missing","--")</f>
+      <c r="L67" s="95" t="str">
+        <f>IF(AND(K67,ISNA(M67),ISNA(N67)),"Residual Missing","--")</f>
         <v>Residual Missing</v>
       </c>
+      <c r="M67" s="49" t="e">
+        <f>LEFT(VLOOKUP($D67,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N67" s="49" t="e">
-        <f>LEFT(VLOOKUP($D67,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O67" s="49" t="e">
         <f>LEFT(VLOOKUP($D67,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P67" s="27"/>
-      <c r="Q67" s="18"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O67" s="27"/>
+      <c r="P67" s="18"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="63"/>
       <c r="B68" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K68)</f>
+        <f>_xll.ohRangeRetrieveError(J68)</f>
         <v/>
       </c>
       <c r="C68" s="40" t="s">
@@ -8146,37 +7859,33 @@
       <c r="I68" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="J68" s="18" t="str">
-        <f>_xll.qlSchedule(C68&amp;"_sch",G68,D68,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004009673_sch#0001</v>
-      </c>
-      <c r="K68" s="93" t="str">
+      <c r="J68" s="93" t="str">
         <f>_xll.qlBTP2(C68,I68,D68,E68,F68,G68,H68,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004009673#0001</v>
-      </c>
-      <c r="L68" s="94" t="b">
+        <v>IT0004009673#0000</v>
+      </c>
+      <c r="K68" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M68" s="95" t="str">
+      <c r="L68" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="N68" s="49" t="e">
+      <c r="M68" s="49" t="e">
         <f>LEFT(VLOOKUP($D68,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O68" s="49" t="str">
+      <c r="N68" s="49" t="str">
         <f>LEFT(VLOOKUP($D68,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0004014061</v>
       </c>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="18"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O68" s="27"/>
+      <c r="P68" s="18"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="63"/>
       <c r="B69" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K69)</f>
+        <f>_xll.ohRangeRetrieveError(J69)</f>
         <v/>
       </c>
       <c r="C69" s="40" t="s">
@@ -8200,34 +7909,30 @@
       <c r="I69" s="83" t="s">
         <v>513</v>
       </c>
-      <c r="J69" s="18" t="str">
-        <f>_xll.qlSchedule(C69&amp;"_sch",G69,D69,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004695075_sch#0001</v>
-      </c>
-      <c r="K69" s="93" t="str">
+      <c r="J69" s="93" t="str">
         <f>_xll.qlBTP2(C69,I69,D69,E69,F69,G69,H69,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004695075#0001</v>
-      </c>
-      <c r="L69" s="94" t="b">
+        <v>IT0004695075#0000</v>
+      </c>
+      <c r="K69" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M69" s="95" t="str">
+      <c r="L69" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M69" s="49" t="e">
+        <f>LEFT(VLOOKUP($D69,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N69" s="49" t="e">
-        <f>LEFT(VLOOKUP($D69,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O69" s="49" t="e">
         <f>LEFT(VLOOKUP($D69,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P69" s="27"/>
-      <c r="Q69" s="18"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O69" s="27"/>
+      <c r="P69" s="18"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="63"/>
       <c r="B70" s="89"/>
       <c r="C70" s="40" t="s">
@@ -8251,36 +7956,32 @@
       <c r="I70" s="83" t="s">
         <v>514</v>
       </c>
-      <c r="J70" s="18" t="str">
-        <f>_xll.qlSchedule(C70&amp;"_sch",G70,D70,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0005028003_sch#0001</v>
-      </c>
-      <c r="K70" s="93" t="str">
+      <c r="J70" s="93" t="str">
         <f>_xll.qlBTP2(C70,I70,D70,E70,F70,G70,H70,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005028003#0001</v>
-      </c>
-      <c r="L70" s="94" t="b">
+        <v>IT0005028003#0000</v>
+      </c>
+      <c r="K70" s="94" t="b">
         <v>0</v>
       </c>
-      <c r="M70" s="95" t="str">
-        <f>IF(AND(L70,ISNA(N70),ISNA(O70)),"Residual Missing","--")</f>
+      <c r="L70" s="95" t="str">
+        <f>IF(AND(K70,ISNA(M70),ISNA(N70)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
+      <c r="M70" s="49" t="e">
+        <f>LEFT(VLOOKUP($D70,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N70" s="49" t="e">
-        <f>LEFT(VLOOKUP($D70,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O70" s="49" t="e">
         <f>LEFT(VLOOKUP($D70,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P70" s="27"/>
-      <c r="Q70" s="18"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O70" s="27"/>
+      <c r="P70" s="18"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="63"/>
       <c r="B71" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K71)</f>
+        <f>_xll.ohRangeRetrieveError(J71)</f>
         <v/>
       </c>
       <c r="C71" s="40" t="s">
@@ -8304,37 +8005,33 @@
       <c r="I71" s="83" t="s">
         <v>515</v>
       </c>
-      <c r="J71" s="18" t="str">
-        <f>_xll.qlSchedule(C71&amp;"_sch",G71,D71,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004759673_sch#0001</v>
-      </c>
-      <c r="K71" s="93" t="str">
+      <c r="J71" s="93" t="str">
         <f>_xll.qlBTP2(C71,I71,D71,E71,F71,G71,H71,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004759673#0001</v>
-      </c>
-      <c r="L71" s="94" t="b">
+        <v>IT0004759673#0000</v>
+      </c>
+      <c r="K71" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M71" s="95" t="str">
+      <c r="L71" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M71" s="49" t="e">
+        <f>LEFT(VLOOKUP($D71,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N71" s="49" t="e">
-        <f>LEFT(VLOOKUP($D71,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O71" s="49" t="e">
         <f>LEFT(VLOOKUP($D71,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P71" s="27"/>
-      <c r="Q71" s="18"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O71" s="27"/>
+      <c r="P71" s="18"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="63"/>
       <c r="B72" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K72)</f>
+        <f>_xll.ohRangeRetrieveError(J72)</f>
         <v/>
       </c>
       <c r="C72" s="40" t="s">
@@ -8358,37 +8055,33 @@
       <c r="I72" s="83" t="s">
         <v>516</v>
       </c>
-      <c r="J72" s="18" t="str">
-        <f>_xll.qlSchedule(C72&amp;"_sch",G72,D72,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004801541_sch#0001</v>
-      </c>
-      <c r="K72" s="93" t="str">
+      <c r="J72" s="93" t="str">
         <f>_xll.qlBTP2(C72,I72,D72,E72,F72,G72,H72,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004801541#0001</v>
-      </c>
-      <c r="L72" s="94" t="b">
+        <v>IT0004801541#0000</v>
+      </c>
+      <c r="K72" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M72" s="95" t="str">
+      <c r="L72" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M72" s="49" t="e">
+        <f>LEFT(VLOOKUP($D72,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N72" s="49" t="e">
-        <f>LEFT(VLOOKUP($D72,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O72" s="49" t="e">
         <f>LEFT(VLOOKUP($D72,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="18"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O72" s="27"/>
+      <c r="P72" s="18"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="63"/>
       <c r="B73" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K73)</f>
+        <f>_xll.ohRangeRetrieveError(J73)</f>
         <v/>
       </c>
       <c r="C73" s="40" t="s">
@@ -8412,37 +8105,33 @@
       <c r="I73" s="83" t="s">
         <v>517</v>
       </c>
-      <c r="J73" s="18" t="str">
-        <f>_xll.qlSchedule(C73&amp;"_sch",G73,D73,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004848831_sch#0001</v>
-      </c>
-      <c r="K73" s="93" t="str">
+      <c r="J73" s="93" t="str">
         <f>_xll.qlBTP2(C73,I73,D73,E73,F73,G73,H73,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004848831#0001</v>
-      </c>
-      <c r="L73" s="94" t="b">
+        <v>IT0004848831#0000</v>
+      </c>
+      <c r="K73" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M73" s="95" t="str">
+      <c r="L73" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M73" s="49" t="e">
+        <f>LEFT(VLOOKUP($D73,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N73" s="49" t="e">
-        <f>LEFT(VLOOKUP($D73,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O73" s="49" t="e">
         <f>LEFT(VLOOKUP($D73,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P73" s="27"/>
-      <c r="Q73" s="18"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O73" s="27"/>
+      <c r="P73" s="18"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="63"/>
       <c r="B74" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K74)</f>
+        <f>_xll.ohRangeRetrieveError(J74)</f>
         <v/>
       </c>
       <c r="C74" s="40" t="s">
@@ -8466,36 +8155,32 @@
       <c r="I74" s="83" t="s">
         <v>518</v>
       </c>
-      <c r="J74" s="18" t="str">
-        <f>_xll.qlSchedule(C74&amp;"_sch",G74,D74,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004898034_sch#0001</v>
-      </c>
-      <c r="K74" s="93" t="str">
+      <c r="J74" s="93" t="str">
         <f>_xll.qlBTP2(C74,I74,D74,E74,F74,G74,H74,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004898034#0001</v>
-      </c>
-      <c r="L74" s="94" t="b">
+        <v>IT0004898034#0000</v>
+      </c>
+      <c r="K74" s="94" t="b">
         <v>1</v>
       </c>
-      <c r="M74" s="95" t="str">
+      <c r="L74" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M74" s="49" t="e">
+        <f>LEFT(VLOOKUP($D74,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N74" s="49" t="e">
-        <f>LEFT(VLOOKUP($D74,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O74" s="49" t="e">
         <f>LEFT(VLOOKUP($D74,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P74" s="27"/>
-      <c r="Q74" s="18"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O74" s="27"/>
+      <c r="P74" s="18"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="63"/>
       <c r="B75" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K75)</f>
+        <f>_xll.ohRangeRetrieveError(J75)</f>
         <v/>
       </c>
       <c r="C75" s="40" t="s">
@@ -8519,37 +8204,33 @@
       <c r="I75" s="83" t="s">
         <v>519</v>
       </c>
-      <c r="J75" s="18" t="str">
-        <f>_xll.qlSchedule(C75&amp;"_sch",G75,D75,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004356843_sch#0001</v>
-      </c>
-      <c r="K75" s="93" t="str">
+      <c r="J75" s="93" t="str">
         <f>_xll.qlBTP2(C75,I75,D75,E75,F75,G75,H75,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004356843#0001</v>
-      </c>
-      <c r="L75" s="94" t="b">
+        <v>IT0004356843#0000</v>
+      </c>
+      <c r="K75" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M75" s="95" t="str">
+      <c r="L75" s="95" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="N75" s="49" t="e">
+      <c r="M75" s="49" t="e">
         <f>LEFT(VLOOKUP($D75,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O75" s="49" t="str">
+      <c r="N75" s="49" t="str">
         <f>LEFT(VLOOKUP($D75,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0004359029</v>
       </c>
-      <c r="P75" s="27"/>
-      <c r="Q75" s="18"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O75" s="27"/>
+      <c r="P75" s="18"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="63"/>
       <c r="B76" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K76)</f>
+        <f>_xll.ohRangeRetrieveError(J76)</f>
         <v/>
       </c>
       <c r="C76" s="40" t="s">
@@ -8573,34 +8254,30 @@
       <c r="I76" s="83" t="s">
         <v>520</v>
       </c>
-      <c r="J76" s="18" t="str">
-        <f>_xll.qlSchedule(C76&amp;"_sch",G76,D76,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0000366655_sch#0001</v>
-      </c>
-      <c r="K76" s="93" t="str">
+      <c r="J76" s="93" t="str">
         <f>_xll.qlBTP2(C76,I76,D76,E76,F76,G76,H76,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0000366655#0001</v>
-      </c>
-      <c r="L76" s="94" t="b">
+        <v>IT0000366655#0000</v>
+      </c>
+      <c r="K76" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M76" s="95" t="str">
-        <f t="shared" ref="M76:M93" si="2">IF(AND(L76,ISNA(N76),ISNA(O76)),"Residual Missing","--")</f>
+      <c r="L76" s="95" t="str">
+        <f t="shared" ref="L76:L93" si="2">IF(AND(K76,ISNA(M76),ISNA(N76)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
-      <c r="N76" s="49" t="str">
+      <c r="M76" s="49" t="str">
         <f>LEFT(VLOOKUP($D76,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>IT0001246799</v>
       </c>
-      <c r="O76" s="49" t="e">
+      <c r="N76" s="49" t="e">
         <f>LEFT(VLOOKUP($D76,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P76" s="27"/>
-      <c r="Q76" s="18"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O76" s="27"/>
+      <c r="P76" s="18"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="63"/>
       <c r="B77" s="89"/>
       <c r="C77" s="40" t="s">
@@ -8624,33 +8301,29 @@
       <c r="I77" s="83" t="s">
         <v>521</v>
       </c>
-      <c r="J77" s="18" t="str">
-        <f>_xll.qlSchedule(C77&amp;"_sch",G77,D77,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004953417_sch#0001</v>
-      </c>
-      <c r="K77" s="93" t="str">
+      <c r="J77" s="93" t="str">
         <f>_xll.qlBTP2(C77,I77,D77,E77,F77,G77,H77,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004953417#0001</v>
-      </c>
-      <c r="L77" s="94" t="b">
+        <v>IT0004953417#0000</v>
+      </c>
+      <c r="K77" s="94" t="b">
         <v>1</v>
       </c>
-      <c r="M77" s="95" t="str">
-        <f>IF(AND(L77,ISNA(N77),ISNA(O77)),"Residual Missing","--")</f>
+      <c r="L77" s="95" t="str">
+        <f>IF(AND(K77,ISNA(M77),ISNA(N77)),"Residual Missing","--")</f>
         <v>Residual Missing</v>
       </c>
+      <c r="M77" s="49" t="e">
+        <f>LEFT(VLOOKUP($D77,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N77" s="49" t="e">
-        <f>LEFT(VLOOKUP($D77,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O77" s="49" t="e">
         <f>LEFT(VLOOKUP($D77,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P77" s="27"/>
-      <c r="Q77" s="18"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O77" s="27"/>
+      <c r="P77" s="18"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="63"/>
       <c r="B78" s="89"/>
       <c r="C78" s="40" t="s">
@@ -8674,33 +8347,29 @@
       <c r="I78" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="J78" s="18" t="str">
-        <f>_xll.qlSchedule(C78&amp;"_sch",G78,D78,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0005001547_sch#0001</v>
-      </c>
-      <c r="K78" s="93" t="str">
+      <c r="J78" s="93" t="str">
         <f>_xll.qlBTP2(C78,I78,D78,E78,F78,G78,H78,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005001547#0001</v>
-      </c>
-      <c r="L78" s="94" t="b">
+        <v>IT0005001547#0000</v>
+      </c>
+      <c r="K78" s="94" t="b">
         <v>1</v>
       </c>
-      <c r="M78" s="95" t="str">
-        <f>IF(AND(L78,ISNA(N78),ISNA(O78)),"Residual Missing","--")</f>
+      <c r="L78" s="95" t="str">
+        <f>IF(AND(K78,ISNA(M78),ISNA(N78)),"Residual Missing","--")</f>
         <v>Residual Missing</v>
       </c>
+      <c r="M78" s="49" t="e">
+        <f>LEFT(VLOOKUP($D78,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N78" s="49" t="e">
-        <f>LEFT(VLOOKUP($D78,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O78" s="49" t="e">
         <f>LEFT(VLOOKUP($D78,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P78" s="27"/>
-      <c r="Q78" s="18"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O78" s="27"/>
+      <c r="P78" s="18"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="63"/>
       <c r="B79" s="89"/>
       <c r="C79" s="40" t="s">
@@ -8724,36 +8393,32 @@
       <c r="I79" s="83" t="s">
         <v>523</v>
       </c>
-      <c r="J79" s="18" t="str">
-        <f>_xll.qlSchedule(C79&amp;"_sch",G79,D79,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0005045270_sch#0001</v>
-      </c>
-      <c r="K79" s="93" t="str">
+      <c r="J79" s="93" t="str">
         <f>_xll.qlBTP2(C79,I79,D79,E79,F79,G79,H79,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005045270#0001</v>
-      </c>
-      <c r="L79" s="94" t="b">
+        <v>IT0005045270#0000</v>
+      </c>
+      <c r="K79" s="94" t="b">
         <v>1</v>
       </c>
-      <c r="M79" s="95" t="str">
-        <f>IF(AND(L79,ISNA(N79),ISNA(O79)),"Residual Missing","--")</f>
+      <c r="L79" s="95" t="str">
+        <f>IF(AND(K79,ISNA(M79),ISNA(N79)),"Residual Missing","--")</f>
         <v>Residual Missing</v>
       </c>
+      <c r="M79" s="49" t="e">
+        <f>LEFT(VLOOKUP($D79,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N79" s="49" t="e">
-        <f>LEFT(VLOOKUP($D79,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O79" s="49" t="e">
         <f>LEFT(VLOOKUP($D79,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P79" s="27"/>
-      <c r="Q79" s="18"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O79" s="27"/>
+      <c r="P79" s="18"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="63"/>
       <c r="B80" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K80)</f>
+        <f>_xll.ohRangeRetrieveError(J80)</f>
         <v/>
       </c>
       <c r="C80" s="40" t="s">
@@ -8777,36 +8442,32 @@
       <c r="I80" s="83" t="s">
         <v>524</v>
       </c>
-      <c r="J80" s="18" t="str">
-        <f>_xll.qlSchedule(C80&amp;"_sch",G80,D80,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004513641_sch#0001</v>
-      </c>
-      <c r="K80" s="93" t="str">
+      <c r="J80" s="93" t="str">
         <f>_xll.qlBTP2(C80,I80,D80,E80,F80,G80,H80,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004513641#0001</v>
-      </c>
-      <c r="L80" s="94" t="b">
+        <v>IT0004513641#0000</v>
+      </c>
+      <c r="K80" s="94" t="b">
         <v>1</v>
       </c>
-      <c r="M80" s="95" t="str">
+      <c r="L80" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M80" s="49" t="e">
+        <f>LEFT(VLOOKUP($D80,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N80" s="49" t="e">
-        <f>LEFT(VLOOKUP($D80,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O80" s="49" t="e">
         <f>LEFT(VLOOKUP($D80,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P80" s="27"/>
-      <c r="Q80" s="18"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O80" s="27"/>
+      <c r="P80" s="18"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="63"/>
       <c r="B81" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K81)</f>
+        <f>_xll.ohRangeRetrieveError(J81)</f>
         <v/>
       </c>
       <c r="C81" s="40" t="s">
@@ -8830,37 +8491,33 @@
       <c r="I81" s="83" t="s">
         <v>525</v>
       </c>
-      <c r="J81" s="18" t="str">
-        <f>_xll.qlSchedule(C81&amp;"_sch",G81,D81,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004644735_sch#0001</v>
-      </c>
-      <c r="K81" s="93" t="str">
+      <c r="J81" s="93" t="str">
         <f>_xll.qlBTP2(C81,I81,D81,E81,F81,G81,H81,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004644735#0001</v>
-      </c>
-      <c r="L81" s="94" t="b">
+        <v>IT0004644735#0000</v>
+      </c>
+      <c r="K81" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M81" s="95" t="str">
+      <c r="L81" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M81" s="49" t="e">
+        <f>LEFT(VLOOKUP($D81,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N81" s="49" t="e">
-        <f>LEFT(VLOOKUP($D81,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O81" s="49" t="e">
         <f>LEFT(VLOOKUP($D81,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P81" s="27"/>
-      <c r="Q81" s="18"/>
-    </row>
-    <row r="82" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O81" s="27"/>
+      <c r="P81" s="18"/>
+    </row>
+    <row r="82" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="63"/>
       <c r="B82" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K82)</f>
+        <f>_xll.ohRangeRetrieveError(J82)</f>
         <v/>
       </c>
       <c r="C82" s="40" t="s">
@@ -8884,36 +8541,32 @@
       <c r="I82" s="83" t="s">
         <v>526</v>
       </c>
-      <c r="J82" s="18" t="str">
-        <f>_xll.qlSchedule(C82&amp;"_sch",G82,D82,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0001086567_sch#0001</v>
-      </c>
-      <c r="K82" s="93" t="str">
+      <c r="J82" s="93" t="str">
         <f>_xll.qlBTP2(C82,I82,D82,E82,F82,G82,H82,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001086567#0001</v>
-      </c>
-      <c r="L82" s="94" t="b">
+        <v>IT0001086567#0000</v>
+      </c>
+      <c r="K82" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M82" s="95" t="str">
+      <c r="L82" s="95" t="str">
         <f t="shared" si="2"/>
         <v>--</v>
       </c>
-      <c r="N82" s="49" t="str">
+      <c r="M82" s="49" t="str">
         <f>LEFT(VLOOKUP($D82,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>IT0001246807</v>
       </c>
-      <c r="O82" s="49" t="e">
+      <c r="N82" s="49" t="e">
         <f>LEFT(VLOOKUP($D82,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P82" s="27"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O82" s="27"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="63"/>
       <c r="B83" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K83)</f>
+        <f>_xll.ohRangeRetrieveError(J83)</f>
         <v/>
       </c>
       <c r="C83" s="40" t="s">
@@ -8937,36 +8590,32 @@
       <c r="I83" s="83" t="s">
         <v>527</v>
       </c>
-      <c r="J83" s="18" t="str">
-        <f>_xll.qlSchedule(C83&amp;"_sch",G83,D83,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0001174611_sch#0001</v>
-      </c>
-      <c r="K83" s="93" t="str">
+      <c r="J83" s="93" t="str">
         <f>_xll.qlBTP2(C83,I83,D83,E83,F83,G83,H83,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001174611#0001</v>
-      </c>
-      <c r="L83" s="94" t="b">
+        <v>IT0001174611#0000</v>
+      </c>
+      <c r="K83" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M83" s="95" t="str">
+      <c r="L83" s="95" t="str">
         <f t="shared" si="2"/>
         <v>--</v>
       </c>
-      <c r="N83" s="49" t="str">
+      <c r="M83" s="49" t="str">
         <f>LEFT(VLOOKUP($D83,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>IT0001246815</v>
       </c>
-      <c r="O83" s="49" t="e">
+      <c r="N83" s="49" t="e">
         <f>LEFT(VLOOKUP($D83,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P83" s="27"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O83" s="27"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="63"/>
       <c r="B84" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K84)</f>
+        <f>_xll.ohRangeRetrieveError(J84)</f>
         <v/>
       </c>
       <c r="C84" s="40" t="s">
@@ -8990,35 +8639,31 @@
       <c r="I84" s="83" t="s">
         <v>528</v>
       </c>
-      <c r="J84" s="18" t="str">
-        <f>_xll.qlSchedule(C84&amp;"_sch",G84,D84,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004889033_sch#0001</v>
-      </c>
-      <c r="K84" s="93" t="str">
+      <c r="J84" s="93" t="str">
         <f>_xll.qlBTP2(C84,I84,D84,E84,F84,G84,H84,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004889033#0001</v>
-      </c>
-      <c r="L84" s="94" t="b">
+        <v>IT0004889033#0000</v>
+      </c>
+      <c r="K84" s="94" t="b">
         <v>1</v>
       </c>
-      <c r="M84" s="95" t="str">
+      <c r="L84" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M84" s="49" t="e">
+        <f>LEFT(VLOOKUP($D84,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N84" s="49" t="e">
-        <f>LEFT(VLOOKUP($D84,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O84" s="49" t="e">
         <f>LEFT(VLOOKUP($D84,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P84" s="27"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O84" s="27"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="63"/>
       <c r="B85" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K85)</f>
+        <f>_xll.ohRangeRetrieveError(J85)</f>
         <v/>
       </c>
       <c r="C85" s="40" t="s">
@@ -9042,33 +8687,29 @@
       <c r="I85" s="83" t="s">
         <v>529</v>
       </c>
-      <c r="J85" s="18" t="str">
-        <f>_xll.qlSchedule(C85&amp;"_sch",G85,D85,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0001278511_sch#0001</v>
-      </c>
-      <c r="K85" s="93" t="str">
+      <c r="J85" s="93" t="str">
         <f>_xll.qlBTP2(C85,I85,D85,E85,F85,G85,H85,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001278511#0001</v>
-      </c>
-      <c r="L85" s="94" t="b">
+        <v>IT0001278511#0000</v>
+      </c>
+      <c r="K85" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M85" s="95" t="str">
+      <c r="L85" s="95" t="str">
         <f t="shared" si="2"/>
         <v>--</v>
       </c>
-      <c r="N85" s="49" t="str">
+      <c r="M85" s="49" t="str">
         <f>LEFT(VLOOKUP($D85,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>IT0001312773</v>
       </c>
-      <c r="O85" s="49" t="e">
+      <c r="N85" s="49" t="e">
         <f>LEFT(VLOOKUP($D85,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P85" s="27"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O85" s="27"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="63"/>
       <c r="B86" s="89"/>
       <c r="C86" s="40" t="s">
@@ -9092,35 +8733,31 @@
       <c r="I86" s="83" t="s">
         <v>530</v>
       </c>
-      <c r="J86" s="18" t="str">
-        <f>_xll.qlSchedule(C86&amp;"_sch",G86,D86,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0005024234_sch#0001</v>
-      </c>
-      <c r="K86" s="93" t="str">
+      <c r="J86" s="93" t="str">
         <f>_xll.qlBTP2(C86,I86,D86,E86,F86,G86,H86,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005024234#0001</v>
-      </c>
-      <c r="L86" s="94" t="b">
+        <v>IT0005024234#0000</v>
+      </c>
+      <c r="K86" s="94" t="b">
         <v>0</v>
       </c>
-      <c r="M86" s="95" t="str">
-        <f>IF(AND(L86,ISNA(N86),ISNA(O86)),"Residual Missing","--")</f>
+      <c r="L86" s="95" t="str">
+        <f>IF(AND(K86,ISNA(M86),ISNA(N86)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
+      <c r="M86" s="49" t="e">
+        <f>LEFT(VLOOKUP($D86,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N86" s="49" t="e">
-        <f>LEFT(VLOOKUP($D86,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O86" s="49" t="e">
         <f>LEFT(VLOOKUP($D86,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P86" s="27"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O86" s="27"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="63"/>
       <c r="B87" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K87)</f>
+        <f>_xll.ohRangeRetrieveError(J87)</f>
         <v/>
       </c>
       <c r="C87" s="40" t="s">
@@ -9144,36 +8781,32 @@
       <c r="I87" s="83" t="s">
         <v>531</v>
       </c>
-      <c r="J87" s="18" t="str">
-        <f>_xll.qlSchedule(C87&amp;"_sch",G87,D87,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0001444378_sch#0001</v>
-      </c>
-      <c r="K87" s="93" t="str">
+      <c r="J87" s="93" t="str">
         <f>_xll.qlBTP2(C87,I87,D87,E87,F87,G87,H87,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001444378#0001</v>
-      </c>
-      <c r="L87" s="94" t="b">
+        <v>IT0001444378#0000</v>
+      </c>
+      <c r="K87" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M87" s="95" t="str">
+      <c r="L87" s="95" t="str">
         <f t="shared" si="2"/>
         <v>--</v>
       </c>
-      <c r="N87" s="49" t="str">
+      <c r="M87" s="49" t="str">
         <f>LEFT(VLOOKUP($D87,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>IT0001464186</v>
       </c>
-      <c r="O87" s="49" t="e">
+      <c r="N87" s="49" t="e">
         <f>LEFT(VLOOKUP($D87,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P87" s="27"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O87" s="27"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="63"/>
       <c r="B88" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K88)</f>
+        <f>_xll.ohRangeRetrieveError(J88)</f>
         <v/>
       </c>
       <c r="C88" s="40" t="s">
@@ -9197,36 +8830,32 @@
       <c r="I88" s="83" t="s">
         <v>532</v>
       </c>
-      <c r="J88" s="18" t="str">
-        <f>_xll.qlSchedule(C88&amp;"_sch",G88,D88,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0003256820_sch#0001</v>
-      </c>
-      <c r="K88" s="93" t="str">
+      <c r="J88" s="93" t="str">
         <f>_xll.qlBTP2(C88,I88,D88,E88,F88,G88,H88,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003256820#0001</v>
-      </c>
-      <c r="L88" s="94" t="b">
+        <v>IT0003256820#0000</v>
+      </c>
+      <c r="K88" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M88" s="95" t="str">
+      <c r="L88" s="95" t="str">
         <f t="shared" si="2"/>
         <v>--</v>
       </c>
-      <c r="N88" s="49" t="e">
+      <c r="M88" s="49" t="e">
         <f>LEFT(VLOOKUP($D88,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O88" s="49" t="str">
+      <c r="N88" s="49" t="str">
         <f>LEFT(VLOOKUP($D88,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0003268460</v>
       </c>
-      <c r="P88" s="27"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O88" s="27"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="63"/>
       <c r="B89" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K89)</f>
+        <f>_xll.ohRangeRetrieveError(J89)</f>
         <v/>
       </c>
       <c r="C89" s="40" t="s">
@@ -9250,36 +8879,32 @@
       <c r="I89" s="83" t="s">
         <v>533</v>
       </c>
-      <c r="J89" s="18" t="str">
-        <f>_xll.qlSchedule(C89&amp;"_sch",G89,D89,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0003535157_sch#0001</v>
-      </c>
-      <c r="K89" s="93" t="str">
+      <c r="J89" s="93" t="str">
         <f>_xll.qlBTP2(C89,I89,D89,E89,F89,G89,H89,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003535157#0001</v>
-      </c>
-      <c r="L89" s="94" t="b">
+        <v>IT0003535157#0000</v>
+      </c>
+      <c r="K89" s="94" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M89" s="95" t="str">
+      <c r="L89" s="95" t="str">
         <f t="shared" si="2"/>
         <v>--</v>
       </c>
-      <c r="N89" s="49" t="e">
+      <c r="M89" s="49" t="e">
         <f>LEFT(VLOOKUP($D89,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O89" s="49" t="str">
+      <c r="N89" s="49" t="str">
         <f>LEFT(VLOOKUP($D89,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0003540371</v>
       </c>
-      <c r="P89" s="27"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O89" s="27"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="63"/>
       <c r="B90" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K90)</f>
+        <f>_xll.ohRangeRetrieveError(J90)</f>
         <v/>
       </c>
       <c r="C90" s="40" t="s">
@@ -9303,36 +8928,32 @@
       <c r="I90" s="83" t="s">
         <v>534</v>
       </c>
-      <c r="J90" s="18" t="str">
-        <f>_xll.qlSchedule(C90&amp;"_sch",G90,D90,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0003934657_sch#0001</v>
-      </c>
-      <c r="K90" s="93" t="str">
+      <c r="J90" s="93" t="str">
         <f>_xll.qlBTP2(C90,I90,D90,E90,F90,G90,H90,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003934657#0001</v>
-      </c>
-      <c r="L90" s="94" t="b">
-        <f>NOT(ISNA(VLOOKUP(LEFT($K90,12),LatestStrippable,1,FALSE)))</f>
+        <v>IT0003934657#0000</v>
+      </c>
+      <c r="K90" s="94" t="b">
+        <f>NOT(ISNA(VLOOKUP(LEFT($J90,12),LatestStrippable,1,FALSE)))</f>
         <v>1</v>
       </c>
-      <c r="M90" s="95" t="str">
+      <c r="L90" s="95" t="str">
         <f t="shared" si="2"/>
         <v>--</v>
       </c>
-      <c r="N90" s="49" t="e">
+      <c r="M90" s="49" t="e">
         <f>LEFT(VLOOKUP($D90,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O90" s="49" t="str">
+      <c r="N90" s="49" t="str">
         <f>LEFT(VLOOKUP($D90,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0004002801</v>
       </c>
-      <c r="P90" s="27"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O90" s="27"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="63"/>
       <c r="B91" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K91)</f>
+        <f>_xll.ohRangeRetrieveError(J91)</f>
         <v/>
       </c>
       <c r="C91" s="40" t="s">
@@ -9356,33 +8977,29 @@
       <c r="I91" s="83" t="s">
         <v>535</v>
       </c>
-      <c r="J91" s="18" t="str">
-        <f>_xll.qlSchedule(C91&amp;"_sch",G91,D91,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004286966_sch#0001</v>
-      </c>
-      <c r="K91" s="93" t="str">
+      <c r="J91" s="93" t="str">
         <f>_xll.qlBTP2(C91,I91,D91,E91,F91,G91,H91,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004286966#0001</v>
-      </c>
-      <c r="L91" s="94" t="b">
-        <f>NOT(ISNA(VLOOKUP(LEFT($K91,12),LatestStrippable,1,FALSE)))</f>
+        <v>IT0004286966#0000</v>
+      </c>
+      <c r="K91" s="94" t="b">
+        <f>NOT(ISNA(VLOOKUP(LEFT($J91,12),LatestStrippable,1,FALSE)))</f>
         <v>1</v>
       </c>
-      <c r="M91" s="95" t="str">
+      <c r="L91" s="95" t="str">
         <f t="shared" si="2"/>
         <v>--</v>
       </c>
-      <c r="N91" s="49" t="e">
+      <c r="M91" s="49" t="e">
         <f>LEFT(VLOOKUP($D91,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="O91" s="49" t="str">
+      <c r="N91" s="49" t="str">
         <f>LEFT(VLOOKUP($D91,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>IT0004288574</v>
       </c>
-      <c r="P91" s="27"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O91" s="27"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="63"/>
       <c r="B92" s="89"/>
       <c r="C92" s="40" t="s">
@@ -9406,36 +9023,32 @@
       <c r="I92" s="83" t="s">
         <v>536</v>
       </c>
-      <c r="J92" s="18" t="str">
-        <f>_xll.qlSchedule(C92&amp;"_sch",G92,D92,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004532559_sch#0001</v>
-      </c>
-      <c r="K92" s="93" t="str">
+      <c r="J92" s="93" t="str">
         <f>_xll.qlBTP2(C92,I92,D92,E92,F92,G92,H92,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004532559#0001</v>
-      </c>
-      <c r="L92" s="94" t="b">
-        <f>NOT(ISNA(VLOOKUP(LEFT($K92,12),LatestStrippable,1,FALSE)))</f>
+        <v>IT0004532559#0000</v>
+      </c>
+      <c r="K92" s="94" t="b">
+        <f>NOT(ISNA(VLOOKUP(LEFT($J92,12),LatestStrippable,1,FALSE)))</f>
         <v>1</v>
       </c>
-      <c r="M92" s="95" t="str">
-        <f>IF(AND(L92,ISNA(N92),ISNA(O92)),"Residual Missing","--")</f>
+      <c r="L92" s="95" t="str">
+        <f>IF(AND(K92,ISNA(M92),ISNA(N92)),"Residual Missing","--")</f>
         <v>Residual Missing</v>
       </c>
+      <c r="M92" s="49" t="e">
+        <f>LEFT(VLOOKUP($D92,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N92" s="49" t="e">
-        <f>LEFT(VLOOKUP($D92,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O92" s="49" t="e">
         <f>LEFT(VLOOKUP($D92,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P92" s="27"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O92" s="27"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="63"/>
       <c r="B93" s="89" t="str">
-        <f>_xll.ohRangeRetrieveError(K93)</f>
+        <f>_xll.ohRangeRetrieveError(J93)</f>
         <v/>
       </c>
       <c r="C93" s="40" t="s">
@@ -9459,32 +9072,28 @@
       <c r="I93" s="83" t="s">
         <v>537</v>
       </c>
-      <c r="J93" s="18" t="str">
-        <f>_xll.qlSchedule(C93&amp;"_sch",G93,D93,"6M",,,,,TRUE,,,,Trigger)</f>
-        <v>IT0004923998_sch#0001</v>
-      </c>
-      <c r="K93" s="93" t="str">
+      <c r="J93" s="93" t="str">
         <f>_xll.qlBTP2(C93,I93,D93,E93,F93,G93,H93,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004923998#0001</v>
-      </c>
-      <c r="L93" s="94" t="b">
+        <v>IT0004923998#0000</v>
+      </c>
+      <c r="K93" s="94" t="b">
         <v>1</v>
       </c>
-      <c r="M93" s="95" t="str">
+      <c r="L93" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Residual Missing</v>
       </c>
+      <c r="M93" s="49" t="e">
+        <f>LEFT(VLOOKUP($D93,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N93" s="49" t="e">
-        <f>LEFT(VLOOKUP($D93,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O93" s="49" t="e">
         <f>LEFT(VLOOKUP($D93,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="P93" s="27"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O93" s="27"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="50"/>
       <c r="C94" s="50"/>
@@ -9496,13 +9105,12 @@
       <c r="I94" s="50"/>
       <c r="J94" s="50"/>
       <c r="K94" s="50"/>
-      <c r="L94" s="50"/>
-      <c r="M94" s="22"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="50"/>
       <c r="N94" s="50"/>
-      <c r="O94" s="50"/>
-      <c r="P94" s="27"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O94" s="27"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="22"/>
       <c r="C95" s="22"/>
@@ -9512,20 +9120,19 @@
       <c r="G95" s="22"/>
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
-      <c r="J95" s="22"/>
-      <c r="K95" s="22" t="str">
-        <f>_xll.ohGroup(L95,_xll.ohFilter(K8:K93,L8:L93),Permanent,,ObjectOverwrite)</f>
-        <v>StrippableBTPs#0001</v>
-      </c>
-      <c r="L95" s="22" t="s">
+      <c r="J95" s="22" t="str">
+        <f>_xll.ohGroup(K95,_xll.ohFilter(J8:J93,K8:K93),Permanent,,ObjectOverwrite)</f>
+        <v>StrippableBTPs#0000</v>
+      </c>
+      <c r="K95" s="22" t="s">
         <v>357</v>
       </c>
+      <c r="L95" s="22"/>
       <c r="M95" s="22"/>
       <c r="N95" s="22"/>
-      <c r="O95" s="22"/>
-      <c r="P95" s="27"/>
-    </row>
-    <row r="96" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O95" s="27"/>
+    </row>
+    <row r="96" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="44"/>
       <c r="B96" s="45"/>
       <c r="C96" s="45"/>
@@ -9535,23 +9142,22 @@
       <c r="G96" s="45"/>
       <c r="H96" s="45"/>
       <c r="I96" s="45"/>
-      <c r="J96" s="45"/>
-      <c r="K96" s="45" t="str">
-        <f>_xll.ohGroup(L96,K8:K93,Permanent,,ObjectOverwrite)</f>
-        <v>BTPs#0001</v>
-      </c>
-      <c r="L96" s="45" t="s">
+      <c r="J96" s="45" t="str">
+        <f>_xll.ohGroup(K96,J8:J93,Permanent,,ObjectOverwrite)</f>
+        <v>BTPs#0000</v>
+      </c>
+      <c r="K96" s="45" t="s">
         <v>356</v>
       </c>
+      <c r="L96" s="45"/>
       <c r="M96" s="45"/>
       <c r="N96" s="45"/>
-      <c r="O96" s="45"/>
-      <c r="P96" s="46"/>
+      <c r="O96" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S8">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9563,11 +9169,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9589,318 +9194,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="e">
-        <f t="array" ref="A1:A70">[1]!getlogicbookinstruments("btpnoil","alive")</f>
-        <v>#VALUE!</v>
+      <c r="A1" s="127" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A2" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B2" s="108" t="e">
         <f>VLOOKUP(A2,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A3" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B3" s="108" t="e">
         <f>VLOOKUP(A3,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A4" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B4" s="108" t="e">
         <f>VLOOKUP(A4,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A5" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B5" s="108" t="e">
         <f>VLOOKUP(A5,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A6" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B6" s="108" t="e">
         <f>VLOOKUP(A6,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A7" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B7" s="108" t="e">
         <f>VLOOKUP(A7,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A8" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B8" s="108" t="e">
         <f>VLOOKUP(A8,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A9" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B9" s="108" t="e">
         <f>VLOOKUP(A9,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A10" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B10" s="108" t="e">
         <f>VLOOKUP(A10,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A11" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B11" s="108" t="e">
         <f>VLOOKUP(A11,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A12" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B12" s="108" t="e">
         <f>VLOOKUP(A12,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A13" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B13" s="108" t="e">
         <f>VLOOKUP(A13,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A14" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B14" s="108" t="e">
         <f>VLOOKUP(A14,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A15" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B15" s="108" t="e">
         <f>VLOOKUP(A15,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A16" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B16" s="108" t="e">
         <f>VLOOKUP(A16,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A17" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B17" s="108" t="e">
         <f>VLOOKUP(A17,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A18" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B18" s="108" t="e">
         <f>VLOOKUP(A18,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A19" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B19" s="108" t="e">
         <f>VLOOKUP(A19,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A20" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B20" s="108" t="e">
         <f>VLOOKUP(A20,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A21" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B21" s="108" t="e">
         <f>VLOOKUP(A21,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A22" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B22" s="108" t="e">
         <f>VLOOKUP(A22,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A23" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B23" s="108" t="e">
         <f>VLOOKUP(A23,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A24" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B24" s="108" t="e">
         <f>VLOOKUP(A24,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A25" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B25" s="108" t="e">
         <f>VLOOKUP(A25,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A26" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B26" s="108" t="e">
         <f>VLOOKUP(A26,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A27" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B27" s="108" t="e">
         <f>VLOOKUP(A27,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A28" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B28" s="108" t="e">
         <f>VLOOKUP(A28,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A29" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B29" s="108" t="e">
         <f>VLOOKUP(A29,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A30" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B30" s="108" t="e">
         <f>VLOOKUP(A30,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A31" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B31" s="108" t="e">
         <f>VLOOKUP(A31,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A32" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B32" s="108" t="e">
         <f>VLOOKUP(A32,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A33" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B33" s="108" t="e">
         <f>VLOOKUP(A33,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A34" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B34" s="108" t="e">
         <f>VLOOKUP(A34,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A35" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B35" s="108" t="e">
         <f>VLOOKUP(A35,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D35" s="109" t="str">
-        <f t="array" ref="D35:Q100">_xll.qlBondFlowAnalysis(BTP!K67)</f>
+        <f t="array" ref="D35:Q100">_xll.qlBondFlowAnalysis(BTP!J67)</f>
         <v>Payment Date</v>
       </c>
       <c r="E35" s="109" t="str">
@@ -9950,12 +9554,12 @@
       <c r="W35" s="109"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A36" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B36" s="108" t="e">
         <f>VLOOKUP(A36,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D36" s="110">
         <v>41579</v>
@@ -10020,12 +9624,12 @@
       <c r="AJ36" s="117"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A37" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B37" s="108" t="e">
         <f>VLOOKUP(A37,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D37" s="110">
         <v>41761</v>
@@ -10090,12 +9694,12 @@
       <c r="AJ37" s="117"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A38" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B38" s="108" t="e">
         <f>VLOOKUP(A38,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D38" s="110">
         <v>41946</v>
@@ -10160,12 +9764,12 @@
       <c r="AJ38" s="117"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A39" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A39" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B39" s="108" t="e">
         <f>VLOOKUP(A39,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D39" s="110">
         <v>42128</v>
@@ -10230,12 +9834,12 @@
       <c r="AJ39" s="117"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A40" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A40" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B40" s="108" t="e">
         <f>VLOOKUP(A40,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D40" s="110">
         <v>42310</v>
@@ -10300,12 +9904,12 @@
       <c r="AJ40" s="117"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A41" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A41" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B41" s="108" t="e">
         <f>VLOOKUP(A41,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D41" s="110">
         <v>42492</v>
@@ -10370,12 +9974,12 @@
       <c r="AJ41" s="117"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A42" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A42" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B42" s="108" t="e">
         <f>VLOOKUP(A42,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D42" s="110">
         <v>42675</v>
@@ -10440,12 +10044,12 @@
       <c r="AJ42" s="117"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A43" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A43" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B43" s="108" t="e">
         <f>VLOOKUP(A43,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D43" s="110">
         <v>42857</v>
@@ -10510,12 +10114,12 @@
       <c r="AJ43" s="117"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A44" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A44" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B44" s="108" t="e">
         <f>VLOOKUP(A44,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D44" s="110">
         <v>43040</v>
@@ -10580,12 +10184,12 @@
       <c r="AJ44" s="117"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A45" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A45" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B45" s="108" t="e">
         <f>VLOOKUP(A45,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D45" s="110">
         <v>43222</v>
@@ -10650,12 +10254,12 @@
       <c r="AJ45" s="117"/>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A46" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A46" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B46" s="108" t="e">
         <f>VLOOKUP(A46,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D46" s="110">
         <v>43405</v>
@@ -10720,12 +10324,12 @@
       <c r="AJ46" s="117"/>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A47" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A47" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B47" s="108" t="e">
         <f>VLOOKUP(A47,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D47" s="110">
         <v>43587</v>
@@ -10790,12 +10394,12 @@
       <c r="AJ47" s="117"/>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A48" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A48" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B48" s="108" t="e">
         <f>VLOOKUP(A48,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D48" s="110">
         <v>43770</v>
@@ -10860,12 +10464,12 @@
       <c r="AJ48" s="117"/>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A49" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A49" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B49" s="108" t="e">
         <f>VLOOKUP(A49,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D49" s="110">
         <v>43955</v>
@@ -10930,12 +10534,12 @@
       <c r="AJ49" s="117"/>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A50" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A50" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B50" s="108" t="e">
         <f>VLOOKUP(A50,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D50" s="110">
         <v>44137</v>
@@ -11000,12 +10604,12 @@
       <c r="AJ50" s="117"/>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A51" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A51" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B51" s="108" t="e">
         <f>VLOOKUP(A51,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D51" s="110">
         <v>44319</v>
@@ -11070,12 +10674,12 @@
       <c r="AJ51" s="117"/>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A52" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A52" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B52" s="108" t="e">
         <f>VLOOKUP(A52,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D52" s="110">
         <v>44319</v>
@@ -11140,12 +10744,12 @@
       <c r="AJ52" s="117"/>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A53" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A53" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B53" s="108" t="e">
         <f>VLOOKUP(A53,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D53" s="110" t="e">
         <v>#N/A</v>
@@ -11191,12 +10795,12 @@
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A54" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A54" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B54" s="108" t="e">
         <f>VLOOKUP(A54,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D54" s="110" t="e">
         <v>#N/A</v>
@@ -11242,12 +10846,12 @@
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A55" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A55" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B55" s="108" t="e">
         <f>VLOOKUP(A55,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D55" s="110" t="e">
         <v>#N/A</v>
@@ -11293,12 +10897,12 @@
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A56" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A56" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B56" s="108" t="e">
         <f>VLOOKUP(A56,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D56" s="110" t="e">
         <v>#N/A</v>
@@ -11344,12 +10948,12 @@
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A57" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A57" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B57" s="108" t="e">
         <f>VLOOKUP(A57,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D57" s="110" t="e">
         <v>#N/A</v>
@@ -11395,12 +10999,12 @@
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A58" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A58" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B58" s="108" t="e">
         <f>VLOOKUP(A58,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D58" s="110" t="e">
         <v>#N/A</v>
@@ -11446,12 +11050,12 @@
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A59" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A59" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B59" s="108" t="e">
         <f>VLOOKUP(A59,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D59" s="110" t="e">
         <v>#N/A</v>
@@ -11497,12 +11101,12 @@
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A60" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A60" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B60" s="108" t="e">
         <f>VLOOKUP(A60,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D60" s="110" t="e">
         <v>#N/A</v>
@@ -11548,12 +11152,12 @@
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A61" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A61" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B61" s="108" t="e">
         <f>VLOOKUP(A61,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D61" s="110" t="e">
         <v>#N/A</v>
@@ -11599,12 +11203,12 @@
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A62" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A62" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B62" s="108" t="e">
         <f>VLOOKUP(A62,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D62" s="110" t="e">
         <v>#N/A</v>
@@ -11650,12 +11254,12 @@
       </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A63" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A63" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B63" s="108" t="e">
         <f>VLOOKUP(A63,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D63" s="110" t="e">
         <v>#N/A</v>
@@ -11701,12 +11305,12 @@
       </c>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A64" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A64" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B64" s="108" t="e">
         <f>VLOOKUP(A64,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D64" s="110" t="e">
         <v>#N/A</v>
@@ -11752,12 +11356,12 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A65" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B65" s="108" t="e">
         <f>VLOOKUP(A65,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D65" s="110" t="e">
         <v>#N/A</v>
@@ -11803,12 +11407,12 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A66" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B66" s="108" t="e">
         <f>VLOOKUP(A66,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D66" s="110" t="e">
         <v>#N/A</v>
@@ -11854,12 +11458,12 @@
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A67" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B67" s="108" t="e">
         <f>VLOOKUP(A67,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D67" s="110" t="e">
         <v>#N/A</v>
@@ -11905,12 +11509,12 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A68" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B68" s="108" t="e">
         <f>VLOOKUP(A68,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D68" s="110" t="e">
         <v>#N/A</v>
@@ -11956,12 +11560,12 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A69" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B69" s="108" t="e">
         <f>VLOOKUP(A69,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D69" s="110" t="e">
         <v>#N/A</v>
@@ -12007,12 +11611,12 @@
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="108" t="e">
-        <v>#VALUE!</v>
+      <c r="A70" s="127" t="s">
+        <v>538</v>
       </c>
       <c r="B70" s="108" t="e">
         <f>VLOOKUP(A70,BTP!$C$8:$C$93,1,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="D70" s="110" t="e">
         <v>#N/A</v>
@@ -13842,9 +13446,9 @@
       <c r="B4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="21" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(M8:M89,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
-        <v>82</v>
+        <v>---</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
@@ -13985,7 +13589,7 @@
       </c>
       <c r="M8" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B8,L8,D8,E8,F8,G8,H8,I8,J8,K8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003106389#0001</v>
+        <v>IT0003106389#0000</v>
       </c>
       <c r="N8" s="22"/>
       <c r="O8" s="49" t="str">
@@ -13993,7 +13597,7 @@
         <v>IT0003106595</v>
       </c>
       <c r="P8" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H8,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H8,BTP!$J$95)</f>
         <v>IT0003080402</v>
       </c>
       <c r="Q8" s="23"/>
@@ -14036,7 +13640,7 @@
       </c>
       <c r="M9" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B9,L9,D9,E9,F9,G9,H9,I9,J9,K9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003204903#0001</v>
+        <v>IT0003204903#0000</v>
       </c>
       <c r="N9" s="22"/>
       <c r="O9" s="49" t="str">
@@ -14044,7 +13648,7 @@
         <v>IT0003204945</v>
       </c>
       <c r="P9" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H9,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H9,BTP!$J$95)</f>
         <v>IT0003190912</v>
       </c>
       <c r="Q9" s="23"/>
@@ -14087,7 +13691,7 @@
       </c>
       <c r="M10" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B10,L10,D10,E10,F10,G10,H10,I10,J10,K10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003398333#0001</v>
+        <v>IT0003398333#0000</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="49" t="str">
@@ -14095,7 +13699,7 @@
         <v>IT0003246391</v>
       </c>
       <c r="P10" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H10,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H10,BTP!$J$95)</f>
         <v>IT0003357982</v>
       </c>
       <c r="Q10" s="23"/>
@@ -14138,7 +13742,7 @@
       </c>
       <c r="M11" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B11,L11,D11,E11,F11,G11,H11,I11,J11,K11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003474951#0001</v>
+        <v>IT0003474951#0000</v>
       </c>
       <c r="N11" s="22"/>
       <c r="O11" s="49" t="str">
@@ -14146,7 +13750,7 @@
         <v>IT0003246383</v>
       </c>
       <c r="P11" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H11,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H11,BTP!$J$95)</f>
         <v>IT0003472336</v>
       </c>
       <c r="Q11" s="23"/>
@@ -14189,7 +13793,7 @@
       </c>
       <c r="M12" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B12,L12,D12,E12,F12,G12,H12,I12,J12,K12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003631238#0001</v>
+        <v>IT0003631238#0000</v>
       </c>
       <c r="N12" s="22"/>
       <c r="O12" s="49" t="str">
@@ -14197,7 +13801,7 @@
         <v>IT0003246359</v>
       </c>
       <c r="P12" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H12,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H12,BTP!$J$95)</f>
         <v>IT0003618383</v>
       </c>
       <c r="Q12" s="23"/>
@@ -14240,7 +13844,7 @@
       </c>
       <c r="M13" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B13,L13,D13,E13,F13,G13,H13,I13,J13,K13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003725261#0001</v>
+        <v>IT0003725261#0000</v>
       </c>
       <c r="N13" s="22"/>
       <c r="O13" s="49" t="str">
@@ -14248,7 +13852,7 @@
         <v>IT0003246342</v>
       </c>
       <c r="P13" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H13,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H13,BTP!$J$95)</f>
         <v>IT0003719918</v>
       </c>
       <c r="Q13" s="23"/>
@@ -14291,7 +13895,7 @@
       </c>
       <c r="M14" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B14,L14,D14,E14,F14,G14,H14,I14,J14,K14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003850374#0001</v>
+        <v>IT0003850374#0000</v>
       </c>
       <c r="N14" s="22"/>
       <c r="O14" s="49" t="str">
@@ -14299,7 +13903,7 @@
         <v>IT0003246326</v>
       </c>
       <c r="P14" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H14,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H14,BTP!$J$95)</f>
         <v>IT0003844534</v>
       </c>
       <c r="Q14" s="23"/>
@@ -14342,7 +13946,7 @@
       </c>
       <c r="M15" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B15,L15,D15,E15,F15,G15,H15,I15,J15,K15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004038318#0001</v>
+        <v>IT0004038318#0000</v>
       </c>
       <c r="N15" s="22"/>
       <c r="O15" s="49" t="str">
@@ -14350,7 +13954,7 @@
         <v>IT0003246292</v>
       </c>
       <c r="P15" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H15,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H15,BTP!$J$95)</f>
         <v>IT0004019581</v>
       </c>
       <c r="Q15" s="23"/>
@@ -14393,7 +13997,7 @@
       </c>
       <c r="M16" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B16,L16,D16,E16,F16,G16,H16,I16,J16,K16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004276322#0001</v>
+        <v>IT0004276322#0000</v>
       </c>
       <c r="N16" s="22"/>
       <c r="O16" s="49" t="str">
@@ -14401,7 +14005,7 @@
         <v>IT0003246284</v>
       </c>
       <c r="P16" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H16,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H16,BTP!$J$95)</f>
         <v>IT0004164775</v>
       </c>
       <c r="Q16" s="23"/>
@@ -14444,7 +14048,7 @@
       </c>
       <c r="M17" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B17,L17,D17,E17,F17,G17,H17,I17,J17,K17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246250#0001</v>
+        <v>IT0003246250#0000</v>
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="49" t="str">
@@ -14452,7 +14056,7 @@
         <v>IT0003246268</v>
       </c>
       <c r="P17" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H17,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H17,BTP!$J$95)</f>
         <v>IT0003242747</v>
       </c>
       <c r="Q17" s="23"/>
@@ -14495,7 +14099,7 @@
       </c>
       <c r="M18" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B18,L18,D18,E18,F18,G18,H18,I18,J18,K18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004275811#0001</v>
+        <v>IT0004275811#0000</v>
       </c>
       <c r="N18" s="22"/>
       <c r="O18" s="49" t="str">
@@ -14503,7 +14107,7 @@
         <v>IT0003268486</v>
       </c>
       <c r="P18" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H18,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H18,BTP!$J$95)</f>
         <v>IT0004273493</v>
       </c>
       <c r="Q18" s="23"/>
@@ -14546,7 +14150,7 @@
       </c>
       <c r="M19" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B19,L19,D19,E19,F19,G19,H19,I19,J19,K19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004363450#0001</v>
+        <v>IT0004363450#0000</v>
       </c>
       <c r="N19" s="22"/>
       <c r="O19" s="49" t="str">
@@ -14554,7 +14158,7 @@
         <v>IT0003268494</v>
       </c>
       <c r="P19" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H19,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H19,BTP!$J$95)</f>
         <v>IT0004361041</v>
       </c>
       <c r="Q19" s="23"/>
@@ -14597,7 +14201,7 @@
       </c>
       <c r="M20" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B20,L20,D20,E20,F20,G20,H20,I20,J20,K20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003513105#0001</v>
+        <v>IT0003513105#0000</v>
       </c>
       <c r="N20" s="22"/>
       <c r="O20" s="49" t="str">
@@ -14605,7 +14209,7 @@
         <v>IT0003268544</v>
       </c>
       <c r="P20" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H20,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H20,BTP!$J$95)</f>
         <v>IT0003493258</v>
       </c>
       <c r="Q20" s="23"/>
@@ -14648,7 +14252,7 @@
       </c>
       <c r="M21" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B21,L21,D21,E21,F21,G21,H21,I21,J21,K21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003649172#0001</v>
+        <v>IT0003649172#0000</v>
       </c>
       <c r="N21" s="22"/>
       <c r="O21" s="49" t="str">
@@ -14656,7 +14260,7 @@
         <v>IT0003268601</v>
       </c>
       <c r="P21" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H21,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H21,BTP!$J$95)</f>
         <v>IT0003644769</v>
       </c>
       <c r="Q21" s="23"/>
@@ -14699,7 +14303,7 @@
       </c>
       <c r="M22" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B22,L22,D22,E22,F22,G22,H22,I22,J22,K22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004014061#0001</v>
+        <v>IT0004014061#0000</v>
       </c>
       <c r="N22" s="22"/>
       <c r="O22" s="49" t="str">
@@ -14707,7 +14311,7 @@
         <v>IT0003268700</v>
       </c>
       <c r="P22" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H22,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H22,BTP!$J$95)</f>
         <v>IT0004009673</v>
       </c>
       <c r="Q22" s="23"/>
@@ -14750,7 +14354,7 @@
       </c>
       <c r="M23" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B23,L23,D23,E23,F23,G23,H23,I23,J23,K23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004359029#0001</v>
+        <v>IT0004359029#0000</v>
       </c>
       <c r="N23" s="22"/>
       <c r="O23" s="49" t="str">
@@ -14758,7 +14362,7 @@
         <v>IT0003268791</v>
       </c>
       <c r="P23" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H23,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H23,BTP!$J$95)</f>
         <v>IT0004356843</v>
       </c>
       <c r="Q23" s="23"/>
@@ -14801,7 +14405,7 @@
       </c>
       <c r="M24" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B24,L24,D24,E24,F24,G24,H24,I24,J24,K24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268460#0001</v>
+        <v>IT0003268460#0000</v>
       </c>
       <c r="N24" s="22"/>
       <c r="O24" s="49" t="str">
@@ -14809,7 +14413,7 @@
         <v>IT0003269062</v>
       </c>
       <c r="P24" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H24,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H24,BTP!$J$95)</f>
         <v>IT0003256820</v>
       </c>
       <c r="Q24" s="23"/>
@@ -14852,7 +14456,7 @@
       </c>
       <c r="M25" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B25,L25,D25,E25,F25,G25,H25,I25,J25,K25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003540371#0001</v>
+        <v>IT0003540371#0000</v>
       </c>
       <c r="N25" s="22"/>
       <c r="O25" s="49" t="str">
@@ -14860,7 +14464,7 @@
         <v>IT0003540405</v>
       </c>
       <c r="P25" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H25,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H25,BTP!$J$95)</f>
         <v>IT0003535157</v>
       </c>
       <c r="Q25" s="23"/>
@@ -14903,7 +14507,7 @@
       </c>
       <c r="M26" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B26,L26,D26,E26,F26,G26,H26,I26,J26,K26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004002801#0001</v>
+        <v>IT0004002801#0000</v>
       </c>
       <c r="N26" s="22"/>
       <c r="O26" s="49" t="str">
@@ -14911,7 +14515,7 @@
         <v>IT0004002850</v>
       </c>
       <c r="P26" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H26,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H26,BTP!$J$95)</f>
         <v>IT0003934657</v>
       </c>
       <c r="Q26" s="23"/>
@@ -14954,7 +14558,7 @@
       </c>
       <c r="M27" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B27,L27,D27,E27,F27,G27,H27,I27,J27,K27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004288574#0001</v>
+        <v>IT0004288574#0000</v>
       </c>
       <c r="N27" s="22"/>
       <c r="O27" s="49" t="str">
@@ -14962,7 +14566,7 @@
         <v>IT0004288640</v>
       </c>
       <c r="P27" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H27,BTP!$K$95)</f>
+        <f>_xll.qlBondMaturityLookup("StrippableBTPs",$H27,BTP!$J$95)</f>
         <v>IT0004286966</v>
       </c>
       <c r="Q27" s="23"/>
@@ -14982,7 +14586,7 @@
       <c r="L28" s="22"/>
       <c r="M28" s="22" t="str">
         <f>_xll.ohGroup("ResiduesFebAug",M8:M27,Permanent,,ObjectOverwrite)</f>
-        <v>ResiduesFebAug#0001</v>
+        <v>ResiduesFebAug#0000</v>
       </c>
       <c r="N28" s="22"/>
       <c r="O28" s="50"/>
@@ -15027,7 +14631,7 @@
       </c>
       <c r="M29" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B29,L29,D29,E29,F29,G29,H29,I29,J29,K29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003106561#0001</v>
+        <v>IT0003106561#0000</v>
       </c>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
@@ -15072,7 +14676,7 @@
       </c>
       <c r="M30" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B30,L30,D30,E30,F30,G30,H30,I30,J30,K30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003106579#0001</v>
+        <v>IT0003106579#0000</v>
       </c>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
@@ -15117,7 +14721,7 @@
       </c>
       <c r="M31" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B31,L31,D31,E31,F31,G31,H31,I31,J31,K31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003106587#0001</v>
+        <v>IT0003106587#0000</v>
       </c>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
@@ -15162,7 +14766,7 @@
       </c>
       <c r="M32" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B32,L32,D32,E32,F32,G32,H32,I32,J32,K32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003106595#0001</v>
+        <v>IT0003106595#0000</v>
       </c>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -15207,7 +14811,7 @@
       </c>
       <c r="M33" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B33,L33,D33,E33,F33,G33,H33,I33,J33,K33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003204945#0001</v>
+        <v>IT0003204945#0000</v>
       </c>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -15252,7 +14856,7 @@
       </c>
       <c r="M34" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B34,L34,D34,E34,F34,G34,H34,I34,J34,K34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246409#0001</v>
+        <v>IT0003246409#0000</v>
       </c>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -15297,7 +14901,7 @@
       </c>
       <c r="M35" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B35,L35,D35,E35,F35,G35,H35,I35,J35,K35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246391#0001</v>
+        <v>IT0003246391#0000</v>
       </c>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -15342,7 +14946,7 @@
       </c>
       <c r="M36" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B36,L36,D36,E36,F36,G36,H36,I36,J36,K36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246383#0001</v>
+        <v>IT0003246383#0000</v>
       </c>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -15387,7 +14991,7 @@
       </c>
       <c r="M37" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B37,L37,D37,E37,F37,G37,H37,I37,J37,K37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246375#0001</v>
+        <v>IT0003246375#0000</v>
       </c>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -15432,7 +15036,7 @@
       </c>
       <c r="M38" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B38,L38,D38,E38,F38,G38,H38,I38,J38,K38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246359#0001</v>
+        <v>IT0003246359#0000</v>
       </c>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -15477,7 +15081,7 @@
       </c>
       <c r="M39" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B39,L39,D39,E39,F39,G39,H39,I39,J39,K39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246342#0001</v>
+        <v>IT0003246342#0000</v>
       </c>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -15522,7 +15126,7 @@
       </c>
       <c r="M40" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B40,L40,D40,E40,F40,G40,H40,I40,J40,K40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246326#0001</v>
+        <v>IT0003246326#0000</v>
       </c>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -15567,7 +15171,7 @@
       </c>
       <c r="M41" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B41,L41,D41,E41,F41,G41,H41,I41,J41,K41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246318#0001</v>
+        <v>IT0003246318#0000</v>
       </c>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -15612,7 +15216,7 @@
       </c>
       <c r="M42" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B42,L42,D42,E42,F42,G42,H42,I42,J42,K42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246292#0001</v>
+        <v>IT0003246292#0000</v>
       </c>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -15657,7 +15261,7 @@
       </c>
       <c r="M43" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B43,L43,D43,E43,F43,G43,H43,I43,J43,K43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246284#0001</v>
+        <v>IT0003246284#0000</v>
       </c>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -15702,7 +15306,7 @@
       </c>
       <c r="M44" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B44,L44,D44,E44,F44,G44,H44,I44,J44,K44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003246268#0001</v>
+        <v>IT0003246268#0000</v>
       </c>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -15747,7 +15351,7 @@
       </c>
       <c r="M45" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B45,L45,D45,E45,F45,G45,H45,I45,J45,K45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268486#0001</v>
+        <v>IT0003268486#0000</v>
       </c>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -15792,7 +15396,7 @@
       </c>
       <c r="M46" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B46,L46,D46,E46,F46,G46,H46,I46,J46,K46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268494#0001</v>
+        <v>IT0003268494#0000</v>
       </c>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -15837,7 +15441,7 @@
       </c>
       <c r="M47" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B47,L47,D47,E47,F47,G47,H47,I47,J47,K47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268544#0001</v>
+        <v>IT0003268544#0000</v>
       </c>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -15882,7 +15486,7 @@
       </c>
       <c r="M48" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B48,L48,D48,E48,F48,G48,H48,I48,J48,K48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268585#0001</v>
+        <v>IT0003268585#0000</v>
       </c>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -15927,7 +15531,7 @@
       </c>
       <c r="M49" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B49,L49,D49,E49,F49,G49,H49,I49,J49,K49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268601#0001</v>
+        <v>IT0003268601#0000</v>
       </c>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -15972,7 +15576,7 @@
       </c>
       <c r="M50" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B50,L50,D50,E50,F50,G50,H50,I50,J50,K50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268635#0001</v>
+        <v>IT0003268635#0000</v>
       </c>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -16017,7 +15621,7 @@
       </c>
       <c r="M51" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B51,L51,D51,E51,F51,G51,H51,I51,J51,K51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268676#0001</v>
+        <v>IT0003268676#0000</v>
       </c>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -16062,7 +15666,7 @@
       </c>
       <c r="M52" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B52,L52,D52,E52,F52,G52,H52,I52,J52,K52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268700#0001</v>
+        <v>IT0003268700#0000</v>
       </c>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -16107,7 +15711,7 @@
       </c>
       <c r="M53" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B53,L53,D53,E53,F53,G53,H53,I53,J53,K53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268726#0001</v>
+        <v>IT0003268726#0000</v>
       </c>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -16152,7 +15756,7 @@
       </c>
       <c r="M54" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B54,L54,D54,E54,F54,G54,H54,I54,J54,K54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268742#0001</v>
+        <v>IT0003268742#0000</v>
       </c>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -16197,7 +15801,7 @@
       </c>
       <c r="M55" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B55,L55,D55,E55,F55,G55,H55,I55,J55,K55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268775#0001</v>
+        <v>IT0003268775#0000</v>
       </c>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -16242,7 +15846,7 @@
       </c>
       <c r="M56" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B56,L56,D56,E56,F56,G56,H56,I56,J56,K56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268791#0001</v>
+        <v>IT0003268791#0000</v>
       </c>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -16287,7 +15891,7 @@
       </c>
       <c r="M57" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B57,L57,D57,E57,F57,G57,H57,I57,J57,K57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268809#0001</v>
+        <v>IT0003268809#0000</v>
       </c>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -16332,7 +15936,7 @@
       </c>
       <c r="M58" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B58,L58,D58,E58,F58,G58,H58,I58,J58,K58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268817#0001</v>
+        <v>IT0003268817#0000</v>
       </c>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
@@ -16377,7 +15981,7 @@
       </c>
       <c r="M59" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B59,L59,D59,E59,F59,G59,H59,I59,J59,K59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268825#0001</v>
+        <v>IT0003268825#0000</v>
       </c>
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
@@ -16422,7 +16026,7 @@
       </c>
       <c r="M60" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B60,L60,D60,E60,F60,G60,H60,I60,J60,K60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268833#0001</v>
+        <v>IT0003268833#0000</v>
       </c>
       <c r="N60" s="22"/>
       <c r="O60" s="22"/>
@@ -16467,7 +16071,7 @@
       </c>
       <c r="M61" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B61,L61,D61,E61,F61,G61,H61,I61,J61,K61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268841#0001</v>
+        <v>IT0003268841#0000</v>
       </c>
       <c r="N61" s="22"/>
       <c r="O61" s="22"/>
@@ -16512,7 +16116,7 @@
       </c>
       <c r="M62" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B62,L62,D62,E62,F62,G62,H62,I62,J62,K62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268858#0001</v>
+        <v>IT0003268858#0000</v>
       </c>
       <c r="N62" s="22"/>
       <c r="O62" s="22"/>
@@ -16557,7 +16161,7 @@
       </c>
       <c r="M63" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B63,L63,D63,E63,F63,G63,H63,I63,J63,K63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268874#0001</v>
+        <v>IT0003268874#0000</v>
       </c>
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
@@ -16602,7 +16206,7 @@
       </c>
       <c r="M64" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B64,L64,D64,E64,F64,G64,H64,I64,J64,K64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268882#0001</v>
+        <v>IT0003268882#0000</v>
       </c>
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
@@ -16647,7 +16251,7 @@
       </c>
       <c r="M65" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B65,L65,D65,E65,F65,G65,H65,I65,J65,K65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268890#0001</v>
+        <v>IT0003268890#0000</v>
       </c>
       <c r="N65" s="22"/>
       <c r="O65" s="22"/>
@@ -16692,7 +16296,7 @@
       </c>
       <c r="M66" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B66,L66,D66,E66,F66,G66,H66,I66,J66,K66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268908#0001</v>
+        <v>IT0003268908#0000</v>
       </c>
       <c r="N66" s="22"/>
       <c r="O66" s="22"/>
@@ -16737,7 +16341,7 @@
       </c>
       <c r="M67" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B67,L67,D67,E67,F67,G67,H67,I67,J67,K67,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268924#0001</v>
+        <v>IT0003268924#0000</v>
       </c>
       <c r="N67" s="22"/>
       <c r="O67" s="22"/>
@@ -16782,7 +16386,7 @@
       </c>
       <c r="M68" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B68,L68,D68,E68,F68,G68,H68,I68,J68,K68,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268932#0001</v>
+        <v>IT0003268932#0000</v>
       </c>
       <c r="N68" s="22"/>
       <c r="O68" s="22"/>
@@ -16827,7 +16431,7 @@
       </c>
       <c r="M69" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B69,L69,D69,E69,F69,G69,H69,I69,J69,K69,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268957#0001</v>
+        <v>IT0003268957#0000</v>
       </c>
       <c r="N69" s="22"/>
       <c r="O69" s="22"/>
@@ -16872,7 +16476,7 @@
       </c>
       <c r="M70" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B70,L70,D70,E70,F70,G70,H70,I70,J70,K70,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268973#0001</v>
+        <v>IT0003268973#0000</v>
       </c>
       <c r="N70" s="22"/>
       <c r="O70" s="22"/>
@@ -16917,7 +16521,7 @@
       </c>
       <c r="M71" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B71,L71,D71,E71,F71,G71,H71,I71,J71,K71,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003268999#0001</v>
+        <v>IT0003268999#0000</v>
       </c>
       <c r="N71" s="22"/>
       <c r="O71" s="22"/>
@@ -16962,7 +16566,7 @@
       </c>
       <c r="M72" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B72,L72,D72,E72,F72,G72,H72,I72,J72,K72,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003269013#0001</v>
+        <v>IT0003269013#0000</v>
       </c>
       <c r="N72" s="22"/>
       <c r="O72" s="22"/>
@@ -17007,7 +16611,7 @@
       </c>
       <c r="M73" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B73,L73,D73,E73,F73,G73,H73,I73,J73,K73,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003269021#0001</v>
+        <v>IT0003269021#0000</v>
       </c>
       <c r="N73" s="22"/>
       <c r="O73" s="22"/>
@@ -17052,7 +16656,7 @@
       </c>
       <c r="M74" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B74,L74,D74,E74,F74,G74,H74,I74,J74,K74,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003269039#0001</v>
+        <v>IT0003269039#0000</v>
       </c>
       <c r="N74" s="22"/>
       <c r="O74" s="22"/>
@@ -17097,7 +16701,7 @@
       </c>
       <c r="M75" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B75,L75,D75,E75,F75,G75,H75,I75,J75,K75,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003269062#0001</v>
+        <v>IT0003269062#0000</v>
       </c>
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
@@ -17142,7 +16746,7 @@
       </c>
       <c r="M76" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B76,L76,D76,E76,F76,G76,H76,I76,J76,K76,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003540389#0001</v>
+        <v>IT0003540389#0000</v>
       </c>
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
@@ -17187,7 +16791,7 @@
       </c>
       <c r="M77" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B77,L77,D77,E77,F77,G77,H77,I77,J77,K77,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003540397#0001</v>
+        <v>IT0003540397#0000</v>
       </c>
       <c r="N77" s="22"/>
       <c r="O77" s="22"/>
@@ -17232,7 +16836,7 @@
       </c>
       <c r="M78" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B78,L78,D78,E78,F78,G78,H78,I78,J78,K78,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003540405#0001</v>
+        <v>IT0003540405#0000</v>
       </c>
       <c r="N78" s="22"/>
       <c r="O78" s="22"/>
@@ -17277,7 +16881,7 @@
       </c>
       <c r="M79" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B79,L79,D79,E79,F79,G79,H79,I79,J79,K79,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004002819#0001</v>
+        <v>IT0004002819#0000</v>
       </c>
       <c r="N79" s="22"/>
       <c r="O79" s="22"/>
@@ -17322,7 +16926,7 @@
       </c>
       <c r="M80" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B80,L80,D80,E80,F80,G80,H80,I80,J80,K80,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004002827#0001</v>
+        <v>IT0004002827#0000</v>
       </c>
       <c r="N80" s="22"/>
       <c r="O80" s="22"/>
@@ -17367,7 +16971,7 @@
       </c>
       <c r="M81" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B81,L81,D81,E81,F81,G81,H81,I81,J81,K81,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004002835#0001</v>
+        <v>IT0004002835#0000</v>
       </c>
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
@@ -17412,7 +17016,7 @@
       </c>
       <c r="M82" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B82,L82,D82,E82,F82,G82,H82,I82,J82,K82,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004002843#0001</v>
+        <v>IT0004002843#0000</v>
       </c>
       <c r="N82" s="22"/>
       <c r="O82" s="22"/>
@@ -17457,7 +17061,7 @@
       </c>
       <c r="M83" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B83,L83,D83,E83,F83,G83,H83,I83,J83,K83,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004002850#0001</v>
+        <v>IT0004002850#0000</v>
       </c>
       <c r="N83" s="22"/>
       <c r="O83" s="22"/>
@@ -17502,7 +17106,7 @@
       </c>
       <c r="M84" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B84,L84,D84,E84,F84,G84,H84,I84,J84,K84,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004288590#0001</v>
+        <v>IT0004288590#0000</v>
       </c>
       <c r="N84" s="22"/>
       <c r="O84" s="22"/>
@@ -17547,7 +17151,7 @@
       </c>
       <c r="M85" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B85,L85,D85,E85,F85,G85,H85,I85,J85,K85,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004288608#0001</v>
+        <v>IT0004288608#0000</v>
       </c>
       <c r="N85" s="22"/>
       <c r="O85" s="22"/>
@@ -17592,7 +17196,7 @@
       </c>
       <c r="M86" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B86,L86,D86,E86,F86,G86,H86,I86,J86,K86,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004288616#0001</v>
+        <v>IT0004288616#0000</v>
       </c>
       <c r="N86" s="22"/>
       <c r="O86" s="22"/>
@@ -17637,7 +17241,7 @@
       </c>
       <c r="M87" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B87,L87,D87,E87,F87,G87,H87,I87,J87,K87,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004288624#0001</v>
+        <v>IT0004288624#0000</v>
       </c>
       <c r="N87" s="22"/>
       <c r="O87" s="22"/>
@@ -17682,7 +17286,7 @@
       </c>
       <c r="M88" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B88,L88,D88,E88,F88,G88,H88,I88,J88,K88,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004288640#0001</v>
+        <v>IT0004288640#0000</v>
       </c>
       <c r="N88" s="22"/>
       <c r="O88" s="22"/>
@@ -17704,7 +17308,7 @@
       <c r="L89" s="45"/>
       <c r="M89" s="45" t="str">
         <f>_xll.ohGroup("CouponsFebAug",M29:M88,Permanent,,ObjectOverwrite)</f>
-        <v>CouponsFebAug#0001</v>
+        <v>CouponsFebAug#0000</v>
       </c>
       <c r="N89" s="45"/>
       <c r="O89" s="45"/>
@@ -17832,9 +17436,9 @@
       <c r="B4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="21" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(M8:M58,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>51</v>
+        <v>---</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
@@ -17975,7 +17579,7 @@
       </c>
       <c r="M8" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B8,L8,D8,E8,F8,G8,H8,I8,J8,K8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001461844#0001</v>
+        <v>IT0001461844#0000</v>
       </c>
       <c r="N8" s="22"/>
       <c r="O8" s="49" t="str">
@@ -17983,7 +17587,7 @@
         <v>IT0001247060</v>
       </c>
       <c r="P8" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup(BTP!$K$95,$H8)</f>
+        <f>_xll.qlBondMaturityLookup(BTP!$J$95,$H8)</f>
         <v>IT0001448619</v>
       </c>
       <c r="Q8" s="23"/>
@@ -18026,7 +17630,7 @@
       </c>
       <c r="M9" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B9,L9,D9,E9,F9,G9,H9,I9,J9,K9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001246799#0001</v>
+        <v>IT0001246799#0000</v>
       </c>
       <c r="N9" s="22"/>
       <c r="O9" s="49" t="str">
@@ -18034,7 +17638,7 @@
         <v>IT0001247326</v>
       </c>
       <c r="P9" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup(BTP!$K$95,$H9)</f>
+        <f>_xll.qlBondMaturityLookup(BTP!$J$95,$H9)</f>
         <v>IT0000366655</v>
       </c>
       <c r="Q9" s="23"/>
@@ -18077,7 +17681,7 @@
       </c>
       <c r="M10" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B10,L10,D10,E10,F10,G10,H10,I10,J10,K10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001246807#0001</v>
+        <v>IT0001246807#0000</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="49" t="str">
@@ -18085,7 +17689,7 @@
         <v>IT0001247383</v>
       </c>
       <c r="P10" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup(BTP!$K$95,$H10)</f>
+        <f>_xll.qlBondMaturityLookup(BTP!$J$95,$H10)</f>
         <v>IT0001086567</v>
       </c>
       <c r="Q10" s="23"/>
@@ -18128,7 +17732,7 @@
       </c>
       <c r="M11" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B11,L11,D11,E11,F11,G11,H11,I11,J11,K11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001246815#0001</v>
+        <v>IT0001246815#0000</v>
       </c>
       <c r="N11" s="22"/>
       <c r="O11" s="49" t="str">
@@ -18136,7 +17740,7 @@
         <v>IT0001247409</v>
       </c>
       <c r="P11" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup(BTP!$K$95,$H11)</f>
+        <f>_xll.qlBondMaturityLookup(BTP!$J$95,$H11)</f>
         <v>IT0001174611</v>
       </c>
       <c r="Q11" s="23"/>
@@ -18179,7 +17783,7 @@
       </c>
       <c r="M12" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B12,L12,D12,E12,F12,G12,H12,I12,J12,K12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001312773#0001</v>
+        <v>IT0001312773#0000</v>
       </c>
       <c r="N12" s="22"/>
       <c r="O12" s="49" t="str">
@@ -18187,7 +17791,7 @@
         <v>IT0001312815</v>
       </c>
       <c r="P12" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup(BTP!$K$95,$H12)</f>
+        <f>_xll.qlBondMaturityLookup(BTP!$J$95,$H12)</f>
         <v>IT0001278511</v>
       </c>
       <c r="Q12" s="23"/>
@@ -18230,7 +17834,7 @@
       </c>
       <c r="M13" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B13,L13,D13,E13,F13,G13,H13,I13,J13,K13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001464186#0001</v>
+        <v>IT0001464186#0000</v>
       </c>
       <c r="N13" s="22"/>
       <c r="O13" s="49" t="str">
@@ -18238,7 +17842,7 @@
         <v>IT0001464210</v>
       </c>
       <c r="P13" s="49" t="str">
-        <f>_xll.qlBondMaturityLookup(BTP!$K$95,$H13)</f>
+        <f>_xll.qlBondMaturityLookup(BTP!$J$95,$H13)</f>
         <v>IT0001444378</v>
       </c>
       <c r="Q13" s="23"/>
@@ -18258,7 +17862,7 @@
       <c r="L14" s="22"/>
       <c r="M14" s="22" t="str">
         <f>_xll.ohGroup("ResiduesMayNov",M8:M13,Permanent,,ObjectOverwrite)</f>
-        <v>ResiduesMayNov#0001</v>
+        <v>ResiduesMayNov#0000</v>
       </c>
       <c r="N14" s="22"/>
       <c r="O14" s="50"/>
@@ -18303,7 +17907,7 @@
       </c>
       <c r="M15" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B15,L15,D15,E15,F15,G15,H15,I15,J15,K15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247052#0001</v>
+        <v>IT0001247052#0000</v>
       </c>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
@@ -18348,7 +17952,7 @@
       </c>
       <c r="M16" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B16,L16,D16,E16,F16,G16,H16,I16,J16,K16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247060#0001</v>
+        <v>IT0001247060#0000</v>
       </c>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
@@ -18393,7 +17997,7 @@
       </c>
       <c r="M17" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B17,L17,D17,E17,F17,G17,H17,I17,J17,K17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247078#0001</v>
+        <v>IT0001247078#0000</v>
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -18438,7 +18042,7 @@
       </c>
       <c r="M18" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B18,L18,D18,E18,F18,G18,H18,I18,J18,K18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247086#0001</v>
+        <v>IT0001247086#0000</v>
       </c>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -18483,7 +18087,7 @@
       </c>
       <c r="M19" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B19,L19,D19,E19,F19,G19,H19,I19,J19,K19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247094#0001</v>
+        <v>IT0001247094#0000</v>
       </c>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -18528,7 +18132,7 @@
       </c>
       <c r="M20" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B20,L20,D20,E20,F20,G20,H20,I20,J20,K20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247102#0001</v>
+        <v>IT0001247102#0000</v>
       </c>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -18573,7 +18177,7 @@
       </c>
       <c r="M21" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B21,L21,D21,E21,F21,G21,H21,I21,J21,K21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247110#0001</v>
+        <v>IT0001247110#0000</v>
       </c>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -18618,7 +18222,7 @@
       </c>
       <c r="M22" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B22,L22,D22,E22,F22,G22,H22,I22,J22,K22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247128#0001</v>
+        <v>IT0001247128#0000</v>
       </c>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
@@ -18663,7 +18267,7 @@
       </c>
       <c r="M23" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B23,L23,D23,E23,F23,G23,H23,I23,J23,K23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247136#0001</v>
+        <v>IT0001247136#0000</v>
       </c>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
@@ -18708,7 +18312,7 @@
       </c>
       <c r="M24" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B24,L24,D24,E24,F24,G24,H24,I24,J24,K24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247144#0001</v>
+        <v>IT0001247144#0000</v>
       </c>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
@@ -18753,7 +18357,7 @@
       </c>
       <c r="M25" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B25,L25,D25,E25,F25,G25,H25,I25,J25,K25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247151#0001</v>
+        <v>IT0001247151#0000</v>
       </c>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
@@ -18798,7 +18402,7 @@
       </c>
       <c r="M26" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B26,L26,D26,E26,F26,G26,H26,I26,J26,K26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247169#0001</v>
+        <v>IT0001247169#0000</v>
       </c>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
@@ -18843,7 +18447,7 @@
       </c>
       <c r="M27" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B27,L27,D27,E27,F27,G27,H27,I27,J27,K27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247177#0001</v>
+        <v>IT0001247177#0000</v>
       </c>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
@@ -18888,7 +18492,7 @@
       </c>
       <c r="M28" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B28,L28,D28,E28,F28,G28,H28,I28,J28,K28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247185#0001</v>
+        <v>IT0001247185#0000</v>
       </c>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
@@ -18933,7 +18537,7 @@
       </c>
       <c r="M29" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B29,L29,D29,E29,F29,G29,H29,I29,J29,K29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247193#0001</v>
+        <v>IT0001247193#0000</v>
       </c>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
@@ -18978,7 +18582,7 @@
       </c>
       <c r="M30" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B30,L30,D30,E30,F30,G30,H30,I30,J30,K30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247201#0001</v>
+        <v>IT0001247201#0000</v>
       </c>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
@@ -19023,7 +18627,7 @@
       </c>
       <c r="M31" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B31,L31,D31,E31,F31,G31,H31,I31,J31,K31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247219#0001</v>
+        <v>IT0001247219#0000</v>
       </c>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
@@ -19068,7 +18672,7 @@
       </c>
       <c r="M32" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B32,L32,D32,E32,F32,G32,H32,I32,J32,K32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247227#0001</v>
+        <v>IT0001247227#0000</v>
       </c>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -19113,7 +18717,7 @@
       </c>
       <c r="M33" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B33,L33,D33,E33,F33,G33,H33,I33,J33,K33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247235#0001</v>
+        <v>IT0001247235#0000</v>
       </c>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -19158,7 +18762,7 @@
       </c>
       <c r="M34" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B34,L34,D34,E34,F34,G34,H34,I34,J34,K34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247243#0001</v>
+        <v>IT0001247243#0000</v>
       </c>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -19203,7 +18807,7 @@
       </c>
       <c r="M35" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B35,L35,D35,E35,F35,G35,H35,I35,J35,K35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247250#0001</v>
+        <v>IT0001247250#0000</v>
       </c>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -19248,7 +18852,7 @@
       </c>
       <c r="M36" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B36,L36,D36,E36,F36,G36,H36,I36,J36,K36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247268#0001</v>
+        <v>IT0001247268#0000</v>
       </c>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -19293,7 +18897,7 @@
       </c>
       <c r="M37" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B37,L37,D37,E37,F37,G37,H37,I37,J37,K37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247276#0001</v>
+        <v>IT0001247276#0000</v>
       </c>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -19338,7 +18942,7 @@
       </c>
       <c r="M38" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B38,L38,D38,E38,F38,G38,H38,I38,J38,K38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247284#0001</v>
+        <v>IT0001247284#0000</v>
       </c>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -19383,7 +18987,7 @@
       </c>
       <c r="M39" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B39,L39,D39,E39,F39,G39,H39,I39,J39,K39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247292#0001</v>
+        <v>IT0001247292#0000</v>
       </c>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -19428,7 +19032,7 @@
       </c>
       <c r="M40" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B40,L40,D40,E40,F40,G40,H40,I40,J40,K40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247300#0001</v>
+        <v>IT0001247300#0000</v>
       </c>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -19473,7 +19077,7 @@
       </c>
       <c r="M41" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B41,L41,D41,E41,F41,G41,H41,I41,J41,K41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247318#0001</v>
+        <v>IT0001247318#0000</v>
       </c>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -19518,7 +19122,7 @@
       </c>
       <c r="M42" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B42,L42,D42,E42,F42,G42,H42,I42,J42,K42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247326#0001</v>
+        <v>IT0001247326#0000</v>
       </c>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -19563,7 +19167,7 @@
       </c>
       <c r="M43" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B43,L43,D43,E43,F43,G43,H43,I43,J43,K43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247334#0001</v>
+        <v>IT0001247334#0000</v>
       </c>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -19608,7 +19212,7 @@
       </c>
       <c r="M44" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B44,L44,D44,E44,F44,G44,H44,I44,J44,K44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247342#0001</v>
+        <v>IT0001247342#0000</v>
       </c>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -19653,7 +19257,7 @@
       </c>
       <c r="M45" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B45,L45,D45,E45,F45,G45,H45,I45,J45,K45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247359#0001</v>
+        <v>IT0001247359#0000</v>
       </c>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -19698,7 +19302,7 @@
       </c>
       <c r="M46" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B46,L46,D46,E46,F46,G46,H46,I46,J46,K46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247367#0001</v>
+        <v>IT0001247367#0000</v>
       </c>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -19743,7 +19347,7 @@
       </c>
       <c r="M47" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B47,L47,D47,E47,F47,G47,H47,I47,J47,K47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247375#0001</v>
+        <v>IT0001247375#0000</v>
       </c>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -19788,7 +19392,7 @@
       </c>
       <c r="M48" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B48,L48,D48,E48,F48,G48,H48,I48,J48,K48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247383#0001</v>
+        <v>IT0001247383#0000</v>
       </c>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -19833,7 +19437,7 @@
       </c>
       <c r="M49" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B49,L49,D49,E49,F49,G49,H49,I49,J49,K49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247391#0001</v>
+        <v>IT0001247391#0000</v>
       </c>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -19878,7 +19482,7 @@
       </c>
       <c r="M50" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B50,L50,D50,E50,F50,G50,H50,I50,J50,K50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001247409#0001</v>
+        <v>IT0001247409#0000</v>
       </c>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -19923,7 +19527,7 @@
       </c>
       <c r="M51" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B51,L51,D51,E51,F51,G51,H51,I51,J51,K51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001312781#0001</v>
+        <v>IT0001312781#0000</v>
       </c>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -19968,7 +19572,7 @@
       </c>
       <c r="M52" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B52,L52,D52,E52,F52,G52,H52,I52,J52,K52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001312799#0001</v>
+        <v>IT0001312799#0000</v>
       </c>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -20013,7 +19617,7 @@
       </c>
       <c r="M53" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B53,L53,D53,E53,F53,G53,H53,I53,J53,K53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001312807#0001</v>
+        <v>IT0001312807#0000</v>
       </c>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -20058,7 +19662,7 @@
       </c>
       <c r="M54" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B54,L54,D54,E54,F54,G54,H54,I54,J54,K54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001312815#0001</v>
+        <v>IT0001312815#0000</v>
       </c>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -20103,7 +19707,7 @@
       </c>
       <c r="M55" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B55,L55,D55,E55,F55,G55,H55,I55,J55,K55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001464194#0001</v>
+        <v>IT0001464194#0000</v>
       </c>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -20148,7 +19752,7 @@
       </c>
       <c r="M56" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B56,L56,D56,E56,F56,G56,H56,I56,J56,K56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001464202#0001</v>
+        <v>IT0001464202#0000</v>
       </c>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -20193,7 +19797,7 @@
       </c>
       <c r="M57" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B57,L57,D57,E57,F57,G57,H57,I57,J57,K57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001464210#0001</v>
+        <v>IT0001464210#0000</v>
       </c>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -20215,7 +19819,7 @@
       <c r="L58" s="45"/>
       <c r="M58" s="45" t="str">
         <f>_xll.ohGroup("CouponsMayNov",M15:M57,Permanent,,ObjectOverwrite)</f>
-        <v>CouponsMayNov#0001</v>
+        <v>CouponsMayNov#0000</v>
       </c>
       <c r="N58" s="45"/>
       <c r="O58" s="45"/>
@@ -20331,9 +19935,9 @@
       <c r="B4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="21" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(M8:M12,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>1</v>
+        <v>---</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
@@ -20531,7 +20135,7 @@
       </c>
       <c r="M12" s="31" t="str">
         <f>_xll.qlZeroCouponBond(B12,L12,D12,E12,F12,G12,H12,I12,J12,K12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004491343#0001</v>
+        <v>IT0004491343#0000</v>
       </c>
       <c r="N12" s="27"/>
     </row>

--- a/QuantLibXL/Data2/XLS/EUR_ITALY.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_ITALY.xlsx
@@ -1755,7 +1755,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1813,6 +1813,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2058,7 +2064,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
@@ -2282,6 +2288,7 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2708,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="9">
-        <v>41928.712071759262</v>
+        <v>41929.461469907408</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -4736,7 +4743,7 @@
       <pane xSplit="9" ySplit="7" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4745,11 +4752,11 @@
     <col min="2" max="2" width="25" style="28" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="8" style="28" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="11" style="28" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="8" width="17.28515625" style="28" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="22.42578125" style="28" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="20.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="11" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="8" width="17.28515625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="22.42578125" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="20.28515625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="15.140625" style="28" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" style="28" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13.140625" style="28" bestFit="1" customWidth="1"/>
@@ -4875,7 +4882,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="51">
         <f>_xll.qlBondSettlementDate(J8,)</f>
-        <v>41932</v>
+        <v>41933</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
@@ -5999,36 +6006,36 @@
     </row>
     <row r="30" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="63"/>
-      <c r="B30" s="89" t="str">
+      <c r="B30" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(J30)</f>
         <v/>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="120" t="s">
         <v>406</v>
       </c>
-      <c r="D30" s="90">
+      <c r="D30" s="121">
         <v>41730</v>
       </c>
-      <c r="E30" s="91">
+      <c r="E30" s="122">
         <v>0.03</v>
       </c>
-      <c r="F30" s="92">
-        <v>100</v>
-      </c>
-      <c r="G30" s="90">
+      <c r="F30" s="123">
+        <v>100</v>
+      </c>
+      <c r="G30" s="121">
         <v>40634</v>
       </c>
-      <c r="H30" s="90">
+      <c r="H30" s="121">
         <v>40634</v>
       </c>
-      <c r="I30" s="83" t="s">
+      <c r="I30" s="124" t="s">
         <v>474</v>
       </c>
-      <c r="J30" s="93" t="str">
+      <c r="J30" s="125" t="str">
         <f>_xll.qlBTP2(C30,I30,D30,E30,F30,G30,H30,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004707995#0000</v>
       </c>
-      <c r="K30" s="94" t="b">
+      <c r="K30" s="125" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6048,36 +6055,36 @@
     </row>
     <row r="31" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="63"/>
-      <c r="B31" s="89" t="str">
+      <c r="B31" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(J31)</f>
         <v/>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="90">
+      <c r="D31" s="121">
         <v>41791</v>
       </c>
-      <c r="E31" s="91">
+      <c r="E31" s="122">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F31" s="92">
-        <v>100</v>
-      </c>
-      <c r="G31" s="90">
+      <c r="F31" s="123">
+        <v>100</v>
+      </c>
+      <c r="G31" s="121">
         <v>39965</v>
       </c>
-      <c r="H31" s="90">
+      <c r="H31" s="121">
         <v>39979</v>
       </c>
-      <c r="I31" s="83" t="s">
+      <c r="I31" s="124" t="s">
         <v>475</v>
       </c>
-      <c r="J31" s="93" t="str">
+      <c r="J31" s="125" t="str">
         <f>_xll.qlBTP2(C31,I31,D31,E31,F31,G31,H31,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004505076#0000</v>
       </c>
-      <c r="K31" s="94" t="b">
+      <c r="K31" s="125" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6097,36 +6104,36 @@
     </row>
     <row r="32" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="63"/>
-      <c r="B32" s="89" t="str">
+      <c r="B32" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(J32)</f>
         <v/>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="120" t="s">
         <v>420</v>
       </c>
-      <c r="D32" s="90">
+      <c r="D32" s="121">
         <v>41821</v>
       </c>
-      <c r="E32" s="91">
+      <c r="E32" s="122">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="F32" s="92">
-        <v>100</v>
-      </c>
-      <c r="G32" s="90">
+      <c r="F32" s="123">
+        <v>100</v>
+      </c>
+      <c r="G32" s="121">
         <v>40725</v>
       </c>
-      <c r="H32" s="90">
+      <c r="H32" s="121">
         <v>40756</v>
       </c>
-      <c r="I32" s="83" t="s">
+      <c r="I32" s="124" t="s">
         <v>476</v>
       </c>
-      <c r="J32" s="93" t="str">
+      <c r="J32" s="125" t="str">
         <f>_xll.qlBTP2(C32,I32,D32,E32,F32,G32,H32,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004750409#0000</v>
       </c>
-      <c r="K32" s="94" t="b">
+      <c r="K32" s="125" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6146,36 +6153,36 @@
     </row>
     <row r="33" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="63"/>
-      <c r="B33" s="89" t="str">
+      <c r="B33" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(J33)</f>
         <v/>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="90">
+      <c r="D33" s="121">
         <v>41852</v>
       </c>
-      <c r="E33" s="91">
+      <c r="E33" s="122">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="F33" s="92">
-        <v>100</v>
-      </c>
-      <c r="G33" s="90">
+      <c r="F33" s="123">
+        <v>100</v>
+      </c>
+      <c r="G33" s="121">
         <v>38018</v>
       </c>
-      <c r="H33" s="90">
+      <c r="H33" s="121">
         <v>38019</v>
       </c>
-      <c r="I33" s="83" t="s">
+      <c r="I33" s="124" t="s">
         <v>477</v>
       </c>
-      <c r="J33" s="93" t="str">
+      <c r="J33" s="125" t="str">
         <f>_xll.qlBTP2(C33,I33,D33,E33,F33,G33,H33,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0003618383#0000</v>
       </c>
-      <c r="K33" s="94" t="b">
+      <c r="K33" s="125" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -6195,36 +6202,36 @@
     </row>
     <row r="34" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="63"/>
-      <c r="B34" s="89" t="str">
+      <c r="B34" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(J34)</f>
         <v/>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="120" t="s">
         <v>427</v>
       </c>
-      <c r="D34" s="90">
+      <c r="D34" s="121">
         <v>41958</v>
       </c>
-      <c r="E34" s="91">
+      <c r="E34" s="122">
         <v>0.06</v>
       </c>
-      <c r="F34" s="92">
-        <v>100</v>
-      </c>
-      <c r="G34" s="90">
+      <c r="F34" s="123">
+        <v>100</v>
+      </c>
+      <c r="G34" s="121">
         <v>40862</v>
       </c>
-      <c r="H34" s="90">
+      <c r="H34" s="121">
         <v>40878</v>
       </c>
-      <c r="I34" s="83" t="s">
+      <c r="I34" s="124" t="s">
         <v>478</v>
       </c>
-      <c r="J34" s="93" t="str">
+      <c r="J34" s="125" t="str">
         <f>_xll.qlBTP2(C34,I34,D34,E34,F34,G34,H34,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004780380#0000</v>
       </c>
-      <c r="K34" s="94" t="b">
+      <c r="K34" s="125" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6269,7 +6276,7 @@
       <c r="I35" s="83" t="s">
         <v>479</v>
       </c>
-      <c r="J35" s="93" t="str">
+      <c r="J35" s="131" t="str">
         <f>_xll.qlBTP2(C35,I35,D35,E35,F35,G35,H35,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0003719918#0000</v>
       </c>
@@ -6318,7 +6325,7 @@
       <c r="I36" s="83" t="s">
         <v>480</v>
       </c>
-      <c r="J36" s="93" t="str">
+      <c r="J36" s="131" t="str">
         <f>_xll.qlBTP2(C36,I36,D36,E36,F36,G36,H36,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004805070#0000</v>
       </c>
@@ -6367,7 +6374,7 @@
       <c r="I37" s="83" t="s">
         <v>481</v>
       </c>
-      <c r="J37" s="93" t="str">
+      <c r="J37" s="131" t="str">
         <f>_xll.qlBTP2(C37,I37,D37,E37,F37,G37,H37,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004568272#0000</v>
       </c>
@@ -6416,7 +6423,7 @@
       <c r="I38" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="J38" s="93" t="str">
+      <c r="J38" s="131" t="str">
         <f>_xll.qlBTP2(C38,I38,D38,E38,F38,G38,H38,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004615917#0000</v>
       </c>
@@ -6465,7 +6472,7 @@
       <c r="I39" s="83" t="s">
         <v>483</v>
       </c>
-      <c r="J39" s="93" t="str">
+      <c r="J39" s="131" t="str">
         <f>_xll.qlBTP2(C39,I39,D39,E39,F39,G39,H39,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004840788#0000</v>
       </c>
@@ -6514,7 +6521,7 @@
       <c r="I40" s="83" t="s">
         <v>484</v>
       </c>
-      <c r="J40" s="93" t="str">
+      <c r="J40" s="131" t="str">
         <f>_xll.qlBTP2(C40,I40,D40,E40,F40,G40,H40,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0003844534#0000</v>
       </c>
@@ -6563,7 +6570,7 @@
       <c r="I41" s="83" t="s">
         <v>485</v>
       </c>
-      <c r="J41" s="93" t="str">
+      <c r="J41" s="131" t="str">
         <f>_xll.qlBTP2(C41,I41,D41,E41,F41,G41,H41,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004656275#0000</v>
       </c>
@@ -6611,7 +6618,7 @@
       <c r="I42" s="83" t="s">
         <v>486</v>
       </c>
-      <c r="J42" s="93" t="str">
+      <c r="J42" s="131" t="str">
         <f>_xll.qlBTP2(C42,I42,D42,E42,F42,G42,H42,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004880990#0000</v>
       </c>
@@ -6660,7 +6667,7 @@
       <c r="I43" s="83" t="s">
         <v>487</v>
       </c>
-      <c r="J43" s="93" t="str">
+      <c r="J43" s="131" t="str">
         <f>_xll.qlBTP2(C43,I43,D43,E43,F43,G43,H43,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004712748#0000</v>
       </c>
@@ -6708,7 +6715,7 @@
       <c r="I44" s="83" t="s">
         <v>488</v>
       </c>
-      <c r="J44" s="93" t="str">
+      <c r="J44" s="131" t="str">
         <f>_xll.qlBTP2(C44,I44,D44,E44,F44,G44,H44,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004917792#0000</v>
       </c>
@@ -6757,7 +6764,7 @@
       <c r="I45" s="83" t="s">
         <v>489</v>
       </c>
-      <c r="J45" s="93" t="str">
+      <c r="J45" s="131" t="str">
         <f>_xll.qlBTP2(C45,I45,D45,E45,F45,G45,H45,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004019581#0000</v>
       </c>
@@ -6806,7 +6813,7 @@
       <c r="I46" s="83" t="s">
         <v>490</v>
       </c>
-      <c r="J46" s="93" t="str">
+      <c r="J46" s="131" t="str">
         <f>_xll.qlBTP2(C46,I46,D46,E46,F46,G46,H46,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004761950#0000</v>
       </c>
@@ -6851,7 +6858,7 @@
       <c r="I47" s="83" t="s">
         <v>491</v>
       </c>
-      <c r="J47" s="93" t="str">
+      <c r="J47" s="131" t="str">
         <f>_xll.qlBTP2(C47,I47,D47,E47,F47,G47,H47,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004960826#0000</v>
       </c>
@@ -6897,7 +6904,7 @@
       <c r="I48" s="83" t="s">
         <v>492</v>
       </c>
-      <c r="J48" s="93" t="str">
+      <c r="J48" s="131" t="str">
         <f>_xll.qlBTP2(C48,I48,D48,E48,F48,G48,H48,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004987191#0000</v>
       </c>
@@ -6946,7 +6953,7 @@
       <c r="I49" s="83" t="s">
         <v>493</v>
       </c>
-      <c r="J49" s="93" t="str">
+      <c r="J49" s="131" t="str">
         <f>_xll.qlBTP2(C49,I49,D49,E49,F49,G49,H49,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004164775#0000</v>
       </c>
@@ -6995,7 +7002,7 @@
       <c r="I50" s="83" t="s">
         <v>494</v>
       </c>
-      <c r="J50" s="93" t="str">
+      <c r="J50" s="131" t="str">
         <f>_xll.qlBTP2(C50,I50,D50,E50,F50,G50,H50,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004793474#0000</v>
       </c>
@@ -7043,7 +7050,7 @@
       <c r="I51" s="83" t="s">
         <v>495</v>
       </c>
-      <c r="J51" s="93" t="str">
+      <c r="J51" s="131" t="str">
         <f>_xll.qlBTP2(C51,I51,D51,E51,F51,G51,H51,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004820426#0000</v>
       </c>
@@ -7091,7 +7098,7 @@
       <c r="I52" s="83" t="s">
         <v>496</v>
       </c>
-      <c r="J52" s="93" t="str">
+      <c r="J52" s="131" t="str">
         <f>_xll.qlBTP2(C52,I52,D52,E52,F52,G52,H52,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0003242747#0000</v>
       </c>
@@ -7140,7 +7147,7 @@
       <c r="I53" s="83" t="s">
         <v>497</v>
       </c>
-      <c r="J53" s="93" t="str">
+      <c r="J53" s="131" t="str">
         <f>_xll.qlBTP2(C53,I53,D53,E53,F53,G53,H53,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004867070#0000</v>
       </c>
@@ -7188,7 +7195,7 @@
       <c r="I54" s="83" t="s">
         <v>498</v>
       </c>
-      <c r="J54" s="93" t="str">
+      <c r="J54" s="131" t="str">
         <f>_xll.qlBTP2(C54,I54,D54,E54,F54,G54,H54,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004273493#0000</v>
       </c>
@@ -7237,7 +7244,7 @@
       <c r="I55" s="83" t="s">
         <v>499</v>
       </c>
-      <c r="J55" s="93" t="str">
+      <c r="J55" s="131" t="str">
         <f>_xll.qlBTP2(C55,I55,D55,E55,F55,G55,H55,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004907843#0000</v>
       </c>
@@ -7285,7 +7292,7 @@
       <c r="I56" s="83" t="s">
         <v>500</v>
       </c>
-      <c r="J56" s="93" t="str">
+      <c r="J56" s="131" t="str">
         <f>_xll.qlBTP2(C56,I56,D56,E56,F56,G56,H56,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004361041#0000</v>
       </c>
@@ -7331,7 +7338,7 @@
       <c r="I57" s="83" t="s">
         <v>501</v>
       </c>
-      <c r="J57" s="93" t="str">
+      <c r="J57" s="131" t="str">
         <f>_xll.qlBTP2(C57,I57,D57,E57,F57,G57,H57,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004957574#0000</v>
       </c>
@@ -7379,7 +7386,7 @@
       <c r="I58" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="J58" s="93" t="str">
+      <c r="J58" s="131" t="str">
         <f>_xll.qlBTP2(C58,I58,D58,E58,F58,G58,H58,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0003493258#0000</v>
       </c>
@@ -7428,7 +7435,7 @@
       <c r="I59" s="83" t="s">
         <v>503</v>
       </c>
-      <c r="J59" s="93" t="str">
+      <c r="J59" s="131" t="str">
         <f>_xll.qlBTP2(C59,I59,D59,E59,F59,G59,H59,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004423957#0000</v>
       </c>
@@ -7474,7 +7481,7 @@
       <c r="I60" s="83" t="s">
         <v>504</v>
       </c>
-      <c r="J60" s="93" t="str">
+      <c r="J60" s="131" t="str">
         <f>_xll.qlBTP2(C60,I60,D60,E60,F60,G60,H60,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004992308#0000</v>
       </c>
@@ -7520,7 +7527,7 @@
       <c r="I61" s="83" t="s">
         <v>505</v>
       </c>
-      <c r="J61" s="93" t="str">
+      <c r="J61" s="131" t="str">
         <f>_xll.qlBTP2(C61,I61,D61,E61,F61,G61,H61,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0005030504#0000</v>
       </c>
@@ -7568,7 +7575,7 @@
       <c r="I62" s="83" t="s">
         <v>506</v>
       </c>
-      <c r="J62" s="93" t="str">
+      <c r="J62" s="131" t="str">
         <f>_xll.qlBTP2(C62,I62,D62,E62,F62,G62,H62,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004489610#0000</v>
       </c>
@@ -7617,7 +7624,7 @@
       <c r="I63" s="83" t="s">
         <v>507</v>
       </c>
-      <c r="J63" s="93" t="str">
+      <c r="J63" s="131" t="str">
         <f>_xll.qlBTP2(C63,I63,D63,E63,F63,G63,H63,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0003644769#0000</v>
       </c>
@@ -7666,7 +7673,7 @@
       <c r="I64" s="83" t="s">
         <v>508</v>
       </c>
-      <c r="J64" s="93" t="str">
+      <c r="J64" s="131" t="str">
         <f>_xll.qlBTP2(C64,I64,D64,E64,F64,G64,H64,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004536949#0000</v>
       </c>
@@ -7715,7 +7722,7 @@
       <c r="I65" s="83" t="s">
         <v>509</v>
       </c>
-      <c r="J65" s="93" t="str">
+      <c r="J65" s="131" t="str">
         <f>_xll.qlBTP2(C65,I65,D65,E65,F65,G65,H65,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004594930#0000</v>
       </c>
@@ -7763,7 +7770,7 @@
       <c r="I66" s="83" t="s">
         <v>510</v>
       </c>
-      <c r="J66" s="93" t="str">
+      <c r="J66" s="131" t="str">
         <f>_xll.qlBTP2(C66,I66,D66,E66,F66,G66,H66,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004634132#0000</v>
       </c>
@@ -7810,7 +7817,7 @@
       <c r="I67" s="83" t="s">
         <v>511</v>
       </c>
-      <c r="J67" s="93" t="str">
+      <c r="J67" s="131" t="str">
         <f>_xll.qlBTP2(C67,I67,D67,E67,F67,G67,H67,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004966401#0000</v>
       </c>
@@ -7859,7 +7866,7 @@
       <c r="I68" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="J68" s="93" t="str">
+      <c r="J68" s="131" t="str">
         <f>_xll.qlBTP2(C68,I68,D68,E68,F68,G68,H68,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004009673#0000</v>
       </c>
@@ -7909,7 +7916,7 @@
       <c r="I69" s="83" t="s">
         <v>513</v>
       </c>
-      <c r="J69" s="93" t="str">
+      <c r="J69" s="131" t="str">
         <f>_xll.qlBTP2(C69,I69,D69,E69,F69,G69,H69,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004695075#0000</v>
       </c>
@@ -7956,7 +7963,7 @@
       <c r="I70" s="83" t="s">
         <v>514</v>
       </c>
-      <c r="J70" s="93" t="str">
+      <c r="J70" s="131" t="str">
         <f>_xll.qlBTP2(C70,I70,D70,E70,F70,G70,H70,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0005028003#0000</v>
       </c>
@@ -8005,7 +8012,7 @@
       <c r="I71" s="83" t="s">
         <v>515</v>
       </c>
-      <c r="J71" s="93" t="str">
+      <c r="J71" s="131" t="str">
         <f>_xll.qlBTP2(C71,I71,D71,E71,F71,G71,H71,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004759673#0000</v>
       </c>
@@ -8055,7 +8062,7 @@
       <c r="I72" s="83" t="s">
         <v>516</v>
       </c>
-      <c r="J72" s="93" t="str">
+      <c r="J72" s="131" t="str">
         <f>_xll.qlBTP2(C72,I72,D72,E72,F72,G72,H72,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004801541#0000</v>
       </c>
@@ -8105,7 +8112,7 @@
       <c r="I73" s="83" t="s">
         <v>517</v>
       </c>
-      <c r="J73" s="93" t="str">
+      <c r="J73" s="131" t="str">
         <f>_xll.qlBTP2(C73,I73,D73,E73,F73,G73,H73,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004848831#0000</v>
       </c>
@@ -8155,7 +8162,7 @@
       <c r="I74" s="83" t="s">
         <v>518</v>
       </c>
-      <c r="J74" s="93" t="str">
+      <c r="J74" s="131" t="str">
         <f>_xll.qlBTP2(C74,I74,D74,E74,F74,G74,H74,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004898034#0000</v>
       </c>
@@ -8204,7 +8211,7 @@
       <c r="I75" s="83" t="s">
         <v>519</v>
       </c>
-      <c r="J75" s="93" t="str">
+      <c r="J75" s="131" t="str">
         <f>_xll.qlBTP2(C75,I75,D75,E75,F75,G75,H75,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004356843#0000</v>
       </c>
@@ -8254,7 +8261,7 @@
       <c r="I76" s="83" t="s">
         <v>520</v>
       </c>
-      <c r="J76" s="93" t="str">
+      <c r="J76" s="131" t="str">
         <f>_xll.qlBTP2(C76,I76,D76,E76,F76,G76,H76,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0000366655#0000</v>
       </c>
@@ -8301,7 +8308,7 @@
       <c r="I77" s="83" t="s">
         <v>521</v>
       </c>
-      <c r="J77" s="93" t="str">
+      <c r="J77" s="131" t="str">
         <f>_xll.qlBTP2(C77,I77,D77,E77,F77,G77,H77,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004953417#0000</v>
       </c>
@@ -8347,7 +8354,7 @@
       <c r="I78" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="J78" s="93" t="str">
+      <c r="J78" s="131" t="str">
         <f>_xll.qlBTP2(C78,I78,D78,E78,F78,G78,H78,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0005001547#0000</v>
       </c>
@@ -8393,7 +8400,7 @@
       <c r="I79" s="83" t="s">
         <v>523</v>
       </c>
-      <c r="J79" s="93" t="str">
+      <c r="J79" s="131" t="str">
         <f>_xll.qlBTP2(C79,I79,D79,E79,F79,G79,H79,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0005045270#0000</v>
       </c>
@@ -8442,7 +8449,7 @@
       <c r="I80" s="83" t="s">
         <v>524</v>
       </c>
-      <c r="J80" s="93" t="str">
+      <c r="J80" s="131" t="str">
         <f>_xll.qlBTP2(C80,I80,D80,E80,F80,G80,H80,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004513641#0000</v>
       </c>
@@ -8491,7 +8498,7 @@
       <c r="I81" s="83" t="s">
         <v>525</v>
       </c>
-      <c r="J81" s="93" t="str">
+      <c r="J81" s="131" t="str">
         <f>_xll.qlBTP2(C81,I81,D81,E81,F81,G81,H81,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004644735#0000</v>
       </c>
@@ -8541,7 +8548,7 @@
       <c r="I82" s="83" t="s">
         <v>526</v>
       </c>
-      <c r="J82" s="93" t="str">
+      <c r="J82" s="131" t="str">
         <f>_xll.qlBTP2(C82,I82,D82,E82,F82,G82,H82,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0001086567#0000</v>
       </c>
@@ -8590,7 +8597,7 @@
       <c r="I83" s="83" t="s">
         <v>527</v>
       </c>
-      <c r="J83" s="93" t="str">
+      <c r="J83" s="131" t="str">
         <f>_xll.qlBTP2(C83,I83,D83,E83,F83,G83,H83,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0001174611#0000</v>
       </c>
@@ -8639,7 +8646,7 @@
       <c r="I84" s="83" t="s">
         <v>528</v>
       </c>
-      <c r="J84" s="93" t="str">
+      <c r="J84" s="131" t="str">
         <f>_xll.qlBTP2(C84,I84,D84,E84,F84,G84,H84,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004889033#0000</v>
       </c>
@@ -8687,7 +8694,7 @@
       <c r="I85" s="83" t="s">
         <v>529</v>
       </c>
-      <c r="J85" s="93" t="str">
+      <c r="J85" s="131" t="str">
         <f>_xll.qlBTP2(C85,I85,D85,E85,F85,G85,H85,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0001278511#0000</v>
       </c>
@@ -8733,7 +8740,7 @@
       <c r="I86" s="83" t="s">
         <v>530</v>
       </c>
-      <c r="J86" s="93" t="str">
+      <c r="J86" s="131" t="str">
         <f>_xll.qlBTP2(C86,I86,D86,E86,F86,G86,H86,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0005024234#0000</v>
       </c>
@@ -8781,7 +8788,7 @@
       <c r="I87" s="83" t="s">
         <v>531</v>
       </c>
-      <c r="J87" s="93" t="str">
+      <c r="J87" s="131" t="str">
         <f>_xll.qlBTP2(C87,I87,D87,E87,F87,G87,H87,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0001444378#0000</v>
       </c>
@@ -8830,7 +8837,7 @@
       <c r="I88" s="83" t="s">
         <v>532</v>
       </c>
-      <c r="J88" s="93" t="str">
+      <c r="J88" s="131" t="str">
         <f>_xll.qlBTP2(C88,I88,D88,E88,F88,G88,H88,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0003256820#0000</v>
       </c>
@@ -8879,7 +8886,7 @@
       <c r="I89" s="83" t="s">
         <v>533</v>
       </c>
-      <c r="J89" s="93" t="str">
+      <c r="J89" s="131" t="str">
         <f>_xll.qlBTP2(C89,I89,D89,E89,F89,G89,H89,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0003535157#0000</v>
       </c>
@@ -8928,7 +8935,7 @@
       <c r="I90" s="83" t="s">
         <v>534</v>
       </c>
-      <c r="J90" s="93" t="str">
+      <c r="J90" s="131" t="str">
         <f>_xll.qlBTP2(C90,I90,D90,E90,F90,G90,H90,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0003934657#0000</v>
       </c>
@@ -8977,7 +8984,7 @@
       <c r="I91" s="83" t="s">
         <v>535</v>
       </c>
-      <c r="J91" s="93" t="str">
+      <c r="J91" s="131" t="str">
         <f>_xll.qlBTP2(C91,I91,D91,E91,F91,G91,H91,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004286966#0000</v>
       </c>
@@ -9023,7 +9030,7 @@
       <c r="I92" s="83" t="s">
         <v>536</v>
       </c>
-      <c r="J92" s="93" t="str">
+      <c r="J92" s="131" t="str">
         <f>_xll.qlBTP2(C92,I92,D92,E92,F92,G92,H92,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004532559#0000</v>
       </c>
@@ -9072,7 +9079,7 @@
       <c r="I93" s="83" t="s">
         <v>537</v>
       </c>
-      <c r="J93" s="93" t="str">
+      <c r="J93" s="131" t="str">
         <f>_xll.qlBTP2(C93,I93,D93,E93,F93,G93,H93,Permanent,Trigger,ObjectOverwrite)</f>
         <v>IT0004923998#0000</v>
       </c>
@@ -13349,8 +13356,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>

--- a/QuantLibXL/Data2/XLS/EUR_ITALY.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_ITALY.xlsx
@@ -1568,7 +1568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1801,28 +1801,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1867,7 +1845,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
@@ -2074,30 +2052,19 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="9" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="24" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="24" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2514,12 +2481,12 @@
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="139"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -4560,10 +4527,10 @@
   <dimension ref="A1:R97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="7" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4647,7 +4614,7 @@
     <row r="4" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="62"/>
       <c r="B4" s="21" t="str">
-        <f>IF(Serialize,_xll.ohObjectSave(I9:I97,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <f>IF(Serialize,_xll.ohObjectSave(I8:I97,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -4694,8 +4661,8 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="50">
-        <f>_xll.qlBondSettlementDate(I9,)</f>
-        <v>42017</v>
+        <f>_xll.qlBondSettlementDate(I8,)</f>
+        <v>42018</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -4747,32 +4714,32 @@
         <f>_xll.ohRangeRetrieveError(I8)</f>
         <v/>
       </c>
-      <c r="C8" s="123" t="s">
-        <v>453</v>
-      </c>
-      <c r="D8" s="124">
-        <v>43800</v>
-      </c>
-      <c r="E8" s="125">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="F8" s="126">
-        <v>100</v>
-      </c>
-      <c r="G8" s="124">
-        <v>41974</v>
-      </c>
-      <c r="H8" s="124">
-        <v>41974</v>
-      </c>
-      <c r="I8" s="127" t="str">
+      <c r="C8" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="84">
+        <v>40193</v>
+      </c>
+      <c r="E8" s="99">
+        <v>0.03</v>
+      </c>
+      <c r="F8" s="100">
+        <v>100</v>
+      </c>
+      <c r="G8" s="84">
+        <v>38367</v>
+      </c>
+      <c r="H8" s="97">
+        <v>38369</v>
+      </c>
+      <c r="I8" s="88" t="str">
         <f>_xll.qlBTP2(C8,,D8,E8,F8,G8,H8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005069395#0007</v>
-      </c>
-      <c r="J8" s="128" t="b">
+        <v>IT0003799597#0001</v>
+      </c>
+      <c r="J8" s="123" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="56" t="str">
+      <c r="K8" s="121" t="str">
         <f>IF(AND(J8,ISNA(L8),ISNA(M8)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
@@ -4785,40 +4752,43 @@
         <v>#N/A</v>
       </c>
       <c r="N8" s="23"/>
+      <c r="R8" s="18" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="9" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
-      <c r="B9" s="129" t="str">
+      <c r="B9" s="122" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
         <v/>
       </c>
       <c r="C9" s="83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="84">
-        <v>40193</v>
+        <v>40238</v>
       </c>
       <c r="E9" s="99">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F9" s="100">
         <v>100</v>
       </c>
       <c r="G9" s="84">
-        <v>38367</v>
+        <v>39142</v>
       </c>
       <c r="H9" s="97">
-        <v>38369</v>
+        <v>39142</v>
       </c>
       <c r="I9" s="88" t="str">
         <f>_xll.qlBTP2(C9,,D9,E9,F9,G9,H9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003799597#0014</v>
-      </c>
-      <c r="J9" s="130" t="b">
+        <v>IT0004196918#0001</v>
+      </c>
+      <c r="J9" s="123" t="b">
         <v>0</v>
       </c>
       <c r="K9" s="121" t="str">
-        <f>IF(AND(J9,ISNA(L9),ISNA(M9)),"Residual Missing","--")</f>
+        <f t="shared" ref="K9:K76" si="0">IF(AND(J9,ISNA(L9),ISNA(M9)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
       <c r="L9" s="48" t="e">
@@ -4830,43 +4800,40 @@
         <v>#N/A</v>
       </c>
       <c r="N9" s="23"/>
-      <c r="R9" s="18" t="s">
-        <v>380</v>
-      </c>
     </row>
     <row r="10" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
-      <c r="B10" s="129" t="str">
+      <c r="B10" s="122" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
         <v/>
       </c>
       <c r="C10" s="83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="84">
-        <v>40238</v>
+        <v>40344</v>
       </c>
       <c r="E10" s="99">
-        <v>0.04</v>
+        <v>2.75E-2</v>
       </c>
       <c r="F10" s="100">
         <v>100</v>
       </c>
       <c r="G10" s="84">
-        <v>39142</v>
+        <v>38518</v>
       </c>
       <c r="H10" s="97">
-        <v>39142</v>
+        <v>38520</v>
       </c>
       <c r="I10" s="88" t="str">
         <f>_xll.qlBTP2(C10,,D10,E10,F10,G10,H10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004196918#0006</v>
-      </c>
-      <c r="J10" s="130" t="b">
+        <v>IT0003872923#0001</v>
+      </c>
+      <c r="J10" s="123" t="b">
         <v>0</v>
       </c>
       <c r="K10" s="121" t="str">
-        <f t="shared" ref="K10:K76" si="0">IF(AND(J10,ISNA(L10),ISNA(M10)),"Residual Missing","--")</f>
+        <f t="shared" si="0"/>
         <v>--</v>
       </c>
       <c r="L10" s="48" t="e">
@@ -4881,33 +4848,33 @@
     </row>
     <row r="11" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
-      <c r="B11" s="129" t="str">
+      <c r="B11" s="122" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
         <v/>
       </c>
       <c r="C11" s="83" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D11" s="84">
-        <v>40344</v>
+        <v>40391</v>
       </c>
       <c r="E11" s="99">
-        <v>2.75E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F11" s="100">
         <v>100</v>
       </c>
       <c r="G11" s="84">
-        <v>38518</v>
+        <v>39295</v>
       </c>
       <c r="H11" s="97">
-        <v>38520</v>
+        <v>39295</v>
       </c>
       <c r="I11" s="88" t="str">
         <f>_xll.qlBTP2(C11,,D11,E11,F11,G11,H11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003872923#0006</v>
-      </c>
-      <c r="J11" s="130" t="b">
+        <v>IT0004254352#0001</v>
+      </c>
+      <c r="J11" s="123" t="b">
         <v>0</v>
       </c>
       <c r="K11" s="121" t="str">
@@ -4926,126 +4893,126 @@
     </row>
     <row r="12" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
-      <c r="B12" s="129" t="str">
+      <c r="B12" s="122" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
         <v/>
       </c>
       <c r="C12" s="83" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D12" s="84">
-        <v>40391</v>
+        <v>40483</v>
       </c>
       <c r="E12" s="99">
-        <v>4.4999999999999998E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F12" s="100">
         <v>100</v>
       </c>
       <c r="G12" s="84">
-        <v>39295</v>
+        <v>36465</v>
       </c>
       <c r="H12" s="97">
-        <v>39295</v>
+        <v>36619</v>
       </c>
       <c r="I12" s="88" t="str">
         <f>_xll.qlBTP2(C12,,D12,E12,F12,G12,H12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004254352#0006</v>
-      </c>
-      <c r="J12" s="130" t="b">
-        <v>0</v>
+        <v>IT0001448619#0001</v>
+      </c>
+      <c r="J12" s="123" t="b">
+        <v>1</v>
       </c>
       <c r="K12" s="121" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="L12" s="48" t="e">
+      <c r="L12" s="48" t="str">
         <f>LEFT(VLOOKUP($D12,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0001461844</v>
       </c>
       <c r="M12" s="120" t="e">
         <f>LEFT(VLOOKUP($D12,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
       <c r="N12" s="23"/>
+      <c r="R12" s="18" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="13" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
-      <c r="B13" s="129" t="str">
+      <c r="B13" s="122" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
         <v/>
       </c>
       <c r="C13" s="83" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D13" s="84">
-        <v>40483</v>
+        <v>40575</v>
       </c>
       <c r="E13" s="99">
-        <v>5.5E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="F13" s="100">
         <v>100</v>
       </c>
       <c r="G13" s="84">
-        <v>36465</v>
+        <v>39479</v>
       </c>
       <c r="H13" s="97">
-        <v>36619</v>
+        <v>39510</v>
       </c>
       <c r="I13" s="88" t="str">
         <f>_xll.qlBTP2(C13,,D13,E13,F13,G13,H13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001448619#0006</v>
-      </c>
-      <c r="J13" s="130" t="b">
-        <v>1</v>
+        <v>IT0004332521#0001</v>
+      </c>
+      <c r="J13" s="123" t="b">
+        <v>0</v>
       </c>
       <c r="K13" s="121" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="L13" s="48" t="str">
+      <c r="L13" s="48" t="e">
         <f>LEFT(VLOOKUP($D13,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>IT0001461844</v>
+        <v>#N/A</v>
       </c>
       <c r="M13" s="120" t="e">
         <f>LEFT(VLOOKUP($D13,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
       <c r="N13" s="23"/>
-      <c r="R13" s="18" t="s">
-        <v>380</v>
-      </c>
     </row>
     <row r="14" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
-      <c r="B14" s="129" t="str">
+      <c r="B14" s="122" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
         <v/>
       </c>
       <c r="C14" s="83" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D14" s="84">
-        <v>40575</v>
+        <v>40617</v>
       </c>
       <c r="E14" s="99">
-        <v>3.7499999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F14" s="100">
         <v>100</v>
       </c>
       <c r="G14" s="84">
-        <v>39479</v>
+        <v>38791</v>
       </c>
       <c r="H14" s="97">
-        <v>39510</v>
+        <v>38791</v>
       </c>
       <c r="I14" s="88" t="str">
         <f>_xll.qlBTP2(C14,,D14,E14,F14,G14,H14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004332521#0006</v>
-      </c>
-      <c r="J14" s="130" t="b">
+        <v>IT0004026297#0001</v>
+      </c>
+      <c r="J14" s="123" t="b">
         <v>0</v>
       </c>
       <c r="K14" s="121" t="str">
@@ -5064,34 +5031,34 @@
     </row>
     <row r="15" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
-      <c r="B15" s="129" t="str">
+      <c r="B15" s="122" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
         <v/>
       </c>
       <c r="C15" s="83" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D15" s="84">
-        <v>40617</v>
+        <v>40756</v>
       </c>
       <c r="E15" s="99">
-        <v>3.5000000000000003E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="F15" s="100">
         <v>100</v>
       </c>
       <c r="G15" s="84">
-        <v>38791</v>
+        <v>36923</v>
       </c>
       <c r="H15" s="97">
-        <v>38791</v>
+        <v>36951</v>
       </c>
       <c r="I15" s="88" t="str">
         <f>_xll.qlBTP2(C15,,D15,E15,F15,G15,H15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004026297#0006</v>
-      </c>
-      <c r="J15" s="130" t="b">
-        <v>0</v>
+        <v>IT0003080402#0001</v>
+      </c>
+      <c r="J15" s="123" t="b">
+        <v>1</v>
       </c>
       <c r="K15" s="121" t="str">
         <f t="shared" si="0"/>
@@ -5101,42 +5068,42 @@
         <f>LEFT(VLOOKUP($D15,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M15" s="120" t="e">
+      <c r="M15" s="120" t="str">
         <f>LEFT(VLOOKUP($D15,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0003106389</v>
       </c>
       <c r="N15" s="23"/>
     </row>
     <row r="16" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
-      <c r="B16" s="129" t="str">
+      <c r="B16" s="122" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
         <v/>
       </c>
       <c r="C16" s="83" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D16" s="84">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="E16" s="99">
-        <v>5.2499999999999998E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="F16" s="100">
         <v>100</v>
       </c>
       <c r="G16" s="84">
-        <v>36923</v>
+        <v>39692</v>
       </c>
       <c r="H16" s="97">
-        <v>36951</v>
+        <v>39692</v>
       </c>
       <c r="I16" s="88" t="str">
         <f>_xll.qlBTP2(C16,,D16,E16,F16,G16,H16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003080402#0006</v>
-      </c>
-      <c r="J16" s="130" t="b">
-        <v>1</v>
+        <v>IT0004404973#0001</v>
+      </c>
+      <c r="J16" s="123" t="b">
+        <v>0</v>
       </c>
       <c r="K16" s="121" t="str">
         <f t="shared" si="0"/>
@@ -5146,41 +5113,41 @@
         <f>LEFT(VLOOKUP($D16,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M16" s="120" t="str">
+      <c r="M16" s="120" t="e">
         <f>LEFT(VLOOKUP($D16,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0003106389</v>
-      </c>
-      <c r="N16" s="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N16" s="27"/>
     </row>
     <row r="17" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
-      <c r="B17" s="129" t="str">
+      <c r="B17" s="122" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
         <v/>
       </c>
       <c r="C17" s="83" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17" s="84">
-        <v>40787</v>
+        <v>40801</v>
       </c>
       <c r="E17" s="99">
-        <v>4.2500000000000003E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="F17" s="100">
         <v>100</v>
       </c>
       <c r="G17" s="84">
-        <v>39692</v>
+        <v>38975</v>
       </c>
       <c r="H17" s="97">
-        <v>39692</v>
+        <v>38978</v>
       </c>
       <c r="I17" s="88" t="str">
         <f>_xll.qlBTP2(C17,,D17,E17,F17,G17,H17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004404973#0006</v>
-      </c>
-      <c r="J17" s="130" t="b">
+        <v>IT0004112816#0001</v>
+      </c>
+      <c r="J17" s="123" t="b">
         <v>0</v>
       </c>
       <c r="K17" s="121" t="str">
@@ -5199,34 +5166,34 @@
     </row>
     <row r="18" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
-      <c r="B18" s="129" t="str">
+      <c r="B18" s="122" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
         <v/>
       </c>
       <c r="C18" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="84">
-        <v>40801</v>
-      </c>
-      <c r="E18" s="99">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="F18" s="100">
-        <v>100</v>
-      </c>
-      <c r="G18" s="84">
-        <v>38975</v>
-      </c>
-      <c r="H18" s="97">
-        <v>38978</v>
+        <v>35</v>
+      </c>
+      <c r="D18" s="89">
+        <v>40940</v>
+      </c>
+      <c r="E18" s="90">
+        <v>0.05</v>
+      </c>
+      <c r="F18" s="91">
+        <v>100</v>
+      </c>
+      <c r="G18" s="89">
+        <v>37104</v>
+      </c>
+      <c r="H18" s="89">
+        <v>37196</v>
       </c>
       <c r="I18" s="88" t="str">
         <f>_xll.qlBTP2(C18,,D18,E18,F18,G18,H18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004112816#0006</v>
-      </c>
-      <c r="J18" s="130" t="b">
-        <v>0</v>
+        <v>IT0003190912#0001</v>
+      </c>
+      <c r="J18" s="123" t="b">
+        <v>1</v>
       </c>
       <c r="K18" s="121" t="str">
         <f t="shared" si="0"/>
@@ -5236,87 +5203,88 @@
         <f>LEFT(VLOOKUP($D18,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M18" s="120" t="e">
+      <c r="M18" s="120" t="str">
         <f>LEFT(VLOOKUP($D18,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0003204903</v>
       </c>
       <c r="N18" s="27"/>
     </row>
     <row r="19" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
-      <c r="B19" s="129" t="str">
+      <c r="B19" s="122" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
         <v/>
       </c>
       <c r="C19" s="83" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D19" s="89">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="E19" s="90">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F19" s="91">
         <v>100</v>
       </c>
       <c r="G19" s="89">
-        <v>37104</v>
+        <v>39873</v>
       </c>
       <c r="H19" s="89">
-        <v>37196</v>
+        <v>39874</v>
       </c>
       <c r="I19" s="88" t="str">
         <f>_xll.qlBTP2(C19,,D19,E19,F19,G19,H19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003190912#0006</v>
-      </c>
-      <c r="J19" s="130" t="b">
-        <v>1</v>
+        <v>IT0004467483#0001</v>
+      </c>
+      <c r="J19" s="123" t="b">
+        <f t="shared" ref="J19:J90" si="1">NOT(ISNA(VLOOKUP(LEFT($I19,12),LatestStrippable,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="K19" s="121" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="L19" s="48" t="e">
+      <c r="L19" s="96" t="e">
         <f>LEFT(VLOOKUP($D19,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M19" s="120" t="str">
+      <c r="M19" s="135" t="e">
         <f>LEFT(VLOOKUP($D19,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0003204903</v>
+        <v>#N/A</v>
       </c>
       <c r="N19" s="27"/>
     </row>
     <row r="20" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
-      <c r="B20" s="129" t="str">
+      <c r="B20" s="122" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
         <v/>
       </c>
       <c r="C20" s="83" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="89">
-        <v>40969</v>
+        <v>41014</v>
       </c>
       <c r="E20" s="90">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F20" s="91">
         <v>100</v>
       </c>
       <c r="G20" s="89">
-        <v>39873</v>
+        <v>39187</v>
       </c>
       <c r="H20" s="89">
-        <v>39874</v>
+        <v>39189</v>
       </c>
       <c r="I20" s="88" t="str">
         <f>_xll.qlBTP2(C20,,D20,E20,F20,G20,H20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004467483#0006</v>
-      </c>
-      <c r="J20" s="130" t="b">
-        <f t="shared" ref="J20:J90" si="1">NOT(ISNA(VLOOKUP(LEFT($I20,12),LatestStrippable,1,FALSE)))</f>
+        <v>IT0004220627#0001</v>
+      </c>
+      <c r="J20" s="123" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="121" t="str">
@@ -5327,7 +5295,7 @@
         <f>LEFT(VLOOKUP($D20,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M20" s="142" t="e">
+      <c r="M20" s="135" t="e">
         <f>LEFT(VLOOKUP($D20,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
@@ -5335,33 +5303,33 @@
     </row>
     <row r="21" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
-      <c r="B21" s="129" t="str">
+      <c r="B21" s="122" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
         <v/>
       </c>
       <c r="C21" s="83" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="89">
-        <v>41014</v>
+        <v>41091</v>
       </c>
       <c r="E21" s="90">
-        <v>0.04</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F21" s="91">
         <v>100</v>
       </c>
       <c r="G21" s="89">
-        <v>39187</v>
+        <v>39995</v>
       </c>
       <c r="H21" s="89">
-        <v>39189</v>
+        <v>39995</v>
       </c>
       <c r="I21" s="88" t="str">
         <f>_xll.qlBTP2(C21,,D21,E21,F21,G21,H21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004220627#0006</v>
-      </c>
-      <c r="J21" s="130" t="b">
+        <v>IT0004508971#0001</v>
+      </c>
+      <c r="J21" s="123" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5369,11 +5337,11 @@
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="L21" s="96" t="e">
+      <c r="L21" s="48" t="e">
         <f>LEFT(VLOOKUP($D21,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M21" s="142" t="e">
+      <c r="M21" s="120" t="e">
         <f>LEFT(VLOOKUP($D21,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
@@ -5381,33 +5349,33 @@
     </row>
     <row r="22" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
-      <c r="B22" s="129" t="str">
+      <c r="B22" s="122" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
         <v/>
       </c>
       <c r="C22" s="83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="89">
-        <v>41091</v>
+        <v>41197</v>
       </c>
       <c r="E22" s="90">
-        <v>2.5000000000000001E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="F22" s="91">
         <v>100</v>
       </c>
       <c r="G22" s="89">
-        <v>39995</v>
+        <v>39370</v>
       </c>
       <c r="H22" s="89">
-        <v>39995</v>
+        <v>39370</v>
       </c>
       <c r="I22" s="88" t="str">
         <f>_xll.qlBTP2(C22,,D22,E22,F22,G22,H22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004508971#0006</v>
-      </c>
-      <c r="J22" s="130" t="b">
+        <v>IT0004284334#0001</v>
+      </c>
+      <c r="J22" s="123" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5427,33 +5395,33 @@
     </row>
     <row r="23" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
-      <c r="B23" s="129" t="str">
+      <c r="B23" s="122" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
         <v/>
       </c>
       <c r="C23" s="83" t="s">
-        <v>65</v>
+        <v>349</v>
       </c>
       <c r="D23" s="89">
-        <v>41197</v>
+        <v>41258</v>
       </c>
       <c r="E23" s="90">
-        <v>4.2500000000000003E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F23" s="91">
         <v>100</v>
       </c>
       <c r="G23" s="89">
-        <v>39370</v>
+        <v>40162</v>
       </c>
       <c r="H23" s="89">
-        <v>39370</v>
+        <v>40182</v>
       </c>
       <c r="I23" s="88" t="str">
         <f>_xll.qlBTP2(C23,,D23,E23,F23,G23,H23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004284334#0006</v>
-      </c>
-      <c r="J23" s="130" t="b">
+        <v>IT0004564636#0001</v>
+      </c>
+      <c r="J23" s="123" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5473,35 +5441,35 @@
     </row>
     <row r="24" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
-      <c r="B24" s="129" t="str">
+      <c r="B24" s="122" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
         <v/>
       </c>
       <c r="C24" s="83" t="s">
-        <v>349</v>
+        <v>36</v>
       </c>
       <c r="D24" s="89">
-        <v>41258</v>
+        <v>41306</v>
       </c>
       <c r="E24" s="90">
-        <v>0.02</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="F24" s="91">
         <v>100</v>
       </c>
       <c r="G24" s="89">
-        <v>40162</v>
+        <v>37469</v>
       </c>
       <c r="H24" s="89">
-        <v>40182</v>
+        <v>37501</v>
       </c>
       <c r="I24" s="88" t="str">
         <f>_xll.qlBTP2(C24,,D24,E24,F24,G24,H24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004564636#0006</v>
-      </c>
-      <c r="J24" s="130" t="b">
+        <v>IT0003357982#0001</v>
+      </c>
+      <c r="J24" s="123" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="121" t="str">
         <f t="shared" si="0"/>
@@ -5511,43 +5479,43 @@
         <f>LEFT(VLOOKUP($D24,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M24" s="120" t="e">
+      <c r="M24" s="120" t="str">
         <f>LEFT(VLOOKUP($D24,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0003398333</v>
       </c>
       <c r="N24" s="27"/>
     </row>
     <row r="25" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
-      <c r="B25" s="129" t="str">
+      <c r="B25" s="122" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
         <v/>
       </c>
       <c r="C25" s="83" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D25" s="89">
-        <v>41306</v>
+        <v>41379</v>
       </c>
       <c r="E25" s="90">
-        <v>4.7500000000000001E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="F25" s="91">
         <v>100</v>
       </c>
       <c r="G25" s="89">
-        <v>37469</v>
+        <v>39553</v>
       </c>
       <c r="H25" s="89">
-        <v>37501</v>
+        <v>39584</v>
       </c>
       <c r="I25" s="88" t="str">
         <f>_xll.qlBTP2(C25,,D25,E25,F25,G25,H25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003357982#0006</v>
-      </c>
-      <c r="J25" s="130" t="b">
+        <v>IT0004365554#0001</v>
+      </c>
+      <c r="J25" s="123" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="121" t="str">
         <f t="shared" si="0"/>
@@ -5557,41 +5525,41 @@
         <f>LEFT(VLOOKUP($D25,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M25" s="120" t="str">
+      <c r="M25" s="120" t="e">
         <f>LEFT(VLOOKUP($D25,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0003398333</v>
+        <v>#N/A</v>
       </c>
       <c r="N25" s="27"/>
     </row>
     <row r="26" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
-      <c r="B26" s="129" t="str">
+      <c r="B26" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
         <v/>
       </c>
-      <c r="C26" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="89">
-        <v>41379</v>
-      </c>
-      <c r="E26" s="90">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="F26" s="91">
-        <v>100</v>
-      </c>
-      <c r="G26" s="89">
-        <v>39553</v>
-      </c>
-      <c r="H26" s="89">
-        <v>39584</v>
+      <c r="C26" s="112" t="s">
+        <v>352</v>
+      </c>
+      <c r="D26" s="113">
+        <v>41426</v>
+      </c>
+      <c r="E26" s="114">
+        <v>0.02</v>
+      </c>
+      <c r="F26" s="115">
+        <v>100</v>
+      </c>
+      <c r="G26" s="113">
+        <v>40330</v>
+      </c>
+      <c r="H26" s="113">
+        <v>40330</v>
       </c>
       <c r="I26" s="88" t="str">
         <f>_xll.qlBTP2(C26,,D26,E26,F26,G26,H26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004365554#0006</v>
-      </c>
-      <c r="J26" s="130" t="b">
+        <v>IT0004612179#0001</v>
+      </c>
+      <c r="J26" s="125" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5611,35 +5579,35 @@
     </row>
     <row r="27" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
-      <c r="B27" s="131" t="str">
+      <c r="B27" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
         <v/>
       </c>
       <c r="C27" s="112" t="s">
-        <v>352</v>
+        <v>37</v>
       </c>
       <c r="D27" s="113">
-        <v>41426</v>
+        <v>41487</v>
       </c>
       <c r="E27" s="114">
-        <v>0.02</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="F27" s="115">
         <v>100</v>
       </c>
       <c r="G27" s="113">
-        <v>40330</v>
+        <v>37653</v>
       </c>
       <c r="H27" s="113">
-        <v>40330</v>
+        <v>37743</v>
       </c>
       <c r="I27" s="88" t="str">
         <f>_xll.qlBTP2(C27,,D27,E27,F27,G27,H27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004612179#0006</v>
-      </c>
-      <c r="J27" s="132" t="b">
+        <v>IT0003472336#0001</v>
+      </c>
+      <c r="J27" s="125" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="121" t="str">
         <f t="shared" si="0"/>
@@ -5649,43 +5617,43 @@
         <f>LEFT(VLOOKUP($D27,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M27" s="120" t="e">
+      <c r="M27" s="120" t="str">
         <f>LEFT(VLOOKUP($D27,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0003474951</v>
       </c>
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
-      <c r="B28" s="131" t="str">
+      <c r="B28" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
         <v/>
       </c>
       <c r="C28" s="112" t="s">
-        <v>37</v>
+        <v>405</v>
       </c>
       <c r="D28" s="113">
-        <v>41487</v>
+        <v>41579</v>
       </c>
       <c r="E28" s="114">
-        <v>4.2500000000000003E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="F28" s="115">
         <v>100</v>
       </c>
       <c r="G28" s="113">
-        <v>37653</v>
+        <v>40483</v>
       </c>
       <c r="H28" s="113">
-        <v>37743</v>
+        <v>40483</v>
       </c>
       <c r="I28" s="88" t="str">
         <f>_xll.qlBTP2(C28,,D28,E28,F28,G28,H28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003472336#0006</v>
-      </c>
-      <c r="J28" s="132" t="b">
+        <v>IT0004653108#0001</v>
+      </c>
+      <c r="J28" s="125" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="121" t="str">
         <f t="shared" si="0"/>
@@ -5695,41 +5663,41 @@
         <f>LEFT(VLOOKUP($D28,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M28" s="120" t="str">
+      <c r="M28" s="120" t="e">
         <f>LEFT(VLOOKUP($D28,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0003474951</v>
+        <v>#N/A</v>
       </c>
       <c r="N28" s="27"/>
     </row>
     <row r="29" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
-      <c r="B29" s="131" t="str">
+      <c r="B29" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
         <v/>
       </c>
       <c r="C29" s="112" t="s">
-        <v>405</v>
+        <v>67</v>
       </c>
       <c r="D29" s="113">
-        <v>41579</v>
+        <v>41623</v>
       </c>
       <c r="E29" s="114">
-        <v>2.2499999999999999E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="F29" s="115">
         <v>100</v>
       </c>
       <c r="G29" s="113">
-        <v>40483</v>
+        <v>39797</v>
       </c>
       <c r="H29" s="113">
-        <v>40483</v>
+        <v>39829</v>
       </c>
       <c r="I29" s="88" t="str">
         <f>_xll.qlBTP2(C29,,D29,E29,F29,G29,H29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004653108#0006</v>
-      </c>
-      <c r="J29" s="132" t="b">
+        <v>IT0004448863#0001</v>
+      </c>
+      <c r="J29" s="125" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5749,33 +5717,33 @@
     </row>
     <row r="30" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
-      <c r="B30" s="131" t="str">
+      <c r="B30" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
         <v/>
       </c>
       <c r="C30" s="112" t="s">
-        <v>67</v>
+        <v>406</v>
       </c>
       <c r="D30" s="113">
-        <v>41623</v>
+        <v>41730</v>
       </c>
       <c r="E30" s="114">
-        <v>3.7499999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F30" s="115">
         <v>100</v>
       </c>
       <c r="G30" s="113">
-        <v>39797</v>
+        <v>40634</v>
       </c>
       <c r="H30" s="113">
-        <v>39829</v>
-      </c>
-      <c r="I30" s="88" t="str">
+        <v>40634</v>
+      </c>
+      <c r="I30" s="116" t="str">
         <f>_xll.qlBTP2(C30,,D30,E30,F30,G30,H30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004448863#0006</v>
-      </c>
-      <c r="J30" s="132" t="b">
+        <v>IT0004707995#0001</v>
+      </c>
+      <c r="J30" s="125" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5795,33 +5763,33 @@
     </row>
     <row r="31" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
-      <c r="B31" s="131" t="str">
+      <c r="B31" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
         <v/>
       </c>
       <c r="C31" s="112" t="s">
-        <v>406</v>
+        <v>68</v>
       </c>
       <c r="D31" s="113">
-        <v>41730</v>
+        <v>41791</v>
       </c>
       <c r="E31" s="114">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F31" s="115">
         <v>100</v>
       </c>
       <c r="G31" s="113">
-        <v>40634</v>
+        <v>39965</v>
       </c>
       <c r="H31" s="113">
-        <v>40634</v>
+        <v>39979</v>
       </c>
       <c r="I31" s="116" t="str">
         <f>_xll.qlBTP2(C31,,D31,E31,F31,G31,H31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004707995#0006</v>
-      </c>
-      <c r="J31" s="132" t="b">
+        <v>IT0004505076#0001</v>
+      </c>
+      <c r="J31" s="125" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5841,33 +5809,33 @@
     </row>
     <row r="32" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
-      <c r="B32" s="131" t="str">
+      <c r="B32" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
         <v/>
       </c>
       <c r="C32" s="112" t="s">
-        <v>68</v>
+        <v>420</v>
       </c>
       <c r="D32" s="113">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="E32" s="114">
-        <v>3.5000000000000003E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="F32" s="115">
         <v>100</v>
       </c>
       <c r="G32" s="113">
-        <v>39965</v>
+        <v>40725</v>
       </c>
       <c r="H32" s="113">
-        <v>39979</v>
+        <v>40756</v>
       </c>
       <c r="I32" s="116" t="str">
         <f>_xll.qlBTP2(C32,,D32,E32,F32,G32,H32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004505076#0006</v>
-      </c>
-      <c r="J32" s="132" t="b">
+        <v>IT0004750409#0001</v>
+      </c>
+      <c r="J32" s="125" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5887,15 +5855,15 @@
     </row>
     <row r="33" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
-      <c r="B33" s="131" t="str">
+      <c r="B33" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
         <v/>
       </c>
       <c r="C33" s="112" t="s">
-        <v>420</v>
+        <v>38</v>
       </c>
       <c r="D33" s="113">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="E33" s="114">
         <v>4.2500000000000003E-2</v>
@@ -5904,18 +5872,18 @@
         <v>100</v>
       </c>
       <c r="G33" s="113">
-        <v>40725</v>
+        <v>38018</v>
       </c>
       <c r="H33" s="113">
-        <v>40756</v>
+        <v>38019</v>
       </c>
       <c r="I33" s="116" t="str">
         <f>_xll.qlBTP2(C33,,D33,E33,F33,G33,H33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004750409#0006</v>
-      </c>
-      <c r="J33" s="132" t="b">
+        <v>IT0003618383#0001</v>
+      </c>
+      <c r="J33" s="125" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="121" t="str">
         <f t="shared" si="0"/>
@@ -5925,43 +5893,43 @@
         <f>LEFT(VLOOKUP($D33,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M33" s="120" t="e">
+      <c r="M33" s="120" t="str">
         <f>LEFT(VLOOKUP($D33,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0003631238</v>
       </c>
       <c r="N33" s="27"/>
     </row>
     <row r="34" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
-      <c r="B34" s="131" t="str">
+      <c r="B34" s="124" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
         <v/>
       </c>
       <c r="C34" s="112" t="s">
-        <v>38</v>
+        <v>427</v>
       </c>
       <c r="D34" s="113">
-        <v>41852</v>
+        <v>41958</v>
       </c>
       <c r="E34" s="114">
-        <v>4.2500000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F34" s="115">
         <v>100</v>
       </c>
       <c r="G34" s="113">
-        <v>38018</v>
+        <v>40862</v>
       </c>
       <c r="H34" s="113">
-        <v>38019</v>
+        <v>40878</v>
       </c>
       <c r="I34" s="116" t="str">
         <f>_xll.qlBTP2(C34,,D34,E34,F34,G34,H34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003618383#0006</v>
-      </c>
-      <c r="J34" s="132" t="b">
+        <v>IT0004780380#0001</v>
+      </c>
+      <c r="J34" s="125" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="121" t="str">
         <f t="shared" si="0"/>
@@ -5971,43 +5939,43 @@
         <f>LEFT(VLOOKUP($D34,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M34" s="120" t="str">
+      <c r="M34" s="120" t="e">
         <f>LEFT(VLOOKUP($D34,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0003631238</v>
+        <v>#N/A</v>
       </c>
       <c r="N34" s="27"/>
     </row>
     <row r="35" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
-      <c r="B35" s="131" t="str">
+      <c r="B35" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
         <v/>
       </c>
-      <c r="C35" s="112" t="s">
-        <v>427</v>
-      </c>
-      <c r="D35" s="113">
-        <v>41958</v>
-      </c>
-      <c r="E35" s="114">
-        <v>0.06</v>
-      </c>
-      <c r="F35" s="115">
-        <v>100</v>
-      </c>
-      <c r="G35" s="113">
-        <v>40862</v>
-      </c>
-      <c r="H35" s="113">
-        <v>40878</v>
-      </c>
-      <c r="I35" s="116" t="str">
+      <c r="C35" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="85">
+        <v>42036</v>
+      </c>
+      <c r="E35" s="86">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="F35" s="87">
+        <v>100</v>
+      </c>
+      <c r="G35" s="85">
+        <v>38200</v>
+      </c>
+      <c r="H35" s="85">
+        <v>38231</v>
+      </c>
+      <c r="I35" s="119" t="str">
         <f>_xll.qlBTP2(C35,,D35,E35,F35,G35,H35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004780380#0006</v>
-      </c>
-      <c r="J35" s="132" t="b">
+        <v>IT0003719918#0001</v>
+      </c>
+      <c r="J35" s="127" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="121" t="str">
         <f t="shared" si="0"/>
@@ -6017,43 +5985,43 @@
         <f>LEFT(VLOOKUP($D35,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M35" s="120" t="e">
+      <c r="M35" s="120" t="str">
         <f>LEFT(VLOOKUP($D35,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0003725261</v>
       </c>
       <c r="N35" s="27"/>
     </row>
     <row r="36" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
-      <c r="B36" s="133" t="str">
+      <c r="B36" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
         <v/>
       </c>
       <c r="C36" s="40" t="s">
-        <v>39</v>
+        <v>429</v>
       </c>
       <c r="D36" s="85">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="E36" s="86">
-        <v>4.2500000000000003E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F36" s="87">
         <v>100</v>
       </c>
       <c r="G36" s="85">
-        <v>38200</v>
+        <v>40969</v>
       </c>
       <c r="H36" s="85">
-        <v>38231</v>
+        <v>40984</v>
       </c>
       <c r="I36" s="119" t="str">
         <f>_xll.qlBTP2(C36,,D36,E36,F36,G36,H36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003719918#0006</v>
-      </c>
-      <c r="J36" s="134" t="b">
+        <v>IT0004805070#0001</v>
+      </c>
+      <c r="J36" s="127" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="121" t="str">
         <f t="shared" si="0"/>
@@ -6063,41 +6031,41 @@
         <f>LEFT(VLOOKUP($D36,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M36" s="120" t="str">
+      <c r="M36" s="120" t="e">
         <f>LEFT(VLOOKUP($D36,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0003725261</v>
+        <v>#N/A</v>
       </c>
       <c r="N36" s="27"/>
     </row>
     <row r="37" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
-      <c r="B37" s="133" t="str">
+      <c r="B37" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
         <v/>
       </c>
       <c r="C37" s="40" t="s">
-        <v>429</v>
+        <v>350</v>
       </c>
       <c r="D37" s="85">
-        <v>42064</v>
+        <v>42109</v>
       </c>
       <c r="E37" s="86">
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F37" s="87">
         <v>100</v>
       </c>
       <c r="G37" s="85">
-        <v>40969</v>
+        <v>40193</v>
       </c>
       <c r="H37" s="85">
-        <v>40984</v>
+        <v>40193</v>
       </c>
       <c r="I37" s="119" t="str">
         <f>_xll.qlBTP2(C37,,D37,E37,F37,G37,H37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004805070#0006</v>
-      </c>
-      <c r="J37" s="134" t="b">
+        <v>IT0004568272#0001</v>
+      </c>
+      <c r="J37" s="127" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6117,15 +6085,15 @@
     </row>
     <row r="38" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
-      <c r="B38" s="133" t="str">
+      <c r="B38" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
         <v/>
       </c>
       <c r="C38" s="40" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D38" s="85">
-        <v>42109</v>
+        <v>42170</v>
       </c>
       <c r="E38" s="86">
         <v>0.03</v>
@@ -6134,16 +6102,16 @@
         <v>100</v>
       </c>
       <c r="G38" s="85">
-        <v>40193</v>
+        <v>40344</v>
       </c>
       <c r="H38" s="85">
-        <v>40193</v>
+        <v>40344</v>
       </c>
       <c r="I38" s="119" t="str">
         <f>_xll.qlBTP2(C38,,D38,E38,F38,G38,H38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004568272#0006</v>
-      </c>
-      <c r="J38" s="134" t="b">
+        <v>IT0004615917#0001</v>
+      </c>
+      <c r="J38" s="127" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6163,33 +6131,33 @@
     </row>
     <row r="39" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
-      <c r="B39" s="133" t="str">
+      <c r="B39" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
         <v/>
       </c>
       <c r="C39" s="40" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="D39" s="85">
-        <v>42170</v>
+        <v>42200</v>
       </c>
       <c r="E39" s="86">
-        <v>0.03</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F39" s="87">
         <v>100</v>
       </c>
       <c r="G39" s="85">
-        <v>40344</v>
+        <v>41105</v>
       </c>
       <c r="H39" s="85">
-        <v>40344</v>
+        <v>41107</v>
       </c>
       <c r="I39" s="119" t="str">
         <f>_xll.qlBTP2(C39,,D39,E39,F39,G39,H39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004615917#0006</v>
-      </c>
-      <c r="J39" s="134" t="b">
+        <v>IT0004840788#0001</v>
+      </c>
+      <c r="J39" s="127" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6209,35 +6177,35 @@
     </row>
     <row r="40" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
-      <c r="B40" s="133" t="str">
+      <c r="B40" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
         <v/>
       </c>
       <c r="C40" s="40" t="s">
-        <v>432</v>
+        <v>40</v>
       </c>
       <c r="D40" s="85">
-        <v>42200</v>
+        <v>42217</v>
       </c>
       <c r="E40" s="86">
-        <v>4.4999999999999998E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="F40" s="87">
         <v>100</v>
       </c>
       <c r="G40" s="85">
-        <v>41105</v>
+        <v>38384</v>
       </c>
       <c r="H40" s="85">
-        <v>41107</v>
+        <v>38474</v>
       </c>
       <c r="I40" s="119" t="str">
         <f>_xll.qlBTP2(C40,,D40,E40,F40,G40,H40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004840788#0006</v>
-      </c>
-      <c r="J40" s="134" t="b">
+        <v>IT0003844534#0001</v>
+      </c>
+      <c r="J40" s="127" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="121" t="str">
         <f t="shared" si="0"/>
@@ -6247,225 +6215,225 @@
         <f>LEFT(VLOOKUP($D40,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M40" s="120" t="e">
+      <c r="M40" s="120" t="str">
         <f>LEFT(VLOOKUP($D40,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0003850374</v>
       </c>
       <c r="N40" s="27"/>
     </row>
     <row r="41" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
-      <c r="B41" s="133" t="str">
+      <c r="B41" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
         <v/>
       </c>
       <c r="C41" s="40" t="s">
-        <v>40</v>
+        <v>407</v>
       </c>
       <c r="D41" s="85">
-        <v>42217</v>
+        <v>42309</v>
       </c>
       <c r="E41" s="86">
-        <v>3.7499999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F41" s="87">
         <v>100</v>
       </c>
       <c r="G41" s="85">
-        <v>38384</v>
+        <v>40483</v>
       </c>
       <c r="H41" s="85">
-        <v>38474</v>
+        <v>40498</v>
       </c>
       <c r="I41" s="119" t="str">
         <f>_xll.qlBTP2(C41,,D41,E41,F41,G41,H41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003844534#0006</v>
-      </c>
-      <c r="J41" s="134" t="b">
+        <v>IT0004656275#0001</v>
+      </c>
+      <c r="J41" s="127" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" s="121" t="str">
+        <f t="shared" si="0"/>
+        <v>Residual Missing</v>
+      </c>
+      <c r="L41" s="48" t="e">
+        <f>LEFT(VLOOKUP($D41,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M41" s="120" t="e">
+        <f>LEFT(VLOOKUP($D41,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N41" s="27"/>
+    </row>
+    <row r="42" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="19"/>
+      <c r="B42" s="126" t="str">
+        <f>_xll.ohRangeRetrieveError(I42)</f>
+        <v/>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="D42" s="85">
+        <v>42339</v>
+      </c>
+      <c r="E42" s="86">
+        <v>2.75E-2</v>
+      </c>
+      <c r="F42" s="87">
+        <v>100</v>
+      </c>
+      <c r="G42" s="85">
+        <v>41244</v>
+      </c>
+      <c r="H42" s="85">
+        <v>41260</v>
+      </c>
+      <c r="I42" s="119" t="str">
+        <f>_xll.qlBTP2(C42,,D42,E42,F42,G42,H42,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>IT0004880990#0001</v>
+      </c>
+      <c r="J42" s="127" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="121" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="L42" s="48" t="e">
+        <f>LEFT(VLOOKUP($D42,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M42" s="120" t="e">
+        <f>LEFT(VLOOKUP($D42,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N42" s="27"/>
+    </row>
+    <row r="43" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="19"/>
+      <c r="B43" s="126" t="str">
+        <f>_xll.ohRangeRetrieveError(I43)</f>
+        <v/>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="D43" s="85">
+        <v>42475</v>
+      </c>
+      <c r="E43" s="86">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F43" s="87">
+        <v>100</v>
+      </c>
+      <c r="G43" s="85">
+        <v>40648</v>
+      </c>
+      <c r="H43" s="85">
+        <v>40651</v>
+      </c>
+      <c r="I43" s="119" t="str">
+        <f>_xll.qlBTP2(C43,,D43,E43,F43,G43,H43,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>IT0004712748#0001</v>
+      </c>
+      <c r="J43" s="127" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" s="121" t="str">
+        <f t="shared" si="0"/>
+        <v>Residual Missing</v>
+      </c>
+      <c r="L43" s="48" t="e">
+        <f>LEFT(VLOOKUP($D43,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M43" s="120" t="e">
+        <f>LEFT(VLOOKUP($D43,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N43" s="27"/>
+    </row>
+    <row r="44" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="19"/>
+      <c r="B44" s="126" t="str">
+        <f>_xll.ohRangeRetrieveError(I44)</f>
+        <v/>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="D44" s="85">
+        <v>42505</v>
+      </c>
+      <c r="E44" s="86">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="F44" s="87">
+        <v>100</v>
+      </c>
+      <c r="G44" s="85">
+        <v>41379</v>
+      </c>
+      <c r="H44" s="85">
+        <v>41379</v>
+      </c>
+      <c r="I44" s="119" t="str">
+        <f>_xll.qlBTP2(C44,,D44,E44,F44,G44,H44,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>IT0004917792#0001</v>
+      </c>
+      <c r="J44" s="127" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="121" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="L44" s="48" t="e">
+        <f>LEFT(VLOOKUP($D44,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M44" s="120" t="e">
+        <f>LEFT(VLOOKUP($D44,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N44" s="27"/>
+    </row>
+    <row r="45" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="19"/>
+      <c r="B45" s="126" t="str">
+        <f>_xll.ohRangeRetrieveError(I45)</f>
+        <v/>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="85">
+        <v>42583</v>
+      </c>
+      <c r="E45" s="86">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F45" s="87">
+        <v>100</v>
+      </c>
+      <c r="G45" s="85">
+        <v>38749</v>
+      </c>
+      <c r="H45" s="85">
+        <v>38777</v>
+      </c>
+      <c r="I45" s="119" t="str">
+        <f>_xll.qlBTP2(C45,,D45,E45,F45,G45,H45,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>IT0004019581#0001</v>
+      </c>
+      <c r="J45" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="K41" s="121" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="L41" s="48" t="e">
-        <f>LEFT(VLOOKUP($D41,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M41" s="120" t="str">
-        <f>LEFT(VLOOKUP($D41,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0003850374</v>
-      </c>
-      <c r="N41" s="27"/>
-    </row>
-    <row r="42" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I42)</f>
-        <v/>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="D42" s="85">
-        <v>42309</v>
-      </c>
-      <c r="E42" s="86">
-        <v>0.03</v>
-      </c>
-      <c r="F42" s="87">
-        <v>100</v>
-      </c>
-      <c r="G42" s="85">
-        <v>40483</v>
-      </c>
-      <c r="H42" s="85">
-        <v>40498</v>
-      </c>
-      <c r="I42" s="119" t="str">
-        <f>_xll.qlBTP2(C42,,D42,E42,F42,G42,H42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004656275#0006</v>
-      </c>
-      <c r="J42" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="K42" s="121" t="str">
-        <f t="shared" si="0"/>
-        <v>Residual Missing</v>
-      </c>
-      <c r="L42" s="48" t="e">
-        <f>LEFT(VLOOKUP($D42,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M42" s="120" t="e">
-        <f>LEFT(VLOOKUP($D42,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N42" s="27"/>
-    </row>
-    <row r="43" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I43)</f>
-        <v/>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>433</v>
-      </c>
-      <c r="D43" s="85">
-        <v>42339</v>
-      </c>
-      <c r="E43" s="86">
-        <v>2.75E-2</v>
-      </c>
-      <c r="F43" s="87">
-        <v>100</v>
-      </c>
-      <c r="G43" s="85">
-        <v>41244</v>
-      </c>
-      <c r="H43" s="85">
-        <v>41260</v>
-      </c>
-      <c r="I43" s="119" t="str">
-        <f>_xll.qlBTP2(C43,,D43,E43,F43,G43,H43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004880990#0006</v>
-      </c>
-      <c r="J43" s="134" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="121" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="L43" s="48" t="e">
-        <f>LEFT(VLOOKUP($D43,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M43" s="120" t="e">
-        <f>LEFT(VLOOKUP($D43,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N43" s="27"/>
-    </row>
-    <row r="44" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I44)</f>
-        <v/>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>408</v>
-      </c>
-      <c r="D44" s="85">
-        <v>42475</v>
-      </c>
-      <c r="E44" s="86">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="F44" s="87">
-        <v>100</v>
-      </c>
-      <c r="G44" s="85">
-        <v>40648</v>
-      </c>
-      <c r="H44" s="85">
-        <v>40651</v>
-      </c>
-      <c r="I44" s="119" t="str">
-        <f>_xll.qlBTP2(C44,,D44,E44,F44,G44,H44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004712748#0006</v>
-      </c>
-      <c r="J44" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="K44" s="121" t="str">
-        <f t="shared" si="0"/>
-        <v>Residual Missing</v>
-      </c>
-      <c r="L44" s="48" t="e">
-        <f>LEFT(VLOOKUP($D44,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M44" s="120" t="e">
-        <f>LEFT(VLOOKUP($D44,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N44" s="27"/>
-    </row>
-    <row r="45" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I45)</f>
-        <v/>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>434</v>
-      </c>
-      <c r="D45" s="85">
-        <v>42505</v>
-      </c>
-      <c r="E45" s="86">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="F45" s="87">
-        <v>100</v>
-      </c>
-      <c r="G45" s="85">
-        <v>41379</v>
-      </c>
-      <c r="H45" s="85">
-        <v>41379</v>
-      </c>
-      <c r="I45" s="119" t="str">
-        <f>_xll.qlBTP2(C45,,D45,E45,F45,G45,H45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004917792#0006</v>
-      </c>
-      <c r="J45" s="134" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="K45" s="121" t="str">
         <f t="shared" si="0"/>
@@ -6475,92 +6443,89 @@
         <f>LEFT(VLOOKUP($D45,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M45" s="120" t="e">
+      <c r="M45" s="120" t="str">
         <f>LEFT(VLOOKUP($D45,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0004038318</v>
       </c>
       <c r="N45" s="27"/>
     </row>
     <row r="46" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
-      <c r="B46" s="133" t="str">
+      <c r="B46" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
         <v/>
       </c>
       <c r="C46" s="40" t="s">
-        <v>30</v>
+        <v>422</v>
       </c>
       <c r="D46" s="85">
-        <v>42583</v>
+        <v>42628</v>
       </c>
       <c r="E46" s="86">
-        <v>3.7499999999999999E-2</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="F46" s="87">
         <v>100</v>
       </c>
       <c r="G46" s="85">
-        <v>38749</v>
+        <v>40801</v>
       </c>
       <c r="H46" s="85">
-        <v>38777</v>
+        <v>40801</v>
       </c>
       <c r="I46" s="119" t="str">
         <f>_xll.qlBTP2(C46,,D46,E46,F46,G46,H46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004019581#0006</v>
-      </c>
-      <c r="J46" s="134" t="b">
-        <f t="shared" si="1"/>
+        <v>IT0004761950#0001</v>
+      </c>
+      <c r="J46" s="127" t="b">
         <v>1</v>
       </c>
       <c r="K46" s="121" t="str">
         <f t="shared" si="0"/>
-        <v>--</v>
+        <v>Residual Missing</v>
       </c>
       <c r="L46" s="48" t="e">
         <f>LEFT(VLOOKUP($D46,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M46" s="120" t="str">
+      <c r="M46" s="120" t="e">
         <f>LEFT(VLOOKUP($D46,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0004038318</v>
+        <v>#N/A</v>
       </c>
       <c r="N46" s="27"/>
     </row>
     <row r="47" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
-      <c r="B47" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I47)</f>
-        <v/>
-      </c>
+      <c r="B47" s="126"/>
       <c r="C47" s="40" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="D47" s="85">
-        <v>42628</v>
+        <v>42689</v>
       </c>
       <c r="E47" s="86">
-        <v>4.7500000000000001E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="F47" s="87">
         <v>100</v>
       </c>
       <c r="G47" s="85">
-        <v>40801</v>
+        <v>41533</v>
       </c>
       <c r="H47" s="85">
-        <v>40801</v>
+        <v>41533</v>
       </c>
       <c r="I47" s="119" t="str">
         <f>_xll.qlBTP2(C47,,D47,E47,F47,G47,H47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004761950#0006</v>
-      </c>
-      <c r="J47" s="134" t="b">
-        <v>1</v>
+        <v>IT0004960826#0001</v>
+      </c>
+      <c r="J47" s="127" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K47" s="121" t="str">
-        <f t="shared" si="0"/>
-        <v>Residual Missing</v>
+        <f>IF(AND(J47,ISNA(L47),ISNA(M47)),"Residual Missing","--")</f>
+        <v>--</v>
       </c>
       <c r="L47" s="48" t="e">
         <f>LEFT(VLOOKUP($D47,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -6574,30 +6539,30 @@
     </row>
     <row r="48" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
-      <c r="B48" s="133"/>
+      <c r="B48" s="126"/>
       <c r="C48" s="40" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D48" s="85">
-        <v>42689</v>
+        <v>42719</v>
       </c>
       <c r="E48" s="86">
-        <v>2.75E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F48" s="87">
         <v>100</v>
       </c>
       <c r="G48" s="85">
-        <v>41533</v>
+        <v>41654</v>
       </c>
       <c r="H48" s="85">
-        <v>41533</v>
+        <v>41654</v>
       </c>
       <c r="I48" s="119" t="str">
         <f>_xll.qlBTP2(C48,,D48,E48,F48,G48,H48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004960826#0006</v>
-      </c>
-      <c r="J48" s="134" t="b">
+        <v>IT0004987191#0001</v>
+      </c>
+      <c r="J48" s="127" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6617,104 +6582,106 @@
     </row>
     <row r="49" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
-      <c r="B49" s="133"/>
+      <c r="B49" s="126" t="str">
+        <f>_xll.ohRangeRetrieveError(I49)</f>
+        <v/>
+      </c>
       <c r="C49" s="40" t="s">
-        <v>445</v>
+        <v>41</v>
       </c>
       <c r="D49" s="85">
-        <v>42719</v>
+        <v>42767</v>
       </c>
       <c r="E49" s="86">
-        <v>1.4999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F49" s="87">
         <v>100</v>
       </c>
       <c r="G49" s="85">
-        <v>41654</v>
+        <v>38930</v>
       </c>
       <c r="H49" s="85">
-        <v>41654</v>
+        <v>39084</v>
       </c>
       <c r="I49" s="119" t="str">
         <f>_xll.qlBTP2(C49,,D49,E49,F49,G49,H49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004987191#0006</v>
-      </c>
-      <c r="J49" s="134" t="b">
+        <v>IT0004164775#0001</v>
+      </c>
+      <c r="J49" s="127" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="121" t="str">
-        <f>IF(AND(J49,ISNA(L49),ISNA(M49)),"Residual Missing","--")</f>
+        <f t="shared" si="0"/>
         <v>--</v>
       </c>
       <c r="L49" s="48" t="e">
         <f>LEFT(VLOOKUP($D49,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M49" s="120" t="e">
+      <c r="M49" s="120" t="str">
         <f>LEFT(VLOOKUP($D49,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0004276322</v>
       </c>
       <c r="N49" s="27"/>
     </row>
     <row r="50" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
-      <c r="B50" s="133" t="str">
+      <c r="B50" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I50)</f>
         <v/>
       </c>
       <c r="C50" s="40" t="s">
-        <v>41</v>
+        <v>428</v>
       </c>
       <c r="D50" s="85">
-        <v>42767</v>
+        <v>42856</v>
       </c>
       <c r="E50" s="86">
-        <v>0.04</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="F50" s="87">
         <v>100</v>
       </c>
       <c r="G50" s="85">
-        <v>38930</v>
+        <v>40940</v>
       </c>
       <c r="H50" s="85">
-        <v>39084</v>
+        <v>40940</v>
       </c>
       <c r="I50" s="119" t="str">
         <f>_xll.qlBTP2(C50,,D50,E50,F50,G50,H50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004164775#0006</v>
-      </c>
-      <c r="J50" s="134" t="b">
-        <f t="shared" si="1"/>
+        <v>IT0004793474#0001</v>
+      </c>
+      <c r="J50" s="127" t="b">
         <v>1</v>
       </c>
       <c r="K50" s="121" t="str">
         <f t="shared" si="0"/>
-        <v>--</v>
+        <v>Residual Missing</v>
       </c>
       <c r="L50" s="48" t="e">
         <f>LEFT(VLOOKUP($D50,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M50" s="120" t="str">
+      <c r="M50" s="120" t="e">
         <f>LEFT(VLOOKUP($D50,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0004276322</v>
+        <v>#N/A</v>
       </c>
       <c r="N50" s="27"/>
     </row>
     <row r="51" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
-      <c r="B51" s="133" t="str">
+      <c r="B51" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I51)</f>
         <v/>
       </c>
       <c r="C51" s="40" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="D51" s="85">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="E51" s="86">
         <v>4.7500000000000001E-2</v>
@@ -6723,16 +6690,16 @@
         <v>100</v>
       </c>
       <c r="G51" s="85">
-        <v>40940</v>
+        <v>41061</v>
       </c>
       <c r="H51" s="85">
-        <v>40940</v>
+        <v>41061</v>
       </c>
       <c r="I51" s="119" t="str">
         <f>_xll.qlBTP2(C51,,D51,E51,F51,G51,H51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004793474#0006</v>
-      </c>
-      <c r="J51" s="134" t="b">
+        <v>IT0004820426#0001</v>
+      </c>
+      <c r="J51" s="127" t="b">
         <v>1</v>
       </c>
       <c r="K51" s="121" t="str">
@@ -6751,400 +6718,398 @@
     </row>
     <row r="52" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
-      <c r="B52" s="133" t="str">
+      <c r="B52" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I52)</f>
         <v/>
       </c>
       <c r="C52" s="40" t="s">
-        <v>435</v>
+        <v>42</v>
       </c>
       <c r="D52" s="85">
-        <v>42887</v>
+        <v>42948</v>
       </c>
       <c r="E52" s="86">
-        <v>4.7500000000000001E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="F52" s="87">
         <v>100</v>
       </c>
       <c r="G52" s="85">
-        <v>41061</v>
+        <v>37288</v>
       </c>
       <c r="H52" s="85">
-        <v>41061</v>
+        <v>37301</v>
       </c>
       <c r="I52" s="119" t="str">
         <f>_xll.qlBTP2(C52,,D52,E52,F52,G52,H52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004820426#0006</v>
-      </c>
-      <c r="J52" s="134" t="b">
+        <v>IT0003242747#0001</v>
+      </c>
+      <c r="J52" s="127" t="b">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K52" s="121" t="str">
         <f t="shared" si="0"/>
-        <v>Residual Missing</v>
+        <v>--</v>
       </c>
       <c r="L52" s="48" t="e">
         <f>LEFT(VLOOKUP($D52,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M52" s="120" t="e">
+      <c r="M52" s="120" t="str">
         <f>LEFT(VLOOKUP($D52,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
+        <v>IT0003246250</v>
       </c>
       <c r="N52" s="27"/>
     </row>
     <row r="53" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
-      <c r="B53" s="133" t="str">
+      <c r="B53" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I53)</f>
         <v/>
       </c>
       <c r="C53" s="40" t="s">
-        <v>42</v>
+        <v>436</v>
       </c>
       <c r="D53" s="85">
-        <v>42948</v>
+        <v>43040</v>
       </c>
       <c r="E53" s="86">
-        <v>5.2499999999999998E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F53" s="87">
         <v>100</v>
       </c>
       <c r="G53" s="85">
-        <v>37288</v>
+        <v>41214</v>
       </c>
       <c r="H53" s="85">
-        <v>37301</v>
+        <v>41214</v>
       </c>
       <c r="I53" s="119" t="str">
         <f>_xll.qlBTP2(C53,,D53,E53,F53,G53,H53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003242747#0006</v>
-      </c>
-      <c r="J53" s="134" t="b">
+        <v>IT0004867070#0001</v>
+      </c>
+      <c r="J53" s="127" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" s="121" t="str">
+        <f t="shared" si="0"/>
+        <v>Residual Missing</v>
+      </c>
+      <c r="L53" s="48" t="e">
+        <f>LEFT(VLOOKUP($D53,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M53" s="120" t="e">
+        <f>LEFT(VLOOKUP($D53,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N53" s="27"/>
+    </row>
+    <row r="54" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="19"/>
+      <c r="B54" s="126" t="str">
+        <f>_xll.ohRangeRetrieveError(I54)</f>
+        <v/>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="85">
+        <v>43132</v>
+      </c>
+      <c r="E54" s="86">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F54" s="87">
+        <v>100</v>
+      </c>
+      <c r="G54" s="85">
+        <v>39295</v>
+      </c>
+      <c r="H54" s="85">
+        <v>39328</v>
+      </c>
+      <c r="I54" s="119" t="str">
+        <f>_xll.qlBTP2(C54,,D54,E54,F54,G54,H54,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>IT0004273493#0001</v>
+      </c>
+      <c r="J54" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K53" s="121" t="str">
+      <c r="K54" s="121" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="L53" s="48" t="e">
-        <f>LEFT(VLOOKUP($D53,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M53" s="120" t="str">
-        <f>LEFT(VLOOKUP($D53,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0003246250</v>
-      </c>
-      <c r="N53" s="27"/>
-    </row>
-    <row r="54" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="19"/>
-      <c r="B54" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I54)</f>
-        <v/>
-      </c>
-      <c r="C54" s="40" t="s">
-        <v>436</v>
-      </c>
-      <c r="D54" s="85">
-        <v>43040</v>
-      </c>
-      <c r="E54" s="86">
+      <c r="L54" s="48" t="e">
+        <f>LEFT(VLOOKUP($D54,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M54" s="120" t="str">
+        <f>LEFT(VLOOKUP($D54,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
+        <v>IT0004275811</v>
+      </c>
+      <c r="N54" s="27"/>
+    </row>
+    <row r="55" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="19"/>
+      <c r="B55" s="126" t="str">
+        <f>_xll.ohRangeRetrieveError(I55)</f>
+        <v/>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="D55" s="85">
+        <v>43252</v>
+      </c>
+      <c r="E55" s="86">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F54" s="87">
-        <v>100</v>
-      </c>
-      <c r="G54" s="85">
-        <v>41214</v>
-      </c>
-      <c r="H54" s="85">
-        <v>41214</v>
-      </c>
-      <c r="I54" s="119" t="str">
-        <f>_xll.qlBTP2(C54,,D54,E54,F54,G54,H54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004867070#0006</v>
-      </c>
-      <c r="J54" s="134" t="b">
+      <c r="F55" s="87">
+        <v>100</v>
+      </c>
+      <c r="G55" s="85">
+        <v>41366</v>
+      </c>
+      <c r="H55" s="85">
+        <v>41366</v>
+      </c>
+      <c r="I55" s="119" t="str">
+        <f>_xll.qlBTP2(C55,,D55,E55,F55,G55,H55,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>IT0004907843#0001</v>
+      </c>
+      <c r="J55" s="127" t="b">
         <v>1</v>
       </c>
-      <c r="K54" s="121" t="str">
+      <c r="K55" s="121" t="str">
         <f t="shared" si="0"/>
         <v>Residual Missing</v>
       </c>
-      <c r="L54" s="48" t="e">
-        <f>LEFT(VLOOKUP($D54,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M54" s="120" t="e">
-        <f>LEFT(VLOOKUP($D54,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N54" s="27"/>
-    </row>
-    <row r="55" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19"/>
-      <c r="B55" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I55)</f>
-        <v/>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55" s="85">
-        <v>43132</v>
-      </c>
-      <c r="E55" s="86">
+      <c r="L55" s="48" t="e">
+        <f>LEFT(VLOOKUP($D55,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M55" s="120" t="e">
+        <f>LEFT(VLOOKUP($D55,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N55" s="27"/>
+    </row>
+    <row r="56" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="19"/>
+      <c r="B56" s="126" t="str">
+        <f>_xll.ohRangeRetrieveError(I56)</f>
+        <v/>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="85">
+        <v>43313</v>
+      </c>
+      <c r="E56" s="86">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F55" s="87">
-        <v>100</v>
-      </c>
-      <c r="G55" s="85">
-        <v>39295</v>
-      </c>
-      <c r="H55" s="85">
-        <v>39328</v>
-      </c>
-      <c r="I55" s="119" t="str">
-        <f>_xll.qlBTP2(C55,,D55,E55,F55,G55,H55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004273493#0006</v>
-      </c>
-      <c r="J55" s="134" t="b">
+      <c r="F56" s="87">
+        <v>100</v>
+      </c>
+      <c r="G56" s="85">
+        <v>39479</v>
+      </c>
+      <c r="H56" s="85">
+        <v>39570</v>
+      </c>
+      <c r="I56" s="119" t="str">
+        <f>_xll.qlBTP2(C56,,D56,E56,F56,G56,H56,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>IT0004361041#0001</v>
+      </c>
+      <c r="J56" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K55" s="121" t="str">
+      <c r="K56" s="121" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="L55" s="48" t="e">
-        <f>LEFT(VLOOKUP($D55,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M55" s="120" t="str">
-        <f>LEFT(VLOOKUP($D55,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0004275811</v>
-      </c>
-      <c r="N55" s="27"/>
-    </row>
-    <row r="56" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19"/>
-      <c r="B56" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I56)</f>
-        <v/>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>437</v>
-      </c>
-      <c r="D56" s="85">
-        <v>43252</v>
-      </c>
-      <c r="E56" s="86">
+      <c r="L56" s="48" t="e">
+        <f>LEFT(VLOOKUP($D56,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M56" s="120" t="str">
+        <f>LEFT(VLOOKUP($D56,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
+        <v>IT0004363450</v>
+      </c>
+      <c r="N56" s="27"/>
+    </row>
+    <row r="57" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="19"/>
+      <c r="B57" s="126"/>
+      <c r="C57" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="D57" s="85">
+        <v>43435</v>
+      </c>
+      <c r="E57" s="86">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F56" s="87">
-        <v>100</v>
-      </c>
-      <c r="G56" s="85">
-        <v>41366</v>
-      </c>
-      <c r="H56" s="85">
-        <v>41366</v>
-      </c>
-      <c r="I56" s="119" t="str">
-        <f>_xll.qlBTP2(C56,,D56,E56,F56,G56,H56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004907843#0006</v>
-      </c>
-      <c r="J56" s="134" t="b">
+      <c r="F57" s="87">
+        <v>100</v>
+      </c>
+      <c r="G57" s="85">
+        <v>41426</v>
+      </c>
+      <c r="H57" s="85">
+        <v>41519</v>
+      </c>
+      <c r="I57" s="119" t="str">
+        <f>_xll.qlBTP2(C57,,D57,E57,F57,G57,H57,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>IT0004957574#0001</v>
+      </c>
+      <c r="J57" s="127" t="b">
         <v>1</v>
       </c>
-      <c r="K56" s="121" t="str">
+      <c r="K57" s="121" t="str">
+        <f>IF(AND(J57,ISNA(L57),ISNA(M57)),"Residual Missing","--")</f>
+        <v>Residual Missing</v>
+      </c>
+      <c r="L57" s="48" t="e">
+        <f>LEFT(VLOOKUP($D57,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M57" s="120" t="e">
+        <f>LEFT(VLOOKUP($D57,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N57" s="27"/>
+    </row>
+    <row r="58" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="19"/>
+      <c r="B58" s="126" t="str">
+        <f>_xll.ohRangeRetrieveError(I58)</f>
+        <v/>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="85">
+        <v>43497</v>
+      </c>
+      <c r="E58" s="86">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="F58" s="87">
+        <v>100</v>
+      </c>
+      <c r="G58" s="85">
+        <v>37653</v>
+      </c>
+      <c r="H58" s="85">
+        <v>37797</v>
+      </c>
+      <c r="I58" s="119" t="str">
+        <f>_xll.qlBTP2(C58,,D58,E58,F58,G58,H58,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>IT0003493258#0001</v>
+      </c>
+      <c r="J58" s="127" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K58" s="121" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="L58" s="48" t="e">
+        <f>LEFT(VLOOKUP($D58,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M58" s="120" t="str">
+        <f>LEFT(VLOOKUP($D58,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
+        <v>IT0003513105</v>
+      </c>
+      <c r="N58" s="27"/>
+    </row>
+    <row r="59" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="19"/>
+      <c r="B59" s="126" t="str">
+        <f>_xll.ohRangeRetrieveError(I59)</f>
+        <v/>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="85">
+        <v>43525</v>
+      </c>
+      <c r="E59" s="86">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F59" s="87">
+        <v>100</v>
+      </c>
+      <c r="G59" s="85">
+        <v>39692</v>
+      </c>
+      <c r="H59" s="85">
+        <v>39755</v>
+      </c>
+      <c r="I59" s="119" t="str">
+        <f>_xll.qlBTP2(C59,,D59,E59,F59,G59,H59,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>IT0004423957#0001</v>
+      </c>
+      <c r="J59" s="127" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K59" s="121" t="str">
         <f t="shared" si="0"/>
         <v>Residual Missing</v>
       </c>
-      <c r="L56" s="48" t="e">
-        <f>LEFT(VLOOKUP($D56,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M56" s="120" t="e">
-        <f>LEFT(VLOOKUP($D56,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N56" s="27"/>
-    </row>
-    <row r="57" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I57)</f>
-        <v/>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" s="85">
-        <v>43313</v>
-      </c>
-      <c r="E57" s="86">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="F57" s="87">
-        <v>100</v>
-      </c>
-      <c r="G57" s="85">
-        <v>39479</v>
-      </c>
-      <c r="H57" s="85">
-        <v>39570</v>
-      </c>
-      <c r="I57" s="119" t="str">
-        <f>_xll.qlBTP2(C57,,D57,E57,F57,G57,H57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004361041#0006</v>
-      </c>
-      <c r="J57" s="134" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K57" s="121" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
-      <c r="L57" s="48" t="e">
-        <f>LEFT(VLOOKUP($D57,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M57" s="120" t="str">
-        <f>LEFT(VLOOKUP($D57,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0004363450</v>
-      </c>
-      <c r="N57" s="27"/>
-    </row>
-    <row r="58" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="133"/>
-      <c r="C58" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="D58" s="85">
-        <v>43435</v>
-      </c>
-      <c r="E58" s="86">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F58" s="87">
-        <v>100</v>
-      </c>
-      <c r="G58" s="85">
-        <v>41426</v>
-      </c>
-      <c r="H58" s="85">
-        <v>41519</v>
-      </c>
-      <c r="I58" s="119" t="str">
-        <f>_xll.qlBTP2(C58,,D58,E58,F58,G58,H58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004957574#0006</v>
-      </c>
-      <c r="J58" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="K58" s="121" t="str">
-        <f>IF(AND(J58,ISNA(L58),ISNA(M58)),"Residual Missing","--")</f>
-        <v>Residual Missing</v>
-      </c>
-      <c r="L58" s="48" t="e">
-        <f>LEFT(VLOOKUP($D58,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M58" s="120" t="e">
-        <f>LEFT(VLOOKUP($D58,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N58" s="27"/>
-    </row>
-    <row r="59" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="B59" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I59)</f>
-        <v/>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="85">
-        <v>43497</v>
-      </c>
-      <c r="E59" s="86">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="F59" s="87">
-        <v>100</v>
-      </c>
-      <c r="G59" s="85">
-        <v>37653</v>
-      </c>
-      <c r="H59" s="85">
-        <v>37797</v>
-      </c>
-      <c r="I59" s="119" t="str">
-        <f>_xll.qlBTP2(C59,,D59,E59,F59,G59,H59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003493258#0006</v>
-      </c>
-      <c r="J59" s="134" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K59" s="121" t="str">
-        <f t="shared" si="0"/>
-        <v>--</v>
-      </c>
       <c r="L59" s="48" t="e">
         <f>LEFT(VLOOKUP($D59,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
-      <c r="M59" s="120" t="str">
+      <c r="M59" s="120" t="e">
         <f>LEFT(VLOOKUP($D59,'BTP Strip Feb-Aug'!$H$8:$M$27,6,FALSE),12)</f>
-        <v>IT0003513105</v>
+        <v>#N/A</v>
       </c>
       <c r="N59" s="27"/>
     </row>
     <row r="60" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
-      <c r="B60" s="133" t="str">
-        <f>_xll.ohRangeRetrieveError(I60)</f>
-        <v/>
-      </c>
+      <c r="B60" s="126"/>
       <c r="C60" s="40" t="s">
-        <v>51</v>
+        <v>446</v>
       </c>
       <c r="D60" s="85">
-        <v>43525</v>
+        <v>43586</v>
       </c>
       <c r="E60" s="86">
-        <v>4.4999999999999998E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F60" s="87">
         <v>100</v>
       </c>
       <c r="G60" s="85">
-        <v>39692</v>
+        <v>41673</v>
       </c>
       <c r="H60" s="85">
-        <v>39755</v>
+        <v>41673</v>
       </c>
       <c r="I60" s="119" t="str">
         <f>_xll.qlBTP2(C60,,D60,E60,F60,G60,H60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004423957#0006</v>
-      </c>
-      <c r="J60" s="134" t="b">
+        <v>IT0004992308#0001</v>
+      </c>
+      <c r="J60" s="127" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="121" t="str">
-        <f t="shared" si="0"/>
-        <v>Residual Missing</v>
+        <f>IF(AND(J60,ISNA(L60),ISNA(M60)),"Residual Missing","--")</f>
+        <v>--</v>
       </c>
       <c r="L60" s="48" t="e">
         <f>LEFT(VLOOKUP($D60,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -7158,31 +7123,30 @@
     </row>
     <row r="61" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="19"/>
-      <c r="B61" s="133"/>
+      <c r="B61" s="126"/>
       <c r="C61" s="40" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D61" s="85">
-        <v>43586</v>
+        <v>43678</v>
       </c>
       <c r="E61" s="86">
-        <v>2.5000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F61" s="87">
         <v>100</v>
       </c>
       <c r="G61" s="85">
-        <v>41673</v>
+        <v>41821</v>
       </c>
       <c r="H61" s="85">
-        <v>41673</v>
+        <v>41821</v>
       </c>
       <c r="I61" s="119" t="str">
         <f>_xll.qlBTP2(C61,,D61,E61,F61,G61,H61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004992308#0006</v>
-      </c>
-      <c r="J61" s="134" t="b">
-        <f t="shared" si="1"/>
+        <v>IT0005030504#0001</v>
+      </c>
+      <c r="J61" s="127" t="b">
         <v>0</v>
       </c>
       <c r="K61" s="121" t="str">
@@ -7201,35 +7165,39 @@
     </row>
     <row r="62" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
-      <c r="B62" s="133"/>
+      <c r="B62" s="126" t="str">
+        <f>_xll.ohRangeRetrieveError(I62)</f>
+        <v/>
+      </c>
       <c r="C62" s="40" t="s">
-        <v>448</v>
+        <v>52</v>
       </c>
       <c r="D62" s="85">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="E62" s="86">
-        <v>1.4999999999999999E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="F62" s="87">
         <v>100</v>
       </c>
       <c r="G62" s="85">
-        <v>41821</v>
+        <v>39873</v>
       </c>
       <c r="H62" s="85">
-        <v>41821</v>
+        <v>39937</v>
       </c>
       <c r="I62" s="119" t="str">
         <f>_xll.qlBTP2(C62,,D62,E62,F62,G62,H62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005030504#0006</v>
-      </c>
-      <c r="J62" s="134" t="b">
-        <v>0</v>
+        <v>IT0004489610#0001</v>
+      </c>
+      <c r="J62" s="127" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K62" s="121" t="str">
-        <f>IF(AND(J62,ISNA(L62),ISNA(M62)),"Residual Missing","--")</f>
-        <v>--</v>
+        <f t="shared" si="0"/>
+        <v>Residual Missing</v>
       </c>
       <c r="L62" s="48" t="e">
         <f>LEFT(VLOOKUP($D62,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -7243,39 +7211,38 @@
     </row>
     <row r="63" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
-      <c r="B63" s="133" t="str">
+      <c r="B63" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I63)</f>
         <v/>
       </c>
       <c r="C63" s="40" t="s">
-        <v>52</v>
+        <v>453</v>
       </c>
       <c r="D63" s="85">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="E63" s="86">
-        <v>4.2500000000000003E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="F63" s="87">
         <v>100</v>
       </c>
       <c r="G63" s="85">
-        <v>39873</v>
+        <v>41974</v>
       </c>
       <c r="H63" s="85">
-        <v>39937</v>
+        <v>41974</v>
       </c>
       <c r="I63" s="119" t="str">
         <f>_xll.qlBTP2(C63,,D63,E63,F63,G63,H63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004489610#0006</v>
-      </c>
-      <c r="J63" s="134" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>IT0005069395#0002</v>
+      </c>
+      <c r="J63" s="127" t="b">
+        <v>0</v>
       </c>
       <c r="K63" s="121" t="str">
-        <f t="shared" si="0"/>
-        <v>Residual Missing</v>
+        <f t="shared" ref="K63" si="2">IF(AND(J63,ISNA(L63),ISNA(M63)),"Residual Missing","--")</f>
+        <v>--</v>
       </c>
       <c r="L63" s="48" t="e">
         <f>LEFT(VLOOKUP($D63,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
@@ -7289,7 +7256,7 @@
     </row>
     <row r="64" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
-      <c r="B64" s="133" t="str">
+      <c r="B64" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I64)</f>
         <v/>
       </c>
@@ -7313,9 +7280,9 @@
       </c>
       <c r="I64" s="119" t="str">
         <f>_xll.qlBTP2(C64,,D64,E64,F64,G64,H64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003644769#0006</v>
-      </c>
-      <c r="J64" s="134" t="b">
+        <v>IT0003644769#0001</v>
+      </c>
+      <c r="J64" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7335,7 +7302,7 @@
     </row>
     <row r="65" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
-      <c r="B65" s="133" t="str">
+      <c r="B65" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I65)</f>
         <v/>
       </c>
@@ -7359,9 +7326,9 @@
       </c>
       <c r="I65" s="119" t="str">
         <f>_xll.qlBTP2(C65,,D65,E65,F65,G65,H65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004536949#0006</v>
-      </c>
-      <c r="J65" s="134" t="b">
+        <v>IT0004536949#0001</v>
+      </c>
+      <c r="J65" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7381,7 +7348,7 @@
     </row>
     <row r="66" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
-      <c r="B66" s="133" t="str">
+      <c r="B66" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I66)</f>
         <v/>
       </c>
@@ -7405,9 +7372,9 @@
       </c>
       <c r="I66" s="119" t="str">
         <f>_xll.qlBTP2(C66,,D66,E66,F66,G66,H66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004594930#0006</v>
-      </c>
-      <c r="J66" s="134" t="b">
+        <v>IT0004594930#0001</v>
+      </c>
+      <c r="J66" s="127" t="b">
         <v>1</v>
       </c>
       <c r="K66" s="121" t="str">
@@ -7426,7 +7393,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
-      <c r="B67" s="133" t="str">
+      <c r="B67" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I67)</f>
         <v/>
       </c>
@@ -7450,9 +7417,9 @@
       </c>
       <c r="I67" s="119" t="str">
         <f>_xll.qlBTP2(C67,,D67,E67,F67,G67,H67,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004634132#0006</v>
-      </c>
-      <c r="J67" s="134" t="b">
+        <v>IT0004634132#0001</v>
+      </c>
+      <c r="J67" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7473,7 +7440,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
-      <c r="B68" s="133"/>
+      <c r="B68" s="126"/>
       <c r="C68" s="40" t="s">
         <v>444</v>
       </c>
@@ -7494,9 +7461,9 @@
       </c>
       <c r="I68" s="119" t="str">
         <f>_xll.qlBTP2(C68,,D68,E68,F68,G68,H68,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004966401#0006</v>
-      </c>
-      <c r="J68" s="134" t="b">
+        <v>IT0004966401#0001</v>
+      </c>
+      <c r="J68" s="127" t="b">
         <v>1</v>
       </c>
       <c r="K68" s="121" t="str">
@@ -7516,7 +7483,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
-      <c r="B69" s="133" t="str">
+      <c r="B69" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I69)</f>
         <v/>
       </c>
@@ -7540,9 +7507,9 @@
       </c>
       <c r="I69" s="119" t="str">
         <f>_xll.qlBTP2(C69,,D69,E69,F69,G69,H69,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004009673#0006</v>
-      </c>
-      <c r="J69" s="134" t="b">
+        <v>IT0004009673#0001</v>
+      </c>
+      <c r="J69" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7563,7 +7530,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
-      <c r="B70" s="133" t="str">
+      <c r="B70" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I70)</f>
         <v/>
       </c>
@@ -7587,9 +7554,9 @@
       </c>
       <c r="I70" s="119" t="str">
         <f>_xll.qlBTP2(C70,,D70,E70,F70,G70,H70,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004695075#0006</v>
-      </c>
-      <c r="J70" s="134" t="b">
+        <v>IT0004695075#0001</v>
+      </c>
+      <c r="J70" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7610,7 +7577,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
-      <c r="B71" s="133"/>
+      <c r="B71" s="126"/>
       <c r="C71" s="40" t="s">
         <v>449</v>
       </c>
@@ -7631,9 +7598,9 @@
       </c>
       <c r="I71" s="119" t="str">
         <f>_xll.qlBTP2(C71,,D71,E71,F71,G71,H71,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005028003#0006</v>
-      </c>
-      <c r="J71" s="134" t="b">
+        <v>IT0005028003#0001</v>
+      </c>
+      <c r="J71" s="127" t="b">
         <v>0</v>
       </c>
       <c r="K71" s="121" t="str">
@@ -7653,7 +7620,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
-      <c r="B72" s="133" t="str">
+      <c r="B72" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I72)</f>
         <v/>
       </c>
@@ -7677,9 +7644,9 @@
       </c>
       <c r="I72" s="119" t="str">
         <f>_xll.qlBTP2(C72,,D72,E72,F72,G72,H72,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004759673#0006</v>
-      </c>
-      <c r="J72" s="134" t="b">
+        <v>IT0004759673#0001</v>
+      </c>
+      <c r="J72" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7700,7 +7667,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
-      <c r="B73" s="133" t="str">
+      <c r="B73" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I73)</f>
         <v/>
       </c>
@@ -7724,9 +7691,9 @@
       </c>
       <c r="I73" s="119" t="str">
         <f>_xll.qlBTP2(C73,,D73,E73,F73,G73,H73,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004801541#0006</v>
-      </c>
-      <c r="J73" s="134" t="b">
+        <v>IT0004801541#0001</v>
+      </c>
+      <c r="J73" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7747,7 +7714,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
-      <c r="B74" s="133" t="str">
+      <c r="B74" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I74)</f>
         <v/>
       </c>
@@ -7771,9 +7738,9 @@
       </c>
       <c r="I74" s="119" t="str">
         <f>_xll.qlBTP2(C74,,D74,E74,F74,G74,H74,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004848831#0006</v>
-      </c>
-      <c r="J74" s="134" t="b">
+        <v>IT0004848831#0001</v>
+      </c>
+      <c r="J74" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7794,7 +7761,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
-      <c r="B75" s="133" t="str">
+      <c r="B75" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I75)</f>
         <v/>
       </c>
@@ -7818,9 +7785,9 @@
       </c>
       <c r="I75" s="119" t="str">
         <f>_xll.qlBTP2(C75,,D75,E75,F75,G75,H75,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004898034#0006</v>
-      </c>
-      <c r="J75" s="134" t="b">
+        <v>IT0004898034#0001</v>
+      </c>
+      <c r="J75" s="127" t="b">
         <v>1</v>
       </c>
       <c r="K75" s="121" t="str">
@@ -7840,7 +7807,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
-      <c r="B76" s="133" t="str">
+      <c r="B76" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I76)</f>
         <v/>
       </c>
@@ -7864,9 +7831,9 @@
       </c>
       <c r="I76" s="119" t="str">
         <f>_xll.qlBTP2(C76,,D76,E76,F76,G76,H76,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004356843#0006</v>
-      </c>
-      <c r="J76" s="134" t="b">
+        <v>IT0004356843#0001</v>
+      </c>
+      <c r="J76" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7887,7 +7854,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
-      <c r="B77" s="133" t="str">
+      <c r="B77" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I77)</f>
         <v/>
       </c>
@@ -7911,14 +7878,14 @@
       </c>
       <c r="I77" s="119" t="str">
         <f>_xll.qlBTP2(C77,,D77,E77,F77,G77,H77,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0000366655#0006</v>
-      </c>
-      <c r="J77" s="134" t="b">
+        <v>IT0000366655#0001</v>
+      </c>
+      <c r="J77" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K77" s="121" t="str">
-        <f t="shared" ref="K77:K94" si="2">IF(AND(J77,ISNA(L77),ISNA(M77)),"Residual Missing","--")</f>
+        <f t="shared" ref="K77:K94" si="3">IF(AND(J77,ISNA(L77),ISNA(M77)),"Residual Missing","--")</f>
         <v>--</v>
       </c>
       <c r="L77" s="48" t="str">
@@ -7934,7 +7901,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
-      <c r="B78" s="133"/>
+      <c r="B78" s="126"/>
       <c r="C78" s="40" t="s">
         <v>441</v>
       </c>
@@ -7955,9 +7922,9 @@
       </c>
       <c r="I78" s="119" t="str">
         <f>_xll.qlBTP2(C78,,D78,E78,F78,G78,H78,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004953417#0006</v>
-      </c>
-      <c r="J78" s="134" t="b">
+        <v>IT0004953417#0001</v>
+      </c>
+      <c r="J78" s="127" t="b">
         <v>1</v>
       </c>
       <c r="K78" s="121" t="str">
@@ -7977,7 +7944,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
-      <c r="B79" s="133"/>
+      <c r="B79" s="126"/>
       <c r="C79" s="40" t="s">
         <v>447</v>
       </c>
@@ -7998,9 +7965,9 @@
       </c>
       <c r="I79" s="119" t="str">
         <f>_xll.qlBTP2(C79,,D79,E79,F79,G79,H79,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005001547#0006</v>
-      </c>
-      <c r="J79" s="134" t="b">
+        <v>IT0005001547#0001</v>
+      </c>
+      <c r="J79" s="127" t="b">
         <v>1</v>
       </c>
       <c r="K79" s="121" t="str">
@@ -8020,7 +7987,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
-      <c r="B80" s="133"/>
+      <c r="B80" s="126"/>
       <c r="C80" s="40" t="s">
         <v>451</v>
       </c>
@@ -8041,9 +8008,9 @@
       </c>
       <c r="I80" s="119" t="str">
         <f>_xll.qlBTP2(C80,,D80,E80,F80,G80,H80,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005045270#0006</v>
-      </c>
-      <c r="J80" s="134" t="b">
+        <v>IT0005045270#0001</v>
+      </c>
+      <c r="J80" s="127" t="b">
         <v>1</v>
       </c>
       <c r="K80" s="121" t="str">
@@ -8063,7 +8030,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
-      <c r="B81" s="133" t="str">
+      <c r="B81" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I81)</f>
         <v/>
       </c>
@@ -8087,13 +8054,13 @@
       </c>
       <c r="I81" s="119" t="str">
         <f>_xll.qlBTP2(C81,,D81,E81,F81,G81,H81,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004513641#0006</v>
-      </c>
-      <c r="J81" s="134" t="b">
+        <v>IT0004513641#0001</v>
+      </c>
+      <c r="J81" s="127" t="b">
         <v>1</v>
       </c>
       <c r="K81" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Residual Missing</v>
       </c>
       <c r="L81" s="48" t="e">
@@ -8109,7 +8076,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
-      <c r="B82" s="133" t="str">
+      <c r="B82" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I82)</f>
         <v/>
       </c>
@@ -8133,14 +8100,14 @@
       </c>
       <c r="I82" s="119" t="str">
         <f>_xll.qlBTP2(C82,,D82,E82,F82,G82,H82,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004644735#0006</v>
-      </c>
-      <c r="J82" s="134" t="b">
+        <v>IT0004644735#0001</v>
+      </c>
+      <c r="J82" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K82" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Residual Missing</v>
       </c>
       <c r="L82" s="48" t="e">
@@ -8156,7 +8123,7 @@
     </row>
     <row r="83" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
-      <c r="B83" s="133" t="str">
+      <c r="B83" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I83)</f>
         <v/>
       </c>
@@ -8180,14 +8147,14 @@
       </c>
       <c r="I83" s="119" t="str">
         <f>_xll.qlBTP2(C83,,D83,E83,F83,G83,H83,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001086567#0006</v>
-      </c>
-      <c r="J83" s="134" t="b">
+        <v>IT0001086567#0001</v>
+      </c>
+      <c r="J83" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K83" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>--</v>
       </c>
       <c r="L83" s="48" t="str">
@@ -8202,7 +8169,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
-      <c r="B84" s="133" t="str">
+      <c r="B84" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I84)</f>
         <v/>
       </c>
@@ -8226,14 +8193,14 @@
       </c>
       <c r="I84" s="119" t="str">
         <f>_xll.qlBTP2(C84,,D84,E84,F84,G84,H84,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001174611#0006</v>
-      </c>
-      <c r="J84" s="134" t="b">
+        <v>IT0001174611#0001</v>
+      </c>
+      <c r="J84" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K84" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>--</v>
       </c>
       <c r="L84" s="48" t="str">
@@ -8248,7 +8215,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
-      <c r="B85" s="133" t="str">
+      <c r="B85" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I85)</f>
         <v/>
       </c>
@@ -8272,13 +8239,13 @@
       </c>
       <c r="I85" s="119" t="str">
         <f>_xll.qlBTP2(C85,,D85,E85,F85,G85,H85,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004889033#0006</v>
-      </c>
-      <c r="J85" s="134" t="b">
+        <v>IT0004889033#0001</v>
+      </c>
+      <c r="J85" s="127" t="b">
         <v>1</v>
       </c>
       <c r="K85" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Residual Missing</v>
       </c>
       <c r="L85" s="48" t="e">
@@ -8293,7 +8260,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
-      <c r="B86" s="133" t="str">
+      <c r="B86" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I86)</f>
         <v/>
       </c>
@@ -8317,14 +8284,14 @@
       </c>
       <c r="I86" s="119" t="str">
         <f>_xll.qlBTP2(C86,,D86,E86,F86,G86,H86,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001278511#0006</v>
-      </c>
-      <c r="J86" s="134" t="b">
+        <v>IT0001278511#0001</v>
+      </c>
+      <c r="J86" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K86" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>--</v>
       </c>
       <c r="L86" s="48" t="str">
@@ -8339,7 +8306,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
-      <c r="B87" s="133"/>
+      <c r="B87" s="126"/>
       <c r="C87" s="40" t="s">
         <v>450</v>
       </c>
@@ -8360,9 +8327,9 @@
       </c>
       <c r="I87" s="119" t="str">
         <f>_xll.qlBTP2(C87,,D87,E87,F87,G87,H87,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0005024234#0006</v>
-      </c>
-      <c r="J87" s="134" t="b">
+        <v>IT0005024234#0001</v>
+      </c>
+      <c r="J87" s="127" t="b">
         <v>0</v>
       </c>
       <c r="K87" s="121" t="str">
@@ -8381,7 +8348,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
-      <c r="B88" s="133" t="str">
+      <c r="B88" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I88)</f>
         <v/>
       </c>
@@ -8405,14 +8372,14 @@
       </c>
       <c r="I88" s="119" t="str">
         <f>_xll.qlBTP2(C88,,D88,E88,F88,G88,H88,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0001444378#0006</v>
-      </c>
-      <c r="J88" s="134" t="b">
+        <v>IT0001444378#0001</v>
+      </c>
+      <c r="J88" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K88" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>--</v>
       </c>
       <c r="L88" s="48" t="str">
@@ -8427,7 +8394,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
-      <c r="B89" s="133" t="str">
+      <c r="B89" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I89)</f>
         <v/>
       </c>
@@ -8451,14 +8418,14 @@
       </c>
       <c r="I89" s="119" t="str">
         <f>_xll.qlBTP2(C89,,D89,E89,F89,G89,H89,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003256820#0006</v>
-      </c>
-      <c r="J89" s="134" t="b">
+        <v>IT0003256820#0001</v>
+      </c>
+      <c r="J89" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K89" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>--</v>
       </c>
       <c r="L89" s="48" t="e">
@@ -8473,7 +8440,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
-      <c r="B90" s="133" t="str">
+      <c r="B90" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I90)</f>
         <v/>
       </c>
@@ -8497,14 +8464,14 @@
       </c>
       <c r="I90" s="119" t="str">
         <f>_xll.qlBTP2(C90,,D90,E90,F90,G90,H90,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003535157#0006</v>
-      </c>
-      <c r="J90" s="134" t="b">
+        <v>IT0003535157#0001</v>
+      </c>
+      <c r="J90" s="127" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K90" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>--</v>
       </c>
       <c r="L90" s="48" t="e">
@@ -8519,7 +8486,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
-      <c r="B91" s="133" t="str">
+      <c r="B91" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I91)</f>
         <v/>
       </c>
@@ -8543,14 +8510,14 @@
       </c>
       <c r="I91" s="119" t="str">
         <f>_xll.qlBTP2(C91,,D91,E91,F91,G91,H91,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0003934657#0006</v>
-      </c>
-      <c r="J91" s="134" t="b">
+        <v>IT0003934657#0001</v>
+      </c>
+      <c r="J91" s="127" t="b">
         <f>NOT(ISNA(VLOOKUP(LEFT($I91,12),LatestStrippable,1,FALSE)))</f>
         <v>1</v>
       </c>
       <c r="K91" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>--</v>
       </c>
       <c r="L91" s="48" t="e">
@@ -8565,7 +8532,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
-      <c r="B92" s="133" t="str">
+      <c r="B92" s="126" t="str">
         <f>_xll.ohRangeRetrieveError(I92)</f>
         <v/>
       </c>
@@ -8589,14 +8556,14 @@
       </c>
       <c r="I92" s="119" t="str">
         <f>_xll.qlBTP2(C92,,D92,E92,F92,G92,H92,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004286966#0006</v>
-      </c>
-      <c r="J92" s="134" t="b">
+        <v>IT0004286966#0001</v>
+      </c>
+      <c r="J92" s="127" t="b">
         <f>NOT(ISNA(VLOOKUP(LEFT($I92,12),LatestStrippable,1,FALSE)))</f>
         <v>1</v>
       </c>
       <c r="K92" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>--</v>
       </c>
       <c r="L92" s="48" t="e">
@@ -8611,7 +8578,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
-      <c r="B93" s="133"/>
+      <c r="B93" s="126"/>
       <c r="C93" s="40" t="s">
         <v>71</v>
       </c>
@@ -8632,9 +8599,9 @@
       </c>
       <c r="I93" s="119" t="str">
         <f>_xll.qlBTP2(C93,,D93,E93,F93,G93,H93,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004532559#0006</v>
-      </c>
-      <c r="J93" s="134" t="b">
+        <v>IT0004532559#0001</v>
+      </c>
+      <c r="J93" s="127" t="b">
         <f>NOT(ISNA(VLOOKUP(LEFT($I93,12),LatestStrippable,1,FALSE)))</f>
         <v>1</v>
       </c>
@@ -8654,40 +8621,40 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
-      <c r="B94" s="135" t="str">
+      <c r="B94" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(I94)</f>
         <v/>
       </c>
-      <c r="C94" s="136" t="s">
+      <c r="C94" s="129" t="s">
         <v>440</v>
       </c>
-      <c r="D94" s="137">
+      <c r="D94" s="130">
         <v>52841</v>
       </c>
-      <c r="E94" s="138">
+      <c r="E94" s="131">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="F94" s="139">
-        <v>100</v>
-      </c>
-      <c r="G94" s="137">
+      <c r="F94" s="132">
+        <v>100</v>
+      </c>
+      <c r="G94" s="130">
         <v>41334</v>
       </c>
-      <c r="H94" s="137">
+      <c r="H94" s="130">
         <v>41416</v>
       </c>
-      <c r="I94" s="140" t="str">
+      <c r="I94" s="133" t="str">
         <f>_xll.qlBTP2(C94,,D94,E94,F94,G94,H94,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>IT0004923998#0006</v>
-      </c>
-      <c r="J94" s="141" t="b">
+        <v>IT0004923998#0001</v>
+      </c>
+      <c r="J94" s="134" t="b">
         <v>1</v>
       </c>
       <c r="K94" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Residual Missing</v>
       </c>
-      <c r="L94" s="143" t="e">
+      <c r="L94" s="136" t="e">
         <f>LEFT(VLOOKUP($D94,'BTP Strip May-Nov'!$H$8:$M$13,6,FALSE),12)</f>
         <v>#N/A</v>
       </c>
@@ -8723,8 +8690,8 @@
       <c r="G96" s="22"/>
       <c r="H96" s="22"/>
       <c r="I96" s="22" t="str">
-        <f>_xll.ohGroup(J96,_xll.ohFilter(I9:I94,J9:J94),Permanent,,ObjectOverwrite)</f>
-        <v>StrippableBTPs#0008</v>
+        <f>_xll.ohGroup(J96,_xll.ohFilter(I8:I94,J8:J94),Permanent,,ObjectOverwrite)</f>
+        <v>StrippableBTPs#0005</v>
       </c>
       <c r="J96" s="22" t="s">
         <v>357</v>
@@ -8744,8 +8711,8 @@
       <c r="G97" s="45"/>
       <c r="H97" s="45"/>
       <c r="I97" s="45" t="str">
-        <f>_xll.ohGroup(J97,I9:I94,Permanent,,ObjectOverwrite)</f>
-        <v>BTPs#0008</v>
+        <f>_xll.ohGroup(J97,I8:I94,Permanent,,ObjectOverwrite)</f>
+        <v>BTPs#0003</v>
       </c>
       <c r="J97" s="45" t="s">
         <v>356</v>
@@ -8758,7 +8725,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8:R9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8804,7 +8771,7 @@
         <v>452</v>
       </c>
       <c r="B2" s="101" t="e">
-        <f>VLOOKUP(A2,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A2,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8813,7 +8780,7 @@
         <v>452</v>
       </c>
       <c r="B3" s="101" t="e">
-        <f>VLOOKUP(A3,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A3,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8822,7 +8789,7 @@
         <v>452</v>
       </c>
       <c r="B4" s="101" t="e">
-        <f>VLOOKUP(A4,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A4,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8831,7 +8798,7 @@
         <v>452</v>
       </c>
       <c r="B5" s="101" t="e">
-        <f>VLOOKUP(A5,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A5,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8840,7 +8807,7 @@
         <v>452</v>
       </c>
       <c r="B6" s="101" t="e">
-        <f>VLOOKUP(A6,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A6,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8849,7 +8816,7 @@
         <v>452</v>
       </c>
       <c r="B7" s="101" t="e">
-        <f>VLOOKUP(A7,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A7,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8858,7 +8825,7 @@
         <v>452</v>
       </c>
       <c r="B8" s="101" t="e">
-        <f>VLOOKUP(A8,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A8,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8867,7 +8834,7 @@
         <v>452</v>
       </c>
       <c r="B9" s="101" t="e">
-        <f>VLOOKUP(A9,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A9,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8876,7 +8843,7 @@
         <v>452</v>
       </c>
       <c r="B10" s="101" t="e">
-        <f>VLOOKUP(A10,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A10,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8885,7 +8852,7 @@
         <v>452</v>
       </c>
       <c r="B11" s="101" t="e">
-        <f>VLOOKUP(A11,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A11,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8894,7 +8861,7 @@
         <v>452</v>
       </c>
       <c r="B12" s="101" t="e">
-        <f>VLOOKUP(A12,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A12,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8903,7 +8870,7 @@
         <v>452</v>
       </c>
       <c r="B13" s="101" t="e">
-        <f>VLOOKUP(A13,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A13,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8912,7 +8879,7 @@
         <v>452</v>
       </c>
       <c r="B14" s="101" t="e">
-        <f>VLOOKUP(A14,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A14,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8921,7 +8888,7 @@
         <v>452</v>
       </c>
       <c r="B15" s="101" t="e">
-        <f>VLOOKUP(A15,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A15,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8930,7 +8897,7 @@
         <v>452</v>
       </c>
       <c r="B16" s="101" t="e">
-        <f>VLOOKUP(A16,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A16,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8939,7 +8906,7 @@
         <v>452</v>
       </c>
       <c r="B17" s="101" t="e">
-        <f>VLOOKUP(A17,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A17,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8948,7 +8915,7 @@
         <v>452</v>
       </c>
       <c r="B18" s="101" t="e">
-        <f>VLOOKUP(A18,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A18,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8957,7 +8924,7 @@
         <v>452</v>
       </c>
       <c r="B19" s="101" t="e">
-        <f>VLOOKUP(A19,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A19,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8966,7 +8933,7 @@
         <v>452</v>
       </c>
       <c r="B20" s="101" t="e">
-        <f>VLOOKUP(A20,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A20,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8975,7 +8942,7 @@
         <v>452</v>
       </c>
       <c r="B21" s="101" t="e">
-        <f>VLOOKUP(A21,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A21,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8984,7 +8951,7 @@
         <v>452</v>
       </c>
       <c r="B22" s="101" t="e">
-        <f>VLOOKUP(A22,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A22,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8993,7 +8960,7 @@
         <v>452</v>
       </c>
       <c r="B23" s="101" t="e">
-        <f>VLOOKUP(A23,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A23,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9002,7 +8969,7 @@
         <v>452</v>
       </c>
       <c r="B24" s="101" t="e">
-        <f>VLOOKUP(A24,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A24,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9011,7 +8978,7 @@
         <v>452</v>
       </c>
       <c r="B25" s="101" t="e">
-        <f>VLOOKUP(A25,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A25,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9020,7 +8987,7 @@
         <v>452</v>
       </c>
       <c r="B26" s="101" t="e">
-        <f>VLOOKUP(A26,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A26,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9029,7 +8996,7 @@
         <v>452</v>
       </c>
       <c r="B27" s="101" t="e">
-        <f>VLOOKUP(A27,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A27,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9038,7 +9005,7 @@
         <v>452</v>
       </c>
       <c r="B28" s="101" t="e">
-        <f>VLOOKUP(A28,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A28,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9047,7 +9014,7 @@
         <v>452</v>
       </c>
       <c r="B29" s="101" t="e">
-        <f>VLOOKUP(A29,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A29,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9056,7 +9023,7 @@
         <v>452</v>
       </c>
       <c r="B30" s="101" t="e">
-        <f>VLOOKUP(A30,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A30,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9065,7 +9032,7 @@
         <v>452</v>
       </c>
       <c r="B31" s="101" t="e">
-        <f>VLOOKUP(A31,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A31,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9074,7 +9041,7 @@
         <v>452</v>
       </c>
       <c r="B32" s="101" t="e">
-        <f>VLOOKUP(A32,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A32,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9083,7 +9050,7 @@
         <v>452</v>
       </c>
       <c r="B33" s="101" t="e">
-        <f>VLOOKUP(A33,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A33,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9092,7 +9059,7 @@
         <v>452</v>
       </c>
       <c r="B34" s="101" t="e">
-        <f>VLOOKUP(A34,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A34,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9101,7 +9068,7 @@
         <v>452</v>
       </c>
       <c r="B35" s="101" t="e">
-        <f>VLOOKUP(A35,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A35,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D35" s="102" t="str">
@@ -9159,7 +9126,7 @@
         <v>452</v>
       </c>
       <c r="B36" s="101" t="e">
-        <f>VLOOKUP(A36,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A36,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D36" s="103">
@@ -9229,7 +9196,7 @@
         <v>452</v>
       </c>
       <c r="B37" s="101" t="e">
-        <f>VLOOKUP(A37,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A37,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D37" s="103">
@@ -9299,7 +9266,7 @@
         <v>452</v>
       </c>
       <c r="B38" s="101" t="e">
-        <f>VLOOKUP(A38,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A38,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D38" s="103">
@@ -9369,7 +9336,7 @@
         <v>452</v>
       </c>
       <c r="B39" s="101" t="e">
-        <f>VLOOKUP(A39,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A39,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D39" s="103">
@@ -9439,7 +9406,7 @@
         <v>452</v>
       </c>
       <c r="B40" s="101" t="e">
-        <f>VLOOKUP(A40,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A40,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D40" s="103">
@@ -9509,7 +9476,7 @@
         <v>452</v>
       </c>
       <c r="B41" s="101" t="e">
-        <f>VLOOKUP(A41,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A41,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D41" s="103">
@@ -9579,7 +9546,7 @@
         <v>452</v>
       </c>
       <c r="B42" s="101" t="e">
-        <f>VLOOKUP(A42,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A42,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D42" s="103">
@@ -9649,7 +9616,7 @@
         <v>452</v>
       </c>
       <c r="B43" s="101" t="e">
-        <f>VLOOKUP(A43,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A43,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D43" s="103">
@@ -9719,7 +9686,7 @@
         <v>452</v>
       </c>
       <c r="B44" s="101" t="e">
-        <f>VLOOKUP(A44,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A44,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D44" s="103">
@@ -9789,7 +9756,7 @@
         <v>452</v>
       </c>
       <c r="B45" s="101" t="e">
-        <f>VLOOKUP(A45,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A45,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D45" s="103">
@@ -9859,7 +9826,7 @@
         <v>452</v>
       </c>
       <c r="B46" s="101" t="e">
-        <f>VLOOKUP(A46,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A46,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D46" s="103">
@@ -9929,7 +9896,7 @@
         <v>452</v>
       </c>
       <c r="B47" s="101" t="e">
-        <f>VLOOKUP(A47,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A47,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D47" s="103">
@@ -9999,7 +9966,7 @@
         <v>452</v>
       </c>
       <c r="B48" s="101" t="e">
-        <f>VLOOKUP(A48,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A48,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D48" s="103">
@@ -10069,7 +10036,7 @@
         <v>452</v>
       </c>
       <c r="B49" s="101" t="e">
-        <f>VLOOKUP(A49,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A49,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D49" s="103">
@@ -10139,7 +10106,7 @@
         <v>452</v>
       </c>
       <c r="B50" s="101" t="e">
-        <f>VLOOKUP(A50,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A50,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D50" s="103">
@@ -10209,7 +10176,7 @@
         <v>452</v>
       </c>
       <c r="B51" s="101" t="e">
-        <f>VLOOKUP(A51,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A51,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D51" s="103">
@@ -10279,7 +10246,7 @@
         <v>452</v>
       </c>
       <c r="B52" s="101" t="e">
-        <f>VLOOKUP(A52,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A52,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D52" s="103">
@@ -10349,7 +10316,7 @@
         <v>452</v>
       </c>
       <c r="B53" s="101" t="e">
-        <f>VLOOKUP(A53,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A53,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D53" s="103" t="e">
@@ -10400,7 +10367,7 @@
         <v>452</v>
       </c>
       <c r="B54" s="101" t="e">
-        <f>VLOOKUP(A54,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A54,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D54" s="103" t="e">
@@ -10451,7 +10418,7 @@
         <v>452</v>
       </c>
       <c r="B55" s="101" t="e">
-        <f>VLOOKUP(A55,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A55,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D55" s="103" t="e">
@@ -10502,7 +10469,7 @@
         <v>452</v>
       </c>
       <c r="B56" s="101" t="e">
-        <f>VLOOKUP(A56,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A56,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D56" s="103" t="e">
@@ -10553,7 +10520,7 @@
         <v>452</v>
       </c>
       <c r="B57" s="101" t="e">
-        <f>VLOOKUP(A57,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A57,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D57" s="103" t="e">
@@ -10604,7 +10571,7 @@
         <v>452</v>
       </c>
       <c r="B58" s="101" t="e">
-        <f>VLOOKUP(A58,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A58,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D58" s="103" t="e">
@@ -10655,7 +10622,7 @@
         <v>452</v>
       </c>
       <c r="B59" s="101" t="e">
-        <f>VLOOKUP(A59,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A59,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D59" s="103" t="e">
@@ -10706,7 +10673,7 @@
         <v>452</v>
       </c>
       <c r="B60" s="101" t="e">
-        <f>VLOOKUP(A60,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A60,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D60" s="103" t="e">
@@ -10757,7 +10724,7 @@
         <v>452</v>
       </c>
       <c r="B61" s="101" t="e">
-        <f>VLOOKUP(A61,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A61,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D61" s="103" t="e">
@@ -10808,7 +10775,7 @@
         <v>452</v>
       </c>
       <c r="B62" s="101" t="e">
-        <f>VLOOKUP(A62,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A62,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D62" s="103" t="e">
@@ -10859,7 +10826,7 @@
         <v>452</v>
       </c>
       <c r="B63" s="101" t="e">
-        <f>VLOOKUP(A63,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A63,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D63" s="103" t="e">
@@ -10910,7 +10877,7 @@
         <v>452</v>
       </c>
       <c r="B64" s="101" t="e">
-        <f>VLOOKUP(A64,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A64,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D64" s="103" t="e">
@@ -10961,7 +10928,7 @@
         <v>452</v>
       </c>
       <c r="B65" s="101" t="e">
-        <f>VLOOKUP(A65,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A65,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D65" s="103" t="e">
@@ -11012,7 +10979,7 @@
         <v>452</v>
       </c>
       <c r="B66" s="101" t="e">
-        <f>VLOOKUP(A66,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A66,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D66" s="103" t="e">
@@ -11063,7 +11030,7 @@
         <v>452</v>
       </c>
       <c r="B67" s="101" t="e">
-        <f>VLOOKUP(A67,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A67,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D67" s="103" t="e">
@@ -11114,7 +11081,7 @@
         <v>452</v>
       </c>
       <c r="B68" s="101" t="e">
-        <f>VLOOKUP(A68,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A68,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D68" s="103" t="e">
@@ -11165,7 +11132,7 @@
         <v>452</v>
       </c>
       <c r="B69" s="101" t="e">
-        <f>VLOOKUP(A69,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A69,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D69" s="103" t="e">
@@ -11216,7 +11183,7 @@
         <v>452</v>
       </c>
       <c r="B70" s="101" t="e">
-        <f>VLOOKUP(A70,BTP!$C$9:$C$94,1,FALSE)</f>
+        <f>VLOOKUP(A70,BTP!$C$8:$C$94,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D70" s="103" t="e">
